--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_22_28.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_22_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>360089.6983739837</v>
+        <v>359405.455034022</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6033391.197417974</v>
+        <v>6033391.197417976</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736552</v>
+        <v>504792.0292736553</v>
       </c>
     </row>
     <row r="9">
@@ -1370,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>9.898307938987424</v>
+        <v>148.3792973187131</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1421,22 +1421,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>4.602084647045862</v>
+        <v>4.60208464704589</v>
       </c>
       <c r="U11" t="n">
-        <v>37.37943843060893</v>
+        <v>37.37943843060896</v>
       </c>
       <c r="V11" t="n">
-        <v>118.7000222604374</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>148.3792973187131</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>128.5983301994246</v>
       </c>
     </row>
     <row r="12">
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>112.1692753975545</v>
+        <v>92.90561913956532</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1458,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1494,22 +1494,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>39.4266772089115</v>
       </c>
       <c r="S12" t="n">
         <v>145.3600385256214</v>
       </c>
       <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.379447522937284</v>
+      </c>
+      <c r="V12" t="n">
         <v>148.3792973187131</v>
       </c>
-      <c r="U12" t="n">
-        <v>1.379447522937256</v>
-      </c>
-      <c r="V12" t="n">
-        <v>11.20220722356871</v>
-      </c>
       <c r="W12" t="n">
-        <v>23.9932509764424</v>
+        <v>148.3792973187131</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1549,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>40.59287420192322</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1570,31 +1570,31 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>15.80988382663727</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>147.7648850750662</v>
+        <v>148.3792973187131</v>
       </c>
       <c r="T13" t="n">
-        <v>14.79767854512919</v>
+        <v>14.79767854512922</v>
       </c>
       <c r="U13" t="n">
+        <v>69.39432448974536</v>
+      </c>
+      <c r="V13" t="n">
+        <v>43.21849229458098</v>
+      </c>
+      <c r="W13" t="n">
+        <v>68.38537836519424</v>
+      </c>
+      <c r="X13" t="n">
+        <v>26.87315067382522</v>
+      </c>
+      <c r="Y13" t="n">
         <v>148.3792973187131</v>
-      </c>
-      <c r="V13" t="n">
-        <v>43.21849229458095</v>
-      </c>
-      <c r="W13" t="n">
-        <v>68.38537836519421</v>
-      </c>
-      <c r="X13" t="n">
-        <v>148.3792973187131</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>4.905348117065017</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>148.3792973187131</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>148.3792973187131</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
         <v>148.3792973187131</v>
       </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
       <c r="H14" t="n">
-        <v>16.37163839820461</v>
+        <v>108.491929119956</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1664,16 +1664,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>118.7000222604374</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>144.0001217383943</v>
+        <v>22.20055595836649</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>148.3792973187131</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1686,22 +1686,22 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>148.3792973187131</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>95.86480218241283</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1731,25 +1731,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>39.4266772089115</v>
       </c>
       <c r="S15" t="n">
-        <v>145.3600385256214</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>148.3792973187131</v>
       </c>
       <c r="U15" t="n">
-        <v>20.50548821309455</v>
+        <v>1.379447522937227</v>
       </c>
       <c r="V15" t="n">
-        <v>11.20220722356871</v>
+        <v>148.3792973187131</v>
       </c>
       <c r="W15" t="n">
-        <v>23.9932509764424</v>
+        <v>23.99325097644237</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>65.89310937003123</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1762,76 +1762,76 @@
         </is>
       </c>
       <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
         <v>148.3792973187131</v>
       </c>
-      <c r="C16" t="n">
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>122.3562510640338</v>
+      </c>
+      <c r="U16" t="n">
+        <v>69.3943244897453</v>
+      </c>
+      <c r="V16" t="n">
         <v>148.3792973187131</v>
       </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>14.79767854512919</v>
-      </c>
-      <c r="U16" t="n">
-        <v>69.39432448974533</v>
-      </c>
-      <c r="V16" t="n">
-        <v>43.21849229458095</v>
-      </c>
       <c r="W16" t="n">
-        <v>132.7254585895177</v>
+        <v>68.38537836519419</v>
       </c>
       <c r="X16" t="n">
-        <v>14.03048036099733</v>
+        <v>14.0304803609973</v>
       </c>
       <c r="Y16" t="n">
-        <v>4.905348117065017</v>
+        <v>4.905348117064989</v>
       </c>
     </row>
     <row r="17">
@@ -1844,10 +1844,10 @@
         <v>66.70171590030219</v>
       </c>
       <c r="C17" t="n">
-        <v>54.71303285798393</v>
+        <v>54.71303285798425</v>
       </c>
       <c r="D17" t="n">
-        <v>45.69433690251288</v>
+        <v>45.69433690251191</v>
       </c>
       <c r="E17" t="n">
         <v>67.43647447241744</v>
@@ -1923,13 +1923,13 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>148.3792973187131</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>94.08737534442648</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1968,13 +1968,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>39.4266772089115</v>
       </c>
       <c r="S18" t="n">
-        <v>145.3600385256214</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>133.7117438714142</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -1989,7 +1989,7 @@
         <v>148.3792973187131</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>148.3792973187131</v>
       </c>
     </row>
     <row r="19">
@@ -2020,10 +2020,10 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>134.7371713495762</v>
+        <v>130.6924850783224</v>
       </c>
       <c r="J19" t="n">
-        <v>40.59287420192322</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2044,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.80988382663727</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2056,19 +2056,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
         <v>148.3792973187131</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>148.3792973187131</v>
       </c>
       <c r="Y19" t="n">
-        <v>87.93185301889879</v>
+        <v>148.3792973187131</v>
       </c>
     </row>
     <row r="20">
@@ -2160,19 +2160,19 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>148.3792973187131</v>
       </c>
       <c r="D21" t="n">
         <v>137.45025063969</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>11.09623916273671</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>145.3600385256214</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2217,13 +2217,13 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>144.6407905504372</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>148.3792973187131</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>148.3792973187131</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>148.3792973187131</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>148.3792973187131</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>148.3792973187131</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>114.8826012516851</v>
       </c>
       <c r="W22" t="n">
-        <v>114.8826012516852</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>148.3792973187131</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>148.3792973187131</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2403,16 +2403,16 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F24" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>127.122959624192</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>73.6351637923209</v>
       </c>
       <c r="I24" t="n">
         <v>56.74098649571546</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>39.42667720891151</v>
+        <v>39.4266772089115</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2454,16 +2454,16 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>49.55725862278414</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>148.3792973187131</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>148.3792973187131</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2485,55 +2485,55 @@
         <v>148.3792973187131</v>
       </c>
       <c r="F25" t="n">
-        <v>114.8826012516851</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>130.6924850783224</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
         <v>148.3792973187131</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>15.80988382663727</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>213.6327500501803</v>
       </c>
       <c r="I26" t="n">
-        <v>38.38869180229742</v>
+        <v>38.38869180229739</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.03364652322247</v>
+        <v>62.03364652322246</v>
       </c>
       <c r="T26" t="n">
         <v>109.7429055772701</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>39.42667720891151</v>
+        <v>39.4266772089115</v>
       </c>
       <c r="S27" t="n">
         <v>145.3600385256214</v>
@@ -2810,7 +2810,7 @@
         <v>213.6327500501803</v>
       </c>
       <c r="I29" t="n">
-        <v>38.38869180229742</v>
+        <v>38.38869180229739</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.03364652322247</v>
+        <v>62.03364652322246</v>
       </c>
       <c r="T29" t="n">
         <v>109.7429055772701</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>39.42667720891151</v>
+        <v>39.4266772089115</v>
       </c>
       <c r="S30" t="n">
         <v>145.3600385256214</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>280.3344659504826</v>
+        <v>280.3344659504825</v>
       </c>
       <c r="C32" t="n">
-        <v>268.3457829081644</v>
+        <v>268.3457829081643</v>
       </c>
       <c r="D32" t="n">
-        <v>259.3270869526924</v>
+        <v>259.3270869526922</v>
       </c>
       <c r="E32" t="n">
-        <v>281.0692245225979</v>
+        <v>281.0692245225978</v>
       </c>
       <c r="F32" t="n">
-        <v>300.2410406105751</v>
+        <v>300.2410406105749</v>
       </c>
       <c r="G32" t="n">
-        <v>301.5794911335436</v>
+        <v>301.5794911335435</v>
       </c>
       <c r="H32" t="n">
-        <v>213.6327500501804</v>
+        <v>213.6327500501803</v>
       </c>
       <c r="I32" t="n">
-        <v>38.38869180229753</v>
+        <v>38.38869180229739</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.03364652322259</v>
+        <v>62.03364652322244</v>
       </c>
       <c r="T32" t="n">
-        <v>109.7429055772702</v>
+        <v>109.7429055772701</v>
       </c>
       <c r="U32" t="n">
-        <v>142.5202593608333</v>
+        <v>142.5202593608332</v>
       </c>
       <c r="V32" t="n">
-        <v>223.8408431906618</v>
+        <v>223.8408431906616</v>
       </c>
       <c r="W32" t="n">
-        <v>249.1409426686187</v>
+        <v>249.1409426686185</v>
       </c>
       <c r="X32" t="n">
-        <v>268.4412009013653</v>
+        <v>268.4412009013652</v>
       </c>
       <c r="Y32" t="n">
-        <v>279.837798697564</v>
+        <v>279.8377986975639</v>
       </c>
     </row>
     <row r="33">
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>39.42667720891151</v>
+        <v>39.4266772089115</v>
       </c>
       <c r="S33" t="n">
         <v>145.3600385256214</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>71.95117682517972</v>
+        <v>71.9511768251796</v>
       </c>
       <c r="C34" t="n">
-        <v>58.1511716705802</v>
+        <v>58.15117167058008</v>
       </c>
       <c r="D34" t="n">
-        <v>41.77253606815859</v>
+        <v>41.77253606815847</v>
       </c>
       <c r="E34" t="n">
-        <v>40.72028592393804</v>
+        <v>40.72028592393792</v>
       </c>
       <c r="F34" t="n">
-        <v>41.18721025212434</v>
+        <v>41.18721025212423</v>
       </c>
       <c r="G34" t="n">
-        <v>57.19509837661156</v>
+        <v>57.19509837661145</v>
       </c>
       <c r="H34" t="n">
-        <v>45.63805627134727</v>
+        <v>45.63805627134716</v>
       </c>
       <c r="I34" t="n">
-        <v>24.96853317721987</v>
+        <v>24.96853317721975</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>26.26097088965815</v>
+        <v>26.26097088965803</v>
       </c>
       <c r="S34" t="n">
-        <v>97.15417605088567</v>
+        <v>97.15417605088555</v>
       </c>
       <c r="T34" t="n">
-        <v>119.9384994753535</v>
+        <v>119.9384994753534</v>
       </c>
       <c r="U34" t="n">
-        <v>174.5351454199697</v>
+        <v>174.5351454199696</v>
       </c>
       <c r="V34" t="n">
-        <v>148.3593132248053</v>
+        <v>148.3593132248052</v>
       </c>
       <c r="W34" t="n">
-        <v>173.5261992954186</v>
+        <v>173.5261992954185</v>
       </c>
       <c r="X34" t="n">
-        <v>119.1713012912217</v>
+        <v>119.1713012912216</v>
       </c>
       <c r="Y34" t="n">
-        <v>110.0461690472894</v>
+        <v>110.0461690472893</v>
       </c>
     </row>
     <row r="35">
@@ -3266,13 +3266,13 @@
         <v>241.9457741481851</v>
       </c>
       <c r="C35" t="n">
-        <v>229.9570911058669</v>
+        <v>229.9570911058668</v>
       </c>
       <c r="D35" t="n">
         <v>220.9383951503948</v>
       </c>
       <c r="E35" t="n">
-        <v>242.6805327203004</v>
+        <v>242.6805327203003</v>
       </c>
       <c r="F35" t="n">
         <v>261.8523488082775</v>
@@ -3281,7 +3281,7 @@
         <v>263.190799331246</v>
       </c>
       <c r="H35" t="n">
-        <v>175.2440582478829</v>
+        <v>175.2440582478828</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>23.64495472092506</v>
+        <v>23.644954720925</v>
       </c>
       <c r="T35" t="n">
-        <v>71.35421377497269</v>
+        <v>71.35421377497266</v>
       </c>
       <c r="U35" t="n">
         <v>104.1315675585357</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>39.42667720891151</v>
+        <v>39.4266772089115</v>
       </c>
       <c r="S36" t="n">
         <v>145.3600385256214</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>33.56248502288219</v>
+        <v>33.56248502288216</v>
       </c>
       <c r="C37" t="n">
-        <v>19.76247986828267</v>
+        <v>19.76247986828264</v>
       </c>
       <c r="D37" t="n">
-        <v>3.383844265861057</v>
+        <v>3.383844265861029</v>
       </c>
       <c r="E37" t="n">
-        <v>2.331594121640507</v>
+        <v>2.331594121640478</v>
       </c>
       <c r="F37" t="n">
-        <v>2.798518449826815</v>
+        <v>2.798518449826787</v>
       </c>
       <c r="G37" t="n">
-        <v>18.80640657431403</v>
+        <v>18.806406574314</v>
       </c>
       <c r="H37" t="n">
-        <v>7.249364469049747</v>
+        <v>7.249364469049718</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>58.76548424858814</v>
+        <v>58.76548424858811</v>
       </c>
       <c r="T37" t="n">
-        <v>81.54980767305601</v>
+        <v>81.54980767305598</v>
       </c>
       <c r="U37" t="n">
-        <v>136.1464536176722</v>
+        <v>136.1464536176721</v>
       </c>
       <c r="V37" t="n">
-        <v>109.9706214225078</v>
+        <v>109.9706214225077</v>
       </c>
       <c r="W37" t="n">
         <v>135.137507493121</v>
       </c>
       <c r="X37" t="n">
-        <v>80.78260948892415</v>
+        <v>80.78260948892412</v>
       </c>
       <c r="Y37" t="n">
-        <v>71.65747724499184</v>
+        <v>71.65747724499181</v>
       </c>
     </row>
     <row r="38">
@@ -3503,13 +3503,13 @@
         <v>241.9457741481851</v>
       </c>
       <c r="C38" t="n">
-        <v>229.9570911058669</v>
+        <v>229.9570911058668</v>
       </c>
       <c r="D38" t="n">
-        <v>220.938395150395</v>
+        <v>220.9383951503948</v>
       </c>
       <c r="E38" t="n">
-        <v>242.6805327203004</v>
+        <v>242.6805327203003</v>
       </c>
       <c r="F38" t="n">
         <v>261.8523488082775</v>
@@ -3518,7 +3518,7 @@
         <v>263.190799331246</v>
       </c>
       <c r="H38" t="n">
-        <v>175.2440582478829</v>
+        <v>175.2440582478828</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>23.64495472092504</v>
+        <v>23.644954720925</v>
       </c>
       <c r="T38" t="n">
-        <v>71.35421377497268</v>
+        <v>71.35421377497266</v>
       </c>
       <c r="U38" t="n">
         <v>104.1315675585357</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>39.42667720891151</v>
+        <v>39.4266772089115</v>
       </c>
       <c r="S39" t="n">
         <v>145.3600385256214</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>33.56248502288219</v>
+        <v>33.56248502288216</v>
       </c>
       <c r="C40" t="n">
-        <v>19.76247986828267</v>
+        <v>19.76247986828264</v>
       </c>
       <c r="D40" t="n">
-        <v>3.383844265861057</v>
+        <v>3.383844265861029</v>
       </c>
       <c r="E40" t="n">
-        <v>2.331594121640507</v>
+        <v>2.331594121640478</v>
       </c>
       <c r="F40" t="n">
-        <v>2.798518449826815</v>
+        <v>2.798518449826787</v>
       </c>
       <c r="G40" t="n">
-        <v>18.80640657431403</v>
+        <v>18.806406574314</v>
       </c>
       <c r="H40" t="n">
-        <v>7.249364469049747</v>
+        <v>7.249364469049718</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>58.76548424858814</v>
+        <v>58.76548424858811</v>
       </c>
       <c r="T40" t="n">
-        <v>81.54980767305601</v>
+        <v>81.54980767305598</v>
       </c>
       <c r="U40" t="n">
-        <v>136.1464536176722</v>
+        <v>136.1464536176721</v>
       </c>
       <c r="V40" t="n">
-        <v>109.9706214225078</v>
+        <v>109.9706214225077</v>
       </c>
       <c r="W40" t="n">
         <v>135.137507493121</v>
       </c>
       <c r="X40" t="n">
-        <v>80.78260948892415</v>
+        <v>80.78260948892412</v>
       </c>
       <c r="Y40" t="n">
-        <v>71.65747724499184</v>
+        <v>71.65747724499181</v>
       </c>
     </row>
     <row r="41">
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>39.42667720891151</v>
+        <v>39.4266772089115</v>
       </c>
       <c r="S42" t="n">
         <v>145.3600385256214</v>
@@ -3977,13 +3977,13 @@
         <v>241.9457741481851</v>
       </c>
       <c r="C44" t="n">
-        <v>229.9570911058669</v>
+        <v>229.9570911058668</v>
       </c>
       <c r="D44" t="n">
         <v>220.9383951503948</v>
       </c>
       <c r="E44" t="n">
-        <v>242.6805327203004</v>
+        <v>242.6805327203003</v>
       </c>
       <c r="F44" t="n">
         <v>261.8523488082775</v>
@@ -3992,7 +3992,7 @@
         <v>263.190799331246</v>
       </c>
       <c r="H44" t="n">
-        <v>175.2440582478829</v>
+        <v>175.2440582478828</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>23.64495472092504</v>
+        <v>23.64495472092501</v>
       </c>
       <c r="T44" t="n">
-        <v>71.35421377497268</v>
+        <v>71.35421377497265</v>
       </c>
       <c r="U44" t="n">
         <v>104.1315675585357</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>39.42667720891151</v>
+        <v>39.4266772089115</v>
       </c>
       <c r="S45" t="n">
         <v>145.3600385256214</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>33.56248502288219</v>
+        <v>33.56248502288216</v>
       </c>
       <c r="C46" t="n">
-        <v>19.76247986828267</v>
+        <v>19.76247986828264</v>
       </c>
       <c r="D46" t="n">
-        <v>3.383844265861057</v>
+        <v>3.383844265861029</v>
       </c>
       <c r="E46" t="n">
-        <v>2.331594121640507</v>
+        <v>2.331594121640478</v>
       </c>
       <c r="F46" t="n">
-        <v>2.798518449826815</v>
+        <v>2.798518449826787</v>
       </c>
       <c r="G46" t="n">
-        <v>18.80640657431403</v>
+        <v>18.806406574314</v>
       </c>
       <c r="H46" t="n">
-        <v>7.249364469049747</v>
+        <v>7.249364469049718</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>58.76548424858814</v>
+        <v>58.76548424858811</v>
       </c>
       <c r="T46" t="n">
-        <v>81.54980767305601</v>
+        <v>81.54980767305598</v>
       </c>
       <c r="U46" t="n">
-        <v>136.1464536176722</v>
+        <v>136.1464536176721</v>
       </c>
       <c r="V46" t="n">
-        <v>109.9706214225078</v>
+        <v>109.9706214225077</v>
       </c>
       <c r="W46" t="n">
         <v>135.137507493121</v>
       </c>
       <c r="X46" t="n">
-        <v>80.78260948892415</v>
+        <v>80.78260948892412</v>
       </c>
       <c r="Y46" t="n">
-        <v>71.65747724499184</v>
+        <v>71.65747724499181</v>
       </c>
     </row>
   </sheetData>
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>281.3345199245441</v>
+        <v>421.2143071767923</v>
       </c>
       <c r="C11" t="n">
         <v>271.3362290770821</v>
@@ -5030,7 +5030,7 @@
         <v>271.3362290770821</v>
       </c>
       <c r="G11" t="n">
-        <v>121.4581509773718</v>
+        <v>121.4581509773719</v>
       </c>
       <c r="H11" t="n">
         <v>11.87034378549705</v>
@@ -5039,19 +5039,19 @@
         <v>11.87034378549705</v>
       </c>
       <c r="J11" t="n">
-        <v>133.8484253820178</v>
+        <v>133.8484253820179</v>
       </c>
       <c r="K11" t="n">
-        <v>280.7439297275438</v>
+        <v>133.8484253820179</v>
       </c>
       <c r="L11" t="n">
-        <v>280.7439297275438</v>
+        <v>133.8484253820179</v>
       </c>
       <c r="M11" t="n">
-        <v>280.7439297275438</v>
+        <v>133.8484253820179</v>
       </c>
       <c r="N11" t="n">
-        <v>280.7439297275438</v>
+        <v>152.8306762382745</v>
       </c>
       <c r="O11" t="n">
         <v>299.7261805838004</v>
@@ -5072,19 +5072,19 @@
         <v>588.868618924301</v>
       </c>
       <c r="U11" t="n">
-        <v>551.1116104085345</v>
+        <v>551.1116104085343</v>
       </c>
       <c r="V11" t="n">
-        <v>431.2125980242542</v>
+        <v>551.1116104085343</v>
       </c>
       <c r="W11" t="n">
-        <v>431.2125980242542</v>
+        <v>551.1116104085343</v>
       </c>
       <c r="X11" t="n">
-        <v>281.3345199245441</v>
+        <v>551.1116104085343</v>
       </c>
       <c r="Y11" t="n">
-        <v>281.3345199245441</v>
+        <v>421.2143071767923</v>
       </c>
     </row>
     <row r="12">
@@ -5094,16 +5094,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>259.8664402169909</v>
+        <v>105.7144035224317</v>
       </c>
       <c r="C12" t="n">
-        <v>146.5641418356227</v>
+        <v>11.87034378549705</v>
       </c>
       <c r="D12" t="n">
-        <v>146.5641418356227</v>
+        <v>11.87034378549705</v>
       </c>
       <c r="E12" t="n">
-        <v>146.5641418356227</v>
+        <v>11.87034378549705</v>
       </c>
       <c r="F12" t="n">
         <v>11.87034378549705</v>
@@ -5118,22 +5118,22 @@
         <v>11.87034378549705</v>
       </c>
       <c r="J12" t="n">
-        <v>101.8919603545</v>
+        <v>11.87034378549705</v>
       </c>
       <c r="K12" t="n">
-        <v>248.7874647000259</v>
+        <v>158.765848131023</v>
       </c>
       <c r="L12" t="n">
-        <v>248.7874647000259</v>
+        <v>158.765848131023</v>
       </c>
       <c r="M12" t="n">
-        <v>395.6829690455519</v>
+        <v>158.765848131023</v>
       </c>
       <c r="N12" t="n">
-        <v>542.5784733910779</v>
+        <v>305.661352476549</v>
       </c>
       <c r="O12" t="n">
-        <v>593.5171892748524</v>
+        <v>452.556856822075</v>
       </c>
       <c r="P12" t="n">
         <v>593.5171892748524</v>
@@ -5142,28 +5142,28 @@
         <v>593.5171892748524</v>
       </c>
       <c r="R12" t="n">
-        <v>593.5171892748524</v>
+        <v>553.6922628012044</v>
       </c>
       <c r="S12" t="n">
-        <v>446.6888675318005</v>
+        <v>406.8639410581525</v>
       </c>
       <c r="T12" t="n">
-        <v>296.8107894320902</v>
+        <v>406.8639410581525</v>
       </c>
       <c r="U12" t="n">
-        <v>295.41740809579</v>
+        <v>405.4705597218522</v>
       </c>
       <c r="V12" t="n">
-        <v>284.1020472639024</v>
+        <v>255.5924816221419</v>
       </c>
       <c r="W12" t="n">
-        <v>259.8664402169909</v>
+        <v>105.7144035224317</v>
       </c>
       <c r="X12" t="n">
-        <v>259.8664402169909</v>
+        <v>105.7144035224317</v>
       </c>
       <c r="Y12" t="n">
-        <v>259.8664402169909</v>
+        <v>105.7144035224317</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>11.87034378549705</v>
+        <v>52.87324701976293</v>
       </c>
       <c r="C13" t="n">
-        <v>11.87034378549705</v>
+        <v>52.87324701976293</v>
       </c>
       <c r="D13" t="n">
-        <v>11.87034378549705</v>
+        <v>52.87324701976293</v>
       </c>
       <c r="E13" t="n">
-        <v>11.87034378549705</v>
+        <v>52.87324701976293</v>
       </c>
       <c r="F13" t="n">
-        <v>11.87034378549705</v>
+        <v>52.87324701976293</v>
       </c>
       <c r="G13" t="n">
-        <v>11.87034378549705</v>
+        <v>52.87324701976293</v>
       </c>
       <c r="H13" t="n">
-        <v>11.87034378549705</v>
+        <v>52.87324701976293</v>
       </c>
       <c r="I13" t="n">
-        <v>11.87034378549705</v>
+        <v>52.87324701976293</v>
       </c>
       <c r="J13" t="n">
         <v>11.87034378549705</v>
@@ -5203,46 +5203,46 @@
         <v>11.87034378549705</v>
       </c>
       <c r="L13" t="n">
-        <v>151.7487964392836</v>
+        <v>151.7487964392837</v>
       </c>
       <c r="M13" t="n">
-        <v>215.9063419678957</v>
+        <v>298.6443007848096</v>
       </c>
       <c r="N13" t="n">
-        <v>362.8018463134217</v>
+        <v>445.5398051303356</v>
       </c>
       <c r="O13" t="n">
-        <v>498.6013929770115</v>
+        <v>581.3393517939255</v>
       </c>
       <c r="P13" t="n">
         <v>593.5171892748524</v>
       </c>
       <c r="Q13" t="n">
-        <v>593.5171892748524</v>
+        <v>577.5476096519865</v>
       </c>
       <c r="R13" t="n">
-        <v>593.5171892748524</v>
+        <v>577.5476096519865</v>
       </c>
       <c r="S13" t="n">
-        <v>444.2597296030684</v>
+        <v>427.6695315522762</v>
       </c>
       <c r="T13" t="n">
-        <v>429.3125795574833</v>
+        <v>412.7223815066911</v>
       </c>
       <c r="U13" t="n">
-        <v>279.4345014577731</v>
+        <v>342.6271042443221</v>
       </c>
       <c r="V13" t="n">
-        <v>235.7794587359742</v>
+        <v>298.9720615225231</v>
       </c>
       <c r="W13" t="n">
-        <v>166.7033189731517</v>
+        <v>229.8959217597007</v>
       </c>
       <c r="X13" t="n">
-        <v>16.82524087344151</v>
+        <v>202.7513251194732</v>
       </c>
       <c r="Y13" t="n">
-        <v>11.87034378549705</v>
+        <v>52.87324701976293</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>178.2854303682414</v>
+        <v>421.2143071767922</v>
       </c>
       <c r="C14" t="n">
-        <v>178.2854303682414</v>
+        <v>421.2143071767922</v>
       </c>
       <c r="D14" t="n">
-        <v>178.2854303682414</v>
+        <v>271.336229077082</v>
       </c>
       <c r="E14" t="n">
-        <v>178.2854303682414</v>
+        <v>271.336229077082</v>
       </c>
       <c r="F14" t="n">
-        <v>28.40735226853201</v>
+        <v>271.336229077082</v>
       </c>
       <c r="G14" t="n">
-        <v>28.40735226853201</v>
+        <v>121.4581509773718</v>
       </c>
       <c r="H14" t="n">
         <v>11.87034378549705</v>
@@ -5276,25 +5276,25 @@
         <v>11.87034378549705</v>
       </c>
       <c r="J14" t="n">
-        <v>133.8484253820178</v>
+        <v>11.87034378549705</v>
       </c>
       <c r="K14" t="n">
-        <v>133.8484253820178</v>
+        <v>11.87034378549705</v>
       </c>
       <c r="L14" t="n">
-        <v>133.8484253820178</v>
+        <v>11.87034378549705</v>
       </c>
       <c r="M14" t="n">
+        <v>11.87034378549705</v>
+      </c>
+      <c r="N14" t="n">
         <v>152.8306762382745</v>
       </c>
-      <c r="N14" t="n">
+      <c r="O14" t="n">
         <v>299.7261805838004</v>
       </c>
-      <c r="O14" t="n">
+      <c r="P14" t="n">
         <v>446.6216849293264</v>
-      </c>
-      <c r="P14" t="n">
-        <v>593.5171892748524</v>
       </c>
       <c r="Q14" t="n">
         <v>593.5171892748524</v>
@@ -5312,16 +5312,16 @@
         <v>593.5171892748524</v>
       </c>
       <c r="V14" t="n">
-        <v>473.6181768905722</v>
+        <v>593.5171892748524</v>
       </c>
       <c r="W14" t="n">
-        <v>328.1635084679516</v>
+        <v>571.0923852765025</v>
       </c>
       <c r="X14" t="n">
-        <v>328.1635084679516</v>
+        <v>571.0923852765025</v>
       </c>
       <c r="Y14" t="n">
-        <v>178.2854303682414</v>
+        <v>571.0923852765025</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>390.4252852963402</v>
+        <v>161.7484218852073</v>
       </c>
       <c r="C15" t="n">
-        <v>390.4252852963402</v>
+        <v>11.87034378549705</v>
       </c>
       <c r="D15" t="n">
-        <v>390.4252852963402</v>
+        <v>11.87034378549705</v>
       </c>
       <c r="E15" t="n">
-        <v>243.3972753532114</v>
+        <v>11.87034378549705</v>
       </c>
       <c r="F15" t="n">
-        <v>108.7034773030858</v>
+        <v>11.87034378549705</v>
       </c>
       <c r="G15" t="n">
-        <v>108.7034773030858</v>
+        <v>11.87034378549705</v>
       </c>
       <c r="H15" t="n">
         <v>11.87034378549705</v>
@@ -5355,52 +5355,52 @@
         <v>11.87034378549705</v>
       </c>
       <c r="J15" t="n">
-        <v>101.8919603545</v>
+        <v>11.87034378549705</v>
       </c>
       <c r="K15" t="n">
-        <v>101.8919603545</v>
+        <v>158.765848131023</v>
       </c>
       <c r="L15" t="n">
-        <v>248.7874647000259</v>
+        <v>305.661352476549</v>
       </c>
       <c r="M15" t="n">
-        <v>248.7874647000259</v>
+        <v>452.556856822075</v>
       </c>
       <c r="N15" t="n">
-        <v>395.6829690455519</v>
+        <v>452.556856822075</v>
       </c>
       <c r="O15" t="n">
-        <v>542.5784733910779</v>
+        <v>452.556856822075</v>
       </c>
       <c r="P15" t="n">
-        <v>593.5171892748524</v>
+        <v>452.556856822075</v>
       </c>
       <c r="Q15" t="n">
         <v>593.5171892748524</v>
       </c>
       <c r="R15" t="n">
-        <v>593.5171892748524</v>
+        <v>553.6922628012044</v>
       </c>
       <c r="S15" t="n">
-        <v>446.6888675318005</v>
+        <v>553.6922628012044</v>
       </c>
       <c r="T15" t="n">
-        <v>446.6888675318005</v>
+        <v>403.8141847014941</v>
       </c>
       <c r="U15" t="n">
-        <v>425.9762531751393</v>
+        <v>402.4208033651939</v>
       </c>
       <c r="V15" t="n">
-        <v>414.6608923432518</v>
+        <v>252.5427252654837</v>
       </c>
       <c r="W15" t="n">
-        <v>390.4252852963402</v>
+        <v>228.3071182185722</v>
       </c>
       <c r="X15" t="n">
-        <v>390.4252852963402</v>
+        <v>161.7484218852073</v>
       </c>
       <c r="Y15" t="n">
-        <v>390.4252852963402</v>
+        <v>161.7484218852073</v>
       </c>
     </row>
     <row r="16">
@@ -5413,13 +5413,13 @@
         <v>161.7484218852073</v>
       </c>
       <c r="C16" t="n">
-        <v>11.87034378549705</v>
+        <v>161.7484218852073</v>
       </c>
       <c r="D16" t="n">
-        <v>11.87034378549705</v>
+        <v>161.7484218852073</v>
       </c>
       <c r="E16" t="n">
-        <v>11.87034378549705</v>
+        <v>161.7484218852073</v>
       </c>
       <c r="F16" t="n">
         <v>11.87034378549705</v>
@@ -5437,16 +5437,16 @@
         <v>11.87034378549705</v>
       </c>
       <c r="K16" t="n">
-        <v>76.1635464610489</v>
+        <v>11.87034378549705</v>
       </c>
       <c r="L16" t="n">
-        <v>216.0419991148355</v>
+        <v>69.01083762236971</v>
       </c>
       <c r="M16" t="n">
-        <v>216.0419991148355</v>
+        <v>215.9063419678957</v>
       </c>
       <c r="N16" t="n">
-        <v>362.9375034603614</v>
+        <v>362.8018463134217</v>
       </c>
       <c r="O16" t="n">
         <v>498.6013929770115</v>
@@ -5464,22 +5464,22 @@
         <v>593.5171892748524</v>
       </c>
       <c r="T16" t="n">
-        <v>578.5700392292673</v>
+        <v>469.9250164828991</v>
       </c>
       <c r="U16" t="n">
-        <v>508.4747619668983</v>
+        <v>399.8297392205301</v>
       </c>
       <c r="V16" t="n">
-        <v>464.8197192450993</v>
+        <v>249.9516611208199</v>
       </c>
       <c r="W16" t="n">
-        <v>330.7535994577077</v>
+        <v>180.8755213579975</v>
       </c>
       <c r="X16" t="n">
-        <v>316.5813970728619</v>
+        <v>166.7033189731517</v>
       </c>
       <c r="Y16" t="n">
-        <v>311.6264999849175</v>
+        <v>161.7484218852073</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>357.7277941659736</v>
+        <v>357.7277941659731</v>
       </c>
       <c r="C17" t="n">
-        <v>302.4621044104344</v>
+        <v>302.4621044104335</v>
       </c>
       <c r="D17" t="n">
         <v>256.3062085493103</v>
@@ -5513,16 +5513,16 @@
         <v>11.87034378549705</v>
       </c>
       <c r="J17" t="n">
-        <v>11.87034378549705</v>
+        <v>133.8484253820179</v>
       </c>
       <c r="K17" t="n">
-        <v>158.765848131023</v>
+        <v>280.7439297275438</v>
       </c>
       <c r="L17" t="n">
-        <v>305.661352476549</v>
+        <v>427.6394340730698</v>
       </c>
       <c r="M17" t="n">
-        <v>305.661352476549</v>
+        <v>446.6216849293264</v>
       </c>
       <c r="N17" t="n">
         <v>446.6216849293264</v>
@@ -5549,16 +5549,16 @@
         <v>593.5171892748524</v>
       </c>
       <c r="V17" t="n">
-        <v>583.2059840824472</v>
+        <v>583.205984082447</v>
       </c>
       <c r="W17" t="n">
-        <v>547.3391228517015</v>
+        <v>547.3391228517013</v>
       </c>
       <c r="X17" t="n">
-        <v>491.9770512848481</v>
+        <v>491.9770512848478</v>
       </c>
       <c r="Y17" t="n">
-        <v>425.1032647723393</v>
+        <v>425.103264772339</v>
       </c>
     </row>
     <row r="18">
@@ -5568,13 +5568,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>161.7484218852073</v>
+        <v>253.9361066017839</v>
       </c>
       <c r="C18" t="n">
-        <v>11.87034378549705</v>
+        <v>253.9361066017839</v>
       </c>
       <c r="D18" t="n">
-        <v>11.87034378549705</v>
+        <v>158.8983537286258</v>
       </c>
       <c r="E18" t="n">
         <v>11.87034378549705</v>
@@ -5595,49 +5595,49 @@
         <v>11.87034378549705</v>
       </c>
       <c r="K18" t="n">
-        <v>152.8306762382745</v>
+        <v>11.87034378549705</v>
       </c>
       <c r="L18" t="n">
-        <v>152.8306762382745</v>
+        <v>11.87034378549705</v>
       </c>
       <c r="M18" t="n">
-        <v>299.7261805838004</v>
+        <v>158.765848131023</v>
       </c>
       <c r="N18" t="n">
-        <v>299.7261805838004</v>
+        <v>305.661352476549</v>
       </c>
       <c r="O18" t="n">
-        <v>446.6216849293264</v>
+        <v>452.556856822075</v>
       </c>
       <c r="P18" t="n">
-        <v>446.6216849293264</v>
+        <v>593.5171892748524</v>
       </c>
       <c r="Q18" t="n">
         <v>593.5171892748524</v>
       </c>
       <c r="R18" t="n">
-        <v>593.5171892748524</v>
+        <v>553.6922628012044</v>
       </c>
       <c r="S18" t="n">
-        <v>446.6888675318005</v>
+        <v>553.6922628012044</v>
       </c>
       <c r="T18" t="n">
-        <v>311.6264999849175</v>
+        <v>553.6922628012044</v>
       </c>
       <c r="U18" t="n">
-        <v>311.6264999849175</v>
+        <v>553.6922628012044</v>
       </c>
       <c r="V18" t="n">
-        <v>311.6264999849175</v>
+        <v>553.6922628012044</v>
       </c>
       <c r="W18" t="n">
-        <v>311.6264999849175</v>
+        <v>553.6922628012044</v>
       </c>
       <c r="X18" t="n">
-        <v>161.7484218852073</v>
+        <v>403.8141847014941</v>
       </c>
       <c r="Y18" t="n">
-        <v>161.7484218852073</v>
+        <v>253.9361066017839</v>
       </c>
     </row>
     <row r="19">
@@ -5647,43 +5647,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.9713998981227</v>
+        <v>143.8829549757217</v>
       </c>
       <c r="C19" t="n">
-        <v>188.9713998981227</v>
+        <v>143.8829549757217</v>
       </c>
       <c r="D19" t="n">
-        <v>188.9713998981227</v>
+        <v>143.8829549757217</v>
       </c>
       <c r="E19" t="n">
-        <v>188.9713998981227</v>
+        <v>143.8829549757217</v>
       </c>
       <c r="F19" t="n">
-        <v>188.9713998981227</v>
+        <v>143.8829549757217</v>
       </c>
       <c r="G19" t="n">
-        <v>188.9713998981227</v>
+        <v>143.8829549757217</v>
       </c>
       <c r="H19" t="n">
-        <v>188.9713998981227</v>
+        <v>143.8829549757217</v>
       </c>
       <c r="I19" t="n">
-        <v>52.87324701976294</v>
+        <v>11.87034378549705</v>
       </c>
       <c r="J19" t="n">
         <v>11.87034378549705</v>
       </c>
       <c r="K19" t="n">
-        <v>76.1635464610489</v>
+        <v>11.87034378549705</v>
       </c>
       <c r="L19" t="n">
-        <v>216.0419991148355</v>
+        <v>69.01083762236971</v>
       </c>
       <c r="M19" t="n">
-        <v>362.9375034603614</v>
+        <v>215.9063419678957</v>
       </c>
       <c r="N19" t="n">
-        <v>362.9375034603614</v>
+        <v>362.8018463134217</v>
       </c>
       <c r="O19" t="n">
         <v>498.6013929770115</v>
@@ -5692,31 +5692,31 @@
         <v>593.5171892748524</v>
       </c>
       <c r="Q19" t="n">
-        <v>577.5476096519865</v>
+        <v>593.5171892748524</v>
       </c>
       <c r="R19" t="n">
-        <v>577.5476096519865</v>
+        <v>593.5171892748524</v>
       </c>
       <c r="S19" t="n">
-        <v>577.5476096519865</v>
+        <v>593.5171892748524</v>
       </c>
       <c r="T19" t="n">
-        <v>577.5476096519865</v>
+        <v>593.5171892748524</v>
       </c>
       <c r="U19" t="n">
-        <v>427.6695315522762</v>
+        <v>593.5171892748524</v>
       </c>
       <c r="V19" t="n">
-        <v>427.6695315522762</v>
+        <v>593.5171892748524</v>
       </c>
       <c r="W19" t="n">
-        <v>427.6695315522762</v>
+        <v>443.6391111751421</v>
       </c>
       <c r="X19" t="n">
-        <v>277.791453452566</v>
+        <v>293.7610330754319</v>
       </c>
       <c r="Y19" t="n">
-        <v>188.9713998981227</v>
+        <v>143.8829549757217</v>
       </c>
     </row>
     <row r="20">
@@ -5726,16 +5726,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>357.7277941659733</v>
+        <v>357.7277941659737</v>
       </c>
       <c r="C20" t="n">
-        <v>302.4621044104339</v>
+        <v>302.4621044104342</v>
       </c>
       <c r="D20" t="n">
-        <v>256.3062085493107</v>
+        <v>256.3062085493113</v>
       </c>
       <c r="E20" t="n">
-        <v>188.1885575670709</v>
+        <v>188.188557567071</v>
       </c>
       <c r="F20" t="n">
         <v>100.7054357888941</v>
@@ -5756,19 +5756,19 @@
         <v>11.87034378549705</v>
       </c>
       <c r="L20" t="n">
-        <v>158.765848131023</v>
+        <v>11.87034378549705</v>
       </c>
       <c r="M20" t="n">
-        <v>158.765848131023</v>
+        <v>11.87034378549705</v>
       </c>
       <c r="N20" t="n">
-        <v>305.661352476549</v>
+        <v>152.8306762382745</v>
       </c>
       <c r="O20" t="n">
-        <v>452.556856822075</v>
+        <v>299.7261805838004</v>
       </c>
       <c r="P20" t="n">
-        <v>593.5171892748524</v>
+        <v>446.6216849293264</v>
       </c>
       <c r="Q20" t="n">
         <v>593.5171892748524</v>
@@ -5789,13 +5789,13 @@
         <v>583.205984082447</v>
       </c>
       <c r="W20" t="n">
-        <v>547.3391228517013</v>
+        <v>547.3391228517016</v>
       </c>
       <c r="X20" t="n">
-        <v>491.9770512848479</v>
+        <v>491.9770512848484</v>
       </c>
       <c r="Y20" t="n">
-        <v>425.1032647723392</v>
+        <v>425.1032647723396</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>150.708980795285</v>
+        <v>593.5171892748524</v>
       </c>
       <c r="C21" t="n">
-        <v>150.708980795285</v>
+        <v>443.6391111751421</v>
       </c>
       <c r="D21" t="n">
-        <v>11.87034378549705</v>
+        <v>304.8004741653542</v>
       </c>
       <c r="E21" t="n">
-        <v>11.87034378549705</v>
+        <v>157.7724642222254</v>
       </c>
       <c r="F21" t="n">
-        <v>11.87034378549705</v>
+        <v>23.07866617209979</v>
       </c>
       <c r="G21" t="n">
         <v>11.87034378549705</v>
@@ -5829,16 +5829,16 @@
         <v>11.87034378549705</v>
       </c>
       <c r="J21" t="n">
-        <v>11.87034378549705</v>
+        <v>101.8919603545</v>
       </c>
       <c r="K21" t="n">
-        <v>158.765848131023</v>
+        <v>248.7874647000259</v>
       </c>
       <c r="L21" t="n">
-        <v>305.661352476549</v>
+        <v>395.6829690455519</v>
       </c>
       <c r="M21" t="n">
-        <v>446.6216849293264</v>
+        <v>542.5784733910779</v>
       </c>
       <c r="N21" t="n">
         <v>593.5171892748524</v>
@@ -5856,25 +5856,25 @@
         <v>593.5171892748524</v>
       </c>
       <c r="S21" t="n">
-        <v>446.6888675318005</v>
+        <v>593.5171892748524</v>
       </c>
       <c r="T21" t="n">
-        <v>446.6888675318005</v>
+        <v>593.5171892748524</v>
       </c>
       <c r="U21" t="n">
-        <v>446.6888675318005</v>
+        <v>593.5171892748524</v>
       </c>
       <c r="V21" t="n">
-        <v>300.5870588949952</v>
+        <v>593.5171892748524</v>
       </c>
       <c r="W21" t="n">
-        <v>300.5870588949952</v>
+        <v>593.5171892748524</v>
       </c>
       <c r="X21" t="n">
-        <v>150.708980795285</v>
+        <v>593.5171892748524</v>
       </c>
       <c r="Y21" t="n">
-        <v>150.708980795285</v>
+        <v>593.5171892748524</v>
       </c>
     </row>
     <row r="22">
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>161.7484218852073</v>
+        <v>11.87034378549705</v>
       </c>
       <c r="C22" t="n">
-        <v>161.7484218852073</v>
+        <v>11.87034378549705</v>
       </c>
       <c r="D22" t="n">
-        <v>161.7484218852073</v>
+        <v>11.87034378549705</v>
       </c>
       <c r="E22" t="n">
-        <v>161.7484218852073</v>
+        <v>11.87034378549705</v>
       </c>
       <c r="F22" t="n">
         <v>11.87034378549705</v>
@@ -5911,16 +5911,16 @@
         <v>11.87034378549705</v>
       </c>
       <c r="K22" t="n">
-        <v>76.1635464610489</v>
+        <v>11.87034378549705</v>
       </c>
       <c r="L22" t="n">
-        <v>76.1635464610489</v>
+        <v>151.7487964392837</v>
       </c>
       <c r="M22" t="n">
-        <v>223.0590508065749</v>
+        <v>215.9063419678957</v>
       </c>
       <c r="N22" t="n">
-        <v>369.9545551521009</v>
+        <v>362.8018463134217</v>
       </c>
       <c r="O22" t="n">
         <v>498.6013929770115</v>
@@ -5935,25 +5935,25 @@
         <v>577.5476096519865</v>
       </c>
       <c r="S22" t="n">
-        <v>577.5476096519865</v>
+        <v>427.6695315522762</v>
       </c>
       <c r="T22" t="n">
-        <v>577.5476096519865</v>
+        <v>277.791453452566</v>
       </c>
       <c r="U22" t="n">
-        <v>577.5476096519865</v>
+        <v>127.9133753528558</v>
       </c>
       <c r="V22" t="n">
-        <v>577.5476096519865</v>
+        <v>11.87034378549705</v>
       </c>
       <c r="W22" t="n">
-        <v>461.5045780846277</v>
+        <v>11.87034378549705</v>
       </c>
       <c r="X22" t="n">
-        <v>311.6264999849175</v>
+        <v>11.87034378549705</v>
       </c>
       <c r="Y22" t="n">
-        <v>161.7484218852073</v>
+        <v>11.87034378549705</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>357.7277941659733</v>
+        <v>357.7277941659729</v>
       </c>
       <c r="C23" t="n">
-        <v>302.4621044104339</v>
+        <v>302.4621044104335</v>
       </c>
       <c r="D23" t="n">
-        <v>256.3062085493107</v>
+        <v>256.3062085493104</v>
       </c>
       <c r="E23" t="n">
-        <v>188.1885575670709</v>
+        <v>188.1885575670705</v>
       </c>
       <c r="F23" t="n">
-        <v>100.7054357888945</v>
+        <v>100.7054357888941</v>
       </c>
       <c r="G23" t="n">
         <v>11.87034378549705</v>
@@ -5987,22 +5987,22 @@
         <v>11.87034378549705</v>
       </c>
       <c r="J23" t="n">
-        <v>11.87034378549705</v>
+        <v>133.8484253820179</v>
       </c>
       <c r="K23" t="n">
-        <v>11.87034378549705</v>
+        <v>133.8484253820179</v>
       </c>
       <c r="L23" t="n">
-        <v>11.87034378549705</v>
+        <v>280.7439297275438</v>
       </c>
       <c r="M23" t="n">
-        <v>158.765848131023</v>
+        <v>427.6394340730698</v>
       </c>
       <c r="N23" t="n">
-        <v>299.7261805838004</v>
+        <v>427.6394340730698</v>
       </c>
       <c r="O23" t="n">
-        <v>446.6216849293264</v>
+        <v>427.6394340730698</v>
       </c>
       <c r="P23" t="n">
         <v>446.6216849293264</v>
@@ -6020,19 +6020,19 @@
         <v>593.5171892748524</v>
       </c>
       <c r="U23" t="n">
-        <v>593.5171892748524</v>
+        <v>593.5171892748518</v>
       </c>
       <c r="V23" t="n">
-        <v>583.205984082447</v>
+        <v>583.2059840824464</v>
       </c>
       <c r="W23" t="n">
-        <v>547.3391228517013</v>
+        <v>547.3391228517007</v>
       </c>
       <c r="X23" t="n">
-        <v>491.9770512848479</v>
+        <v>491.9770512848474</v>
       </c>
       <c r="Y23" t="n">
-        <v>425.1032647723391</v>
+        <v>425.1032647723387</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6042,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>203.8782696090727</v>
+        <v>553.6922628012044</v>
       </c>
       <c r="C24" t="n">
-        <v>203.8782696090727</v>
+        <v>553.6922628012044</v>
       </c>
       <c r="D24" t="n">
-        <v>203.8782696090727</v>
+        <v>553.6922628012044</v>
       </c>
       <c r="E24" t="n">
-        <v>203.8782696090727</v>
+        <v>406.6642528580756</v>
       </c>
       <c r="F24" t="n">
-        <v>69.18447155894701</v>
+        <v>271.97045480795</v>
       </c>
       <c r="G24" t="n">
-        <v>69.18447155894701</v>
+        <v>143.5634248845237</v>
       </c>
       <c r="H24" t="n">
         <v>69.18447155894701</v>
@@ -6066,25 +6066,25 @@
         <v>11.87034378549705</v>
       </c>
       <c r="J24" t="n">
-        <v>101.8919603545</v>
+        <v>11.87034378549705</v>
       </c>
       <c r="K24" t="n">
-        <v>248.7874647000259</v>
+        <v>11.87034378549705</v>
       </c>
       <c r="L24" t="n">
-        <v>248.7874647000259</v>
+        <v>11.87034378549705</v>
       </c>
       <c r="M24" t="n">
-        <v>248.7874647000259</v>
+        <v>11.87034378549705</v>
       </c>
       <c r="N24" t="n">
-        <v>395.6829690455519</v>
+        <v>152.8306762382745</v>
       </c>
       <c r="O24" t="n">
-        <v>542.5784733910779</v>
+        <v>299.7261805838004</v>
       </c>
       <c r="P24" t="n">
-        <v>542.5784733910779</v>
+        <v>446.6216849293264</v>
       </c>
       <c r="Q24" t="n">
         <v>593.5171892748524</v>
@@ -6102,16 +6102,16 @@
         <v>553.6922628012044</v>
       </c>
       <c r="V24" t="n">
-        <v>503.6344258084931</v>
+        <v>553.6922628012044</v>
       </c>
       <c r="W24" t="n">
-        <v>503.6344258084931</v>
+        <v>553.6922628012044</v>
       </c>
       <c r="X24" t="n">
-        <v>353.7563477087829</v>
+        <v>553.6922628012044</v>
       </c>
       <c r="Y24" t="n">
-        <v>203.8782696090727</v>
+        <v>553.6922628012044</v>
       </c>
     </row>
     <row r="25">
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>577.5476096519865</v>
+        <v>311.6264999849175</v>
       </c>
       <c r="C25" t="n">
-        <v>427.6695315522762</v>
+        <v>161.7484218852073</v>
       </c>
       <c r="D25" t="n">
-        <v>427.6695315522762</v>
+        <v>161.7484218852073</v>
       </c>
       <c r="E25" t="n">
-        <v>277.791453452566</v>
+        <v>11.87034378549705</v>
       </c>
       <c r="F25" t="n">
-        <v>161.7484218852073</v>
+        <v>11.87034378549705</v>
       </c>
       <c r="G25" t="n">
         <v>11.87034378549705</v>
@@ -6148,13 +6148,13 @@
         <v>11.87034378549705</v>
       </c>
       <c r="K25" t="n">
-        <v>11.87034378549705</v>
+        <v>76.1635464610489</v>
       </c>
       <c r="L25" t="n">
-        <v>69.01083762236971</v>
+        <v>76.1635464610489</v>
       </c>
       <c r="M25" t="n">
-        <v>215.9063419678957</v>
+        <v>223.0590508065749</v>
       </c>
       <c r="N25" t="n">
         <v>362.8018463134217</v>
@@ -6166,31 +6166,31 @@
         <v>593.5171892748524</v>
       </c>
       <c r="Q25" t="n">
-        <v>577.5476096519865</v>
+        <v>593.5171892748524</v>
       </c>
       <c r="R25" t="n">
-        <v>577.5476096519865</v>
+        <v>593.5171892748524</v>
       </c>
       <c r="S25" t="n">
-        <v>577.5476096519865</v>
+        <v>593.5171892748524</v>
       </c>
       <c r="T25" t="n">
-        <v>577.5476096519865</v>
+        <v>461.5045780846277</v>
       </c>
       <c r="U25" t="n">
-        <v>577.5476096519865</v>
+        <v>461.5045780846277</v>
       </c>
       <c r="V25" t="n">
-        <v>577.5476096519865</v>
+        <v>311.6264999849175</v>
       </c>
       <c r="W25" t="n">
-        <v>577.5476096519865</v>
+        <v>311.6264999849175</v>
       </c>
       <c r="X25" t="n">
-        <v>577.5476096519865</v>
+        <v>311.6264999849175</v>
       </c>
       <c r="Y25" t="n">
-        <v>577.5476096519865</v>
+        <v>311.6264999849175</v>
       </c>
     </row>
     <row r="26">
@@ -6212,10 +6212,10 @@
         <v>930.0501512488822</v>
       </c>
       <c r="F26" t="n">
-        <v>626.7763728543621</v>
+        <v>626.7763728543622</v>
       </c>
       <c r="G26" t="n">
-        <v>322.1506242346212</v>
+        <v>322.1506242346213</v>
       </c>
       <c r="H26" t="n">
         <v>106.3599676182775</v>
@@ -6227,25 +6227,25 @@
         <v>189.5615928488413</v>
       </c>
       <c r="K26" t="n">
-        <v>613.2792872740038</v>
+        <v>504.608335483371</v>
       </c>
       <c r="L26" t="n">
-        <v>1162.763588540542</v>
+        <v>1054.092636749909</v>
       </c>
       <c r="M26" t="n">
-        <v>1768.073985623339</v>
+        <v>1659.403033832706</v>
       </c>
       <c r="N26" t="n">
-        <v>2286.750712831662</v>
+        <v>2251.478747966647</v>
       </c>
       <c r="O26" t="n">
-        <v>2799.644084636167</v>
+        <v>2655.701167980518</v>
       </c>
       <c r="P26" t="n">
-        <v>3221.152060031375</v>
+        <v>3077.209143375726</v>
       </c>
       <c r="Q26" t="n">
-        <v>3379.175562616026</v>
+        <v>3343.90359775101</v>
       </c>
       <c r="R26" t="n">
         <v>3379.175562616026</v>
@@ -6263,13 +6263,13 @@
         <v>2835.602174078665</v>
       </c>
       <c r="W26" t="n">
-        <v>2583.944656231575</v>
+        <v>2583.944656231576</v>
       </c>
       <c r="X26" t="n">
         <v>2312.791928048378</v>
       </c>
       <c r="Y26" t="n">
-        <v>2030.127484919525</v>
+        <v>2030.127484919526</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6303,25 @@
         <v>67.58351125232052</v>
       </c>
       <c r="J27" t="n">
-        <v>157.6051278213234</v>
+        <v>67.58351125232052</v>
       </c>
       <c r="K27" t="n">
-        <v>437.9730279657288</v>
+        <v>347.9514113967259</v>
       </c>
       <c r="L27" t="n">
-        <v>872.2057456174873</v>
+        <v>782.1841290484844</v>
       </c>
       <c r="M27" t="n">
-        <v>1437.071360581395</v>
+        <v>1347.049744012392</v>
       </c>
       <c r="N27" t="n">
-        <v>1517.07222809625</v>
+        <v>1940.260574001567</v>
       </c>
       <c r="O27" t="n">
-        <v>1984.236012826703</v>
+        <v>2407.42435873202</v>
       </c>
       <c r="P27" t="n">
-        <v>2346.497017772651</v>
+        <v>2544.487414000135</v>
       </c>
       <c r="Q27" t="n">
         <v>2544.487414000135</v>
@@ -6391,13 +6391,13 @@
         <v>489.0970701629246</v>
       </c>
       <c r="M28" t="n">
-        <v>757.1676849241682</v>
+        <v>648.4967331335353</v>
       </c>
       <c r="N28" t="n">
-        <v>999.3960731927018</v>
+        <v>890.7251214020689</v>
       </c>
       <c r="O28" t="n">
-        <v>1243.866571646925</v>
+        <v>1135.195619856292</v>
       </c>
       <c r="P28" t="n">
         <v>1338.782367944765</v>
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1746.961357696817</v>
+        <v>1746.961357696816</v>
       </c>
       <c r="C29" t="n">
-        <v>1475.905011324934</v>
+        <v>1475.905011324933</v>
       </c>
       <c r="D29" t="n">
-        <v>1213.958458847467</v>
+        <v>1213.958458847466</v>
       </c>
       <c r="E29" t="n">
-        <v>930.0501512488833</v>
+        <v>930.0501512488826</v>
       </c>
       <c r="F29" t="n">
-        <v>626.7763728543631</v>
+        <v>626.7763728543624</v>
       </c>
       <c r="G29" t="n">
-        <v>322.1506242346222</v>
+        <v>322.1506242346215</v>
       </c>
       <c r="H29" t="n">
         <v>106.3599676182775</v>
@@ -6461,52 +6461,52 @@
         <v>67.58351125232052</v>
       </c>
       <c r="J29" t="n">
-        <v>224.8335577138567</v>
+        <v>189.5615928488413</v>
       </c>
       <c r="K29" t="n">
-        <v>648.5512521390192</v>
+        <v>591.7243300220342</v>
       </c>
       <c r="L29" t="n">
-        <v>1198.035553405557</v>
+        <v>1032.53767949794</v>
       </c>
       <c r="M29" t="n">
-        <v>1694.674998697722</v>
+        <v>1637.848076580737</v>
       </c>
       <c r="N29" t="n">
-        <v>2286.750712831662</v>
+        <v>2121.252838924045</v>
       </c>
       <c r="O29" t="n">
-        <v>2799.644084636167</v>
+        <v>2634.146210728549</v>
       </c>
       <c r="P29" t="n">
-        <v>3112.481108240742</v>
+        <v>3055.654186123757</v>
       </c>
       <c r="Q29" t="n">
-        <v>3379.175562616026</v>
+        <v>3322.348640499041</v>
       </c>
       <c r="R29" t="n">
         <v>3379.175562616026</v>
       </c>
       <c r="S29" t="n">
-        <v>3316.515313602671</v>
+        <v>3316.51531360267</v>
       </c>
       <c r="T29" t="n">
         <v>3205.66389382765</v>
       </c>
       <c r="U29" t="n">
-        <v>3061.704035887415</v>
+        <v>3061.704035887414</v>
       </c>
       <c r="V29" t="n">
-        <v>2835.602174078666</v>
+        <v>2835.602174078665</v>
       </c>
       <c r="W29" t="n">
-        <v>2583.944656231577</v>
+        <v>2583.944656231576</v>
       </c>
       <c r="X29" t="n">
-        <v>2312.791928048379</v>
+        <v>2312.791928048378</v>
       </c>
       <c r="Y29" t="n">
-        <v>2030.127484919527</v>
+        <v>2030.127484919526</v>
       </c>
     </row>
     <row r="30">
@@ -6540,22 +6540,22 @@
         <v>67.58351125232052</v>
       </c>
       <c r="J30" t="n">
-        <v>157.6051278213234</v>
+        <v>67.58351125232052</v>
       </c>
       <c r="K30" t="n">
-        <v>157.6051278213234</v>
+        <v>347.9514113967259</v>
       </c>
       <c r="L30" t="n">
-        <v>591.8378454730819</v>
+        <v>782.1841290484844</v>
       </c>
       <c r="M30" t="n">
-        <v>1156.70346043699</v>
+        <v>1347.049744012392</v>
       </c>
       <c r="N30" t="n">
-        <v>1749.914290426165</v>
+        <v>1940.260574001567</v>
       </c>
       <c r="O30" t="n">
-        <v>2217.078075156618</v>
+        <v>1984.236012826703</v>
       </c>
       <c r="P30" t="n">
         <v>2346.497017772651</v>
@@ -6625,16 +6625,16 @@
         <v>309.031672049234</v>
       </c>
       <c r="L31" t="n">
-        <v>556.8297207128936</v>
+        <v>557.5810764936535</v>
       </c>
       <c r="M31" t="n">
-        <v>824.9003354741371</v>
+        <v>825.6516912548971</v>
       </c>
       <c r="N31" t="n">
-        <v>983.7442882043308</v>
+        <v>1093.166595775724</v>
       </c>
       <c r="O31" t="n">
-        <v>1228.214786658554</v>
+        <v>1336.885738449186</v>
       </c>
       <c r="P31" t="n">
         <v>1431.801534747027</v>
@@ -6683,55 +6683,55 @@
         <v>1213.958458847466</v>
       </c>
       <c r="E32" t="n">
-        <v>930.0501512488823</v>
+        <v>930.0501512488826</v>
       </c>
       <c r="F32" t="n">
-        <v>626.7763728543621</v>
+        <v>626.7763728543623</v>
       </c>
       <c r="G32" t="n">
-        <v>322.1506242346211</v>
+        <v>322.1506242346212</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3599676182776</v>
+        <v>106.3599676182775</v>
       </c>
       <c r="I32" t="n">
         <v>67.58351125232052</v>
       </c>
       <c r="J32" t="n">
-        <v>298.232544639474</v>
+        <v>298.2325446394742</v>
       </c>
       <c r="K32" t="n">
-        <v>613.2792872740038</v>
+        <v>613.2792872740039</v>
       </c>
       <c r="L32" t="n">
-        <v>1089.364601614925</v>
+        <v>1162.763588540542</v>
       </c>
       <c r="M32" t="n">
-        <v>1694.674998697722</v>
+        <v>1768.073985623339</v>
       </c>
       <c r="N32" t="n">
-        <v>2178.07976104103</v>
+        <v>2360.149699757279</v>
       </c>
       <c r="O32" t="n">
-        <v>2690.973132845534</v>
+        <v>2873.043071561784</v>
       </c>
       <c r="P32" t="n">
-        <v>3112.481108240742</v>
+        <v>3185.880095166359</v>
       </c>
       <c r="Q32" t="n">
-        <v>3379.175562616026</v>
+        <v>3343.90359775101</v>
       </c>
       <c r="R32" t="n">
         <v>3379.175562616026</v>
       </c>
       <c r="S32" t="n">
-        <v>3316.51531360267</v>
+        <v>3316.515313602671</v>
       </c>
       <c r="T32" t="n">
         <v>3205.66389382765</v>
       </c>
       <c r="U32" t="n">
-        <v>3061.704035887415</v>
+        <v>3061.704035887414</v>
       </c>
       <c r="V32" t="n">
         <v>2835.602174078665</v>
@@ -6740,7 +6740,7 @@
         <v>2583.944656231576</v>
       </c>
       <c r="X32" t="n">
-        <v>2312.791928048379</v>
+        <v>2312.791928048378</v>
       </c>
       <c r="Y32" t="n">
         <v>2030.127484919526</v>
@@ -6777,7 +6777,7 @@
         <v>67.58351125232052</v>
       </c>
       <c r="J33" t="n">
-        <v>122.7534617188927</v>
+        <v>67.58351125232052</v>
       </c>
       <c r="K33" t="n">
         <v>122.7534617188927</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>380.3440079593709</v>
+        <v>380.3440079593701</v>
       </c>
       <c r="C34" t="n">
-        <v>321.6054507163606</v>
+        <v>321.6054507163599</v>
       </c>
       <c r="D34" t="n">
-        <v>279.4109698394328</v>
+        <v>279.4109698394322</v>
       </c>
       <c r="E34" t="n">
-        <v>238.279367896061</v>
+        <v>238.2793678960605</v>
       </c>
       <c r="F34" t="n">
-        <v>196.6761252171475</v>
+        <v>196.6761252171472</v>
       </c>
       <c r="G34" t="n">
-        <v>138.9032985741055</v>
+        <v>138.9032985741053</v>
       </c>
       <c r="H34" t="n">
-        <v>92.80425183537089</v>
+        <v>92.80425183537078</v>
       </c>
       <c r="I34" t="n">
         <v>67.58351125232052</v>
       </c>
       <c r="J34" t="n">
-        <v>136.0675175830493</v>
+        <v>67.58351125232052</v>
       </c>
       <c r="K34" t="n">
-        <v>309.0316720492339</v>
+        <v>215.2611494662123</v>
       </c>
       <c r="L34" t="n">
-        <v>463.8105539106343</v>
+        <v>355.1396021199989</v>
       </c>
       <c r="M34" t="n">
-        <v>731.8811686718777</v>
+        <v>623.2102168812424</v>
       </c>
       <c r="N34" t="n">
-        <v>890.7251214020713</v>
+        <v>890.7251214020689</v>
       </c>
       <c r="O34" t="n">
-        <v>1135.195619856294</v>
+        <v>1135.195619856292</v>
       </c>
       <c r="P34" t="n">
-        <v>1338.782367944767</v>
+        <v>1338.782367944765</v>
       </c>
       <c r="Q34" t="n">
-        <v>1431.801534747029</v>
+        <v>1431.801534747027</v>
       </c>
       <c r="R34" t="n">
-        <v>1405.275301525152</v>
+        <v>1405.275301525151</v>
       </c>
       <c r="S34" t="n">
-        <v>1307.139770160621</v>
+        <v>1307.13977016062</v>
       </c>
       <c r="T34" t="n">
-        <v>1185.989770690567</v>
+        <v>1185.989770690566</v>
       </c>
       <c r="U34" t="n">
-        <v>1009.691644003729</v>
+        <v>1009.691644003728</v>
       </c>
       <c r="V34" t="n">
-        <v>859.8337518574612</v>
+        <v>859.8337518574599</v>
       </c>
       <c r="W34" t="n">
-        <v>684.5547626701697</v>
+        <v>684.5547626701685</v>
       </c>
       <c r="X34" t="n">
-        <v>564.1797108608548</v>
+        <v>564.1797108608538</v>
       </c>
       <c r="Y34" t="n">
-        <v>453.0219643484413</v>
+        <v>453.0219643484404</v>
       </c>
     </row>
     <row r="35">
@@ -6920,10 +6920,10 @@
         <v>1008.205833232184</v>
       </c>
       <c r="E35" t="n">
-        <v>763.0739819995573</v>
+        <v>763.0739819995574</v>
       </c>
       <c r="F35" t="n">
-        <v>498.5766599709941</v>
+        <v>498.5766599709943</v>
       </c>
       <c r="G35" t="n">
         <v>232.7273677172102</v>
@@ -6938,22 +6938,22 @@
         <v>177.6912490633443</v>
       </c>
       <c r="K35" t="n">
-        <v>489.7178700266978</v>
+        <v>492.737991697874</v>
       </c>
       <c r="L35" t="n">
-        <v>930.5312195026032</v>
+        <v>933.5513411737795</v>
       </c>
       <c r="M35" t="n">
-        <v>1427.170664794767</v>
+        <v>1430.190786465944</v>
       </c>
       <c r="N35" t="n">
-        <v>1910.575427138075</v>
+        <v>1913.595548809252</v>
       </c>
       <c r="O35" t="n">
-        <v>2314.797847151946</v>
+        <v>2317.817968823123</v>
       </c>
       <c r="P35" t="n">
-        <v>2627.634870756522</v>
+        <v>2630.654992427699</v>
       </c>
       <c r="Q35" t="n">
         <v>2785.658373341174</v>
@@ -6968,10 +6968,10 @@
         <v>2689.699617284711</v>
       </c>
       <c r="U35" t="n">
-        <v>2584.516215710433</v>
+        <v>2584.516215710432</v>
       </c>
       <c r="V35" t="n">
-        <v>2397.190810267641</v>
+        <v>2397.19081026764</v>
       </c>
       <c r="W35" t="n">
         <v>2184.309748786508</v>
@@ -7026,13 +7026,13 @@
         <v>1425.201016795898</v>
       </c>
       <c r="N36" t="n">
-        <v>1505.201884310753</v>
+        <v>1703.192280538237</v>
       </c>
       <c r="O36" t="n">
-        <v>1972.365669041206</v>
+        <v>2170.35606526869</v>
       </c>
       <c r="P36" t="n">
-        <v>2334.626673987154</v>
+        <v>2532.617070214638</v>
       </c>
       <c r="Q36" t="n">
         <v>2532.617070214638</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>110.5941853950809</v>
+        <v>110.5941853950807</v>
       </c>
       <c r="C37" t="n">
-        <v>90.63208451802767</v>
+        <v>90.63208451802753</v>
       </c>
       <c r="D37" t="n">
-        <v>87.2140600070569</v>
+        <v>87.21406000705679</v>
       </c>
       <c r="E37" t="n">
-        <v>84.85891442964225</v>
+        <v>84.85891442964217</v>
       </c>
       <c r="F37" t="n">
-        <v>82.03212811668587</v>
+        <v>82.03212811668581</v>
       </c>
       <c r="G37" t="n">
-        <v>63.03575783960099</v>
+        <v>63.03575783960096</v>
       </c>
       <c r="H37" t="n">
         <v>55.71316746682347</v>
       </c>
       <c r="I37" t="n">
-        <v>55.71316746682347</v>
+        <v>68.99912450565039</v>
       </c>
       <c r="J37" t="n">
-        <v>55.71316746682347</v>
+        <v>72.1832140416316</v>
       </c>
       <c r="K37" t="n">
-        <v>120.0063701423753</v>
+        <v>136.4764167171834</v>
       </c>
       <c r="L37" t="n">
-        <v>276.3548693709703</v>
+        <v>276.3548693709701</v>
       </c>
       <c r="M37" t="n">
-        <v>435.754532341581</v>
+        <v>435.7545323415807</v>
       </c>
       <c r="N37" t="n">
-        <v>594.5984850717746</v>
+        <v>594.5984850717743</v>
       </c>
       <c r="O37" t="n">
-        <v>730.3980317353645</v>
+        <v>730.3980317353642</v>
       </c>
       <c r="P37" t="n">
-        <v>825.3138280332054</v>
+        <v>825.313828033205</v>
       </c>
       <c r="Q37" t="n">
-        <v>825.3138280332054</v>
+        <v>825.313828033205</v>
       </c>
       <c r="R37" t="n">
-        <v>825.3138280332054</v>
+        <v>825.313828033205</v>
       </c>
       <c r="S37" t="n">
-        <v>765.9547530346315</v>
+        <v>765.9547530346312</v>
       </c>
       <c r="T37" t="n">
-        <v>683.5812099305346</v>
+        <v>683.5812099305342</v>
       </c>
       <c r="U37" t="n">
-        <v>546.0595396096536</v>
+        <v>546.0595396096533</v>
       </c>
       <c r="V37" t="n">
-        <v>434.9781038293427</v>
+        <v>434.9781038293424</v>
       </c>
       <c r="W37" t="n">
-        <v>298.4755710080083</v>
+        <v>298.475571008008</v>
       </c>
       <c r="X37" t="n">
-        <v>216.8769755646506</v>
+        <v>216.8769755646504</v>
       </c>
       <c r="Y37" t="n">
-        <v>144.4956854181942</v>
+        <v>144.495685418194</v>
       </c>
     </row>
     <row r="38">
@@ -7157,10 +7157,10 @@
         <v>1008.205833232184</v>
       </c>
       <c r="E38" t="n">
-        <v>763.0739819995572</v>
+        <v>763.0739819995574</v>
       </c>
       <c r="F38" t="n">
-        <v>498.5766599709941</v>
+        <v>498.5766599709943</v>
       </c>
       <c r="G38" t="n">
         <v>232.7273677172102</v>
@@ -7175,22 +7175,22 @@
         <v>177.6912490633443</v>
       </c>
       <c r="K38" t="n">
-        <v>492.7379916978739</v>
+        <v>492.737991697874</v>
       </c>
       <c r="L38" t="n">
-        <v>933.5513411737793</v>
+        <v>933.5513411737795</v>
       </c>
       <c r="M38" t="n">
-        <v>1430.190786465943</v>
+        <v>1430.190786465944</v>
       </c>
       <c r="N38" t="n">
-        <v>1913.595548809251</v>
+        <v>1913.595548809252</v>
       </c>
       <c r="O38" t="n">
-        <v>2317.817968823122</v>
+        <v>2317.817968823123</v>
       </c>
       <c r="P38" t="n">
-        <v>2630.654992427698</v>
+        <v>2630.654992427699</v>
       </c>
       <c r="Q38" t="n">
         <v>2785.658373341174</v>
@@ -7199,16 +7199,16 @@
         <v>2785.658373341174</v>
       </c>
       <c r="S38" t="n">
-        <v>2761.774580693775</v>
+        <v>2761.774580693774</v>
       </c>
       <c r="T38" t="n">
-        <v>2689.699617284711</v>
+        <v>2689.69961728471</v>
       </c>
       <c r="U38" t="n">
-        <v>2584.516215710433</v>
+        <v>2584.516215710432</v>
       </c>
       <c r="V38" t="n">
-        <v>2397.190810267641</v>
+        <v>2397.19081026764</v>
       </c>
       <c r="W38" t="n">
         <v>2184.309748786508</v>
@@ -7217,7 +7217,7 @@
         <v>1951.933476969268</v>
       </c>
       <c r="Y38" t="n">
-        <v>1708.045490206373</v>
+        <v>1708.045490206372</v>
       </c>
     </row>
     <row r="39">
@@ -7251,22 +7251,22 @@
         <v>55.71316746682347</v>
       </c>
       <c r="J39" t="n">
-        <v>145.7347840358264</v>
+        <v>55.71316746682347</v>
       </c>
       <c r="K39" t="n">
-        <v>426.1026841802317</v>
+        <v>275.1537266518604</v>
       </c>
       <c r="L39" t="n">
-        <v>860.3354018319901</v>
+        <v>709.3864443036189</v>
       </c>
       <c r="M39" t="n">
-        <v>1425.201016795898</v>
+        <v>1274.252059267527</v>
       </c>
       <c r="N39" t="n">
-        <v>1505.201884310753</v>
+        <v>1867.462889256702</v>
       </c>
       <c r="O39" t="n">
-        <v>1972.365669041206</v>
+        <v>2334.626673987154</v>
       </c>
       <c r="P39" t="n">
         <v>2334.626673987154</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>110.5941853950809</v>
+        <v>110.5941853950807</v>
       </c>
       <c r="C40" t="n">
-        <v>90.63208451802767</v>
+        <v>90.63208451802753</v>
       </c>
       <c r="D40" t="n">
-        <v>87.2140600070569</v>
+        <v>87.21406000705679</v>
       </c>
       <c r="E40" t="n">
-        <v>84.85891442964225</v>
+        <v>84.85891442964217</v>
       </c>
       <c r="F40" t="n">
-        <v>82.03212811668587</v>
+        <v>82.03212811668581</v>
       </c>
       <c r="G40" t="n">
-        <v>63.03575783960099</v>
+        <v>63.03575783960096</v>
       </c>
       <c r="H40" t="n">
         <v>55.71316746682347</v>
       </c>
       <c r="I40" t="n">
-        <v>68.99912450565036</v>
+        <v>55.71316746682347</v>
       </c>
       <c r="J40" t="n">
-        <v>68.99912450565036</v>
+        <v>55.71316746682347</v>
       </c>
       <c r="K40" t="n">
-        <v>133.2923271812022</v>
+        <v>124.4699730136704</v>
       </c>
       <c r="L40" t="n">
-        <v>273.1707798349888</v>
+        <v>264.348425667457</v>
       </c>
       <c r="M40" t="n">
-        <v>432.5704428055994</v>
+        <v>423.7480886380677</v>
       </c>
       <c r="N40" t="n">
-        <v>591.4143955357931</v>
+        <v>582.5920413682613</v>
       </c>
       <c r="O40" t="n">
-        <v>727.2139421993829</v>
+        <v>718.3915880318511</v>
       </c>
       <c r="P40" t="n">
-        <v>825.3138280332054</v>
+        <v>813.307384329692</v>
       </c>
       <c r="Q40" t="n">
-        <v>825.3138280332054</v>
+        <v>813.307384329692</v>
       </c>
       <c r="R40" t="n">
-        <v>825.3138280332054</v>
+        <v>825.313828033205</v>
       </c>
       <c r="S40" t="n">
-        <v>765.9547530346315</v>
+        <v>765.9547530346312</v>
       </c>
       <c r="T40" t="n">
-        <v>683.5812099305346</v>
+        <v>683.5812099305342</v>
       </c>
       <c r="U40" t="n">
-        <v>546.0595396096536</v>
+        <v>546.0595396096533</v>
       </c>
       <c r="V40" t="n">
-        <v>434.9781038293427</v>
+        <v>434.9781038293424</v>
       </c>
       <c r="W40" t="n">
-        <v>298.4755710080083</v>
+        <v>298.475571008008</v>
       </c>
       <c r="X40" t="n">
-        <v>216.8769755646506</v>
+        <v>216.8769755646504</v>
       </c>
       <c r="Y40" t="n">
-        <v>144.4956854181942</v>
+        <v>144.495685418194</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1463.65581934962</v>
+        <v>1463.655819349621</v>
       </c>
       <c r="C41" t="n">
         <v>1231.375929343694</v>
@@ -7394,10 +7394,10 @@
         <v>1008.205833232184</v>
       </c>
       <c r="E41" t="n">
-        <v>763.0739819995573</v>
+        <v>763.0739819995578</v>
       </c>
       <c r="F41" t="n">
-        <v>498.5766599709941</v>
+        <v>498.5766599709946</v>
       </c>
       <c r="G41" t="n">
         <v>232.7273677172102</v>
@@ -7412,19 +7412,19 @@
         <v>177.6912490633443</v>
       </c>
       <c r="K41" t="n">
-        <v>492.7379916978739</v>
+        <v>492.737991697874</v>
       </c>
       <c r="L41" t="n">
-        <v>933.5513411737793</v>
+        <v>933.5513411737795</v>
       </c>
       <c r="M41" t="n">
-        <v>1430.190786465943</v>
+        <v>1430.190786465944</v>
       </c>
       <c r="N41" t="n">
-        <v>1913.595548809251</v>
+        <v>1910.575427138075</v>
       </c>
       <c r="O41" t="n">
-        <v>2317.817968823122</v>
+        <v>2314.797847151946</v>
       </c>
       <c r="P41" t="n">
         <v>2627.634870756522</v>
@@ -7451,7 +7451,7 @@
         <v>2184.309748786508</v>
       </c>
       <c r="X41" t="n">
-        <v>1951.933476969268</v>
+        <v>1951.933476969269</v>
       </c>
       <c r="Y41" t="n">
         <v>1708.045490206373</v>
@@ -7491,13 +7491,13 @@
         <v>145.7347840358264</v>
       </c>
       <c r="K42" t="n">
-        <v>380.0565064363651</v>
+        <v>426.1026841802317</v>
       </c>
       <c r="L42" t="n">
-        <v>814.2892240881235</v>
+        <v>860.3354018319901</v>
       </c>
       <c r="M42" t="n">
-        <v>1379.154839052032</v>
+        <v>1425.201016795898</v>
       </c>
       <c r="N42" t="n">
         <v>1972.365669041206</v>
@@ -7564,31 +7564,31 @@
         <v>55.71316746682347</v>
       </c>
       <c r="I43" t="n">
-        <v>68.99912450565036</v>
+        <v>55.71316746682347</v>
       </c>
       <c r="J43" t="n">
-        <v>68.99912450565036</v>
+        <v>72.18321404163183</v>
       </c>
       <c r="K43" t="n">
-        <v>133.2923271812022</v>
+        <v>136.4764167171837</v>
       </c>
       <c r="L43" t="n">
-        <v>273.1707798349888</v>
+        <v>276.3548693709703</v>
       </c>
       <c r="M43" t="n">
-        <v>432.5704428055994</v>
+        <v>435.754532341581</v>
       </c>
       <c r="N43" t="n">
-        <v>591.4143955357931</v>
+        <v>594.5984850717746</v>
       </c>
       <c r="O43" t="n">
-        <v>727.2139421993829</v>
+        <v>730.3980317353645</v>
       </c>
       <c r="P43" t="n">
-        <v>822.1297384972238</v>
+        <v>825.3138280332054</v>
       </c>
       <c r="Q43" t="n">
-        <v>822.1297384972238</v>
+        <v>825.3138280332054</v>
       </c>
       <c r="R43" t="n">
         <v>825.3138280332054</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1463.655819349619</v>
+        <v>1463.65581934962</v>
       </c>
       <c r="C44" t="n">
-        <v>1231.375929343693</v>
+        <v>1231.375929343694</v>
       </c>
       <c r="D44" t="n">
         <v>1008.205833232184</v>
       </c>
       <c r="E44" t="n">
-        <v>763.0739819995572</v>
+        <v>763.0739819995574</v>
       </c>
       <c r="F44" t="n">
-        <v>498.5766599709941</v>
+        <v>498.5766599709946</v>
       </c>
       <c r="G44" t="n">
         <v>232.7273677172102</v>
@@ -7646,16 +7646,16 @@
         <v>55.71316746682347</v>
       </c>
       <c r="J44" t="n">
-        <v>177.6912490633443</v>
+        <v>174.6711273921679</v>
       </c>
       <c r="K44" t="n">
-        <v>492.7379916978739</v>
+        <v>489.7178700266976</v>
       </c>
       <c r="L44" t="n">
-        <v>933.5513411737793</v>
+        <v>930.5312195026031</v>
       </c>
       <c r="M44" t="n">
-        <v>1430.190786465943</v>
+        <v>1427.170664794767</v>
       </c>
       <c r="N44" t="n">
         <v>1910.575427138075</v>
@@ -7737,10 +7737,10 @@
         <v>1425.201016795898</v>
       </c>
       <c r="N45" t="n">
-        <v>1867.462889256702</v>
+        <v>1972.365669041206</v>
       </c>
       <c r="O45" t="n">
-        <v>2334.626673987154</v>
+        <v>1972.365669041206</v>
       </c>
       <c r="P45" t="n">
         <v>2334.626673987154</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>110.5941853950809</v>
+        <v>110.5941853950807</v>
       </c>
       <c r="C46" t="n">
-        <v>90.63208451802767</v>
+        <v>90.63208451802753</v>
       </c>
       <c r="D46" t="n">
-        <v>87.2140600070569</v>
+        <v>87.21406000705679</v>
       </c>
       <c r="E46" t="n">
-        <v>84.85891442964225</v>
+        <v>84.85891442964217</v>
       </c>
       <c r="F46" t="n">
-        <v>82.03212811668587</v>
+        <v>82.03212811668581</v>
       </c>
       <c r="G46" t="n">
-        <v>63.03575783960099</v>
+        <v>63.03575783960096</v>
       </c>
       <c r="H46" t="n">
         <v>55.71316746682347</v>
@@ -7804,52 +7804,52 @@
         <v>55.71316746682347</v>
       </c>
       <c r="J46" t="n">
-        <v>72.18321404163186</v>
+        <v>55.71316746682347</v>
       </c>
       <c r="K46" t="n">
-        <v>136.4764167171837</v>
+        <v>120.0063701423753</v>
       </c>
       <c r="L46" t="n">
-        <v>276.3548693709703</v>
+        <v>276.3548693709701</v>
       </c>
       <c r="M46" t="n">
-        <v>435.754532341581</v>
+        <v>435.7545323415807</v>
       </c>
       <c r="N46" t="n">
-        <v>594.5984850717746</v>
+        <v>594.5984850717743</v>
       </c>
       <c r="O46" t="n">
-        <v>730.3980317353645</v>
+        <v>730.3980317353642</v>
       </c>
       <c r="P46" t="n">
-        <v>825.3138280332054</v>
+        <v>825.313828033205</v>
       </c>
       <c r="Q46" t="n">
-        <v>825.3138280332054</v>
+        <v>825.313828033205</v>
       </c>
       <c r="R46" t="n">
-        <v>825.3138280332054</v>
+        <v>825.313828033205</v>
       </c>
       <c r="S46" t="n">
-        <v>765.9547530346315</v>
+        <v>765.9547530346312</v>
       </c>
       <c r="T46" t="n">
-        <v>683.5812099305346</v>
+        <v>683.5812099305342</v>
       </c>
       <c r="U46" t="n">
-        <v>546.0595396096536</v>
+        <v>546.0595396096533</v>
       </c>
       <c r="V46" t="n">
-        <v>434.9781038293427</v>
+        <v>434.9781038293424</v>
       </c>
       <c r="W46" t="n">
-        <v>298.4755710080083</v>
+        <v>298.475571008008</v>
       </c>
       <c r="X46" t="n">
-        <v>216.8769755646506</v>
+        <v>216.8769755646504</v>
       </c>
       <c r="Y46" t="n">
-        <v>144.4956854181942</v>
+        <v>144.495685418194</v>
       </c>
     </row>
   </sheetData>
@@ -8690,25 +8690,25 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K11" t="n">
-        <v>251.5393006970559</v>
+        <v>103.1600033783428</v>
       </c>
       <c r="L11" t="n">
-        <v>97.69356934396384</v>
+        <v>97.69356934396383</v>
       </c>
       <c r="M11" t="n">
-        <v>82.71158819506188</v>
+        <v>82.71158819506186</v>
       </c>
       <c r="N11" t="n">
-        <v>80.26336300496546</v>
+        <v>99.43735376886099</v>
       </c>
       <c r="O11" t="n">
-        <v>105.9087516439784</v>
+        <v>235.1140581987959</v>
       </c>
       <c r="P11" t="n">
-        <v>250.7206244016653</v>
+        <v>250.7206244016652</v>
       </c>
       <c r="Q11" t="n">
-        <v>264.7690855961332</v>
+        <v>264.7690855961331</v>
       </c>
       <c r="R11" t="n">
         <v>85.43134583487716</v>
@@ -8766,25 +8766,25 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>163.9183459425315</v>
+        <v>72.98742011525583</v>
       </c>
       <c r="K12" t="n">
-        <v>208.9842062993024</v>
+        <v>208.9842062993023</v>
       </c>
       <c r="L12" t="n">
-        <v>43.47354217554894</v>
+        <v>43.47354217554893</v>
       </c>
       <c r="M12" t="n">
-        <v>183.2245519473413</v>
+        <v>34.84525462862818</v>
       </c>
       <c r="N12" t="n">
         <v>172.3215253904086</v>
       </c>
       <c r="O12" t="n">
-        <v>91.59165258835611</v>
+        <v>188.5177015396202</v>
       </c>
       <c r="P12" t="n">
-        <v>48.08139221580917</v>
+        <v>190.4655664105338</v>
       </c>
       <c r="Q12" t="n">
         <v>73.11017483692342</v>
@@ -8854,16 +8854,16 @@
         <v>211.2171120040207</v>
       </c>
       <c r="M13" t="n">
-        <v>135.8584001499575</v>
+        <v>219.432095924618</v>
       </c>
       <c r="N13" t="n">
-        <v>211.2938921153078</v>
+        <v>211.2938921153077</v>
       </c>
       <c r="O13" t="n">
         <v>211.9541662756472</v>
       </c>
       <c r="P13" t="n">
-        <v>175.5085323082534</v>
+        <v>91.9348365335928</v>
       </c>
       <c r="Q13" t="n">
         <v>84.9458458910769</v>
@@ -8924,28 +8924,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>219.8255997236959</v>
+        <v>96.6154162928668</v>
       </c>
       <c r="K14" t="n">
         <v>103.1600033783428</v>
       </c>
       <c r="L14" t="n">
-        <v>97.69356934396384</v>
+        <v>97.69356934396383</v>
       </c>
       <c r="M14" t="n">
-        <v>101.8855789589575</v>
+        <v>82.71158819506186</v>
       </c>
       <c r="N14" t="n">
-        <v>228.6426603236786</v>
+        <v>222.6475371996901</v>
       </c>
       <c r="O14" t="n">
-        <v>235.114058198796</v>
+        <v>235.1140581987959</v>
       </c>
       <c r="P14" t="n">
-        <v>250.7206244016653</v>
+        <v>250.7206244016652</v>
       </c>
       <c r="Q14" t="n">
-        <v>116.38978827742</v>
+        <v>264.7690855961331</v>
       </c>
       <c r="R14" t="n">
         <v>85.43134583487716</v>
@@ -9003,28 +9003,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>163.9183459425315</v>
+        <v>72.98742011525583</v>
       </c>
       <c r="K15" t="n">
-        <v>60.60490898058926</v>
+        <v>208.9842062993023</v>
       </c>
       <c r="L15" t="n">
         <v>191.852839494262</v>
       </c>
       <c r="M15" t="n">
-        <v>34.8452546286282</v>
+        <v>183.2245519473413</v>
       </c>
       <c r="N15" t="n">
-        <v>172.3215253904086</v>
+        <v>23.94222807169547</v>
       </c>
       <c r="O15" t="n">
-        <v>188.5177015396202</v>
+        <v>40.13840422090708</v>
       </c>
       <c r="P15" t="n">
-        <v>99.5346405832582</v>
+        <v>48.08139221580916</v>
       </c>
       <c r="Q15" t="n">
-        <v>73.11017483692342</v>
+        <v>215.4943490316481</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9085,19 +9085,19 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K16" t="n">
-        <v>138.7668962480483</v>
+        <v>73.8242672828444</v>
       </c>
       <c r="L16" t="n">
-        <v>211.2171120040207</v>
+        <v>127.6434162293602</v>
       </c>
       <c r="M16" t="n">
-        <v>71.05279860590494</v>
+        <v>219.432095924618</v>
       </c>
       <c r="N16" t="n">
         <v>211.2938921153077</v>
       </c>
       <c r="O16" t="n">
-        <v>211.8171388544959</v>
+        <v>211.9541662756472</v>
       </c>
       <c r="P16" t="n">
         <v>175.5085323082534</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>96.61541629286683</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K17" t="n">
         <v>251.5393006970559</v>
@@ -9170,16 +9170,16 @@
         <v>246.0728666626769</v>
       </c>
       <c r="M17" t="n">
-        <v>82.71158819506188</v>
+        <v>101.8855789589574</v>
       </c>
       <c r="N17" t="n">
-        <v>222.6475371996901</v>
+        <v>80.26336300496544</v>
       </c>
       <c r="O17" t="n">
-        <v>86.73476088008283</v>
+        <v>86.73476088008282</v>
       </c>
       <c r="P17" t="n">
-        <v>250.7206244016653</v>
+        <v>250.7206244016652</v>
       </c>
       <c r="Q17" t="n">
         <v>116.38978827742</v>
@@ -9243,25 +9243,25 @@
         <v>72.98742011525583</v>
       </c>
       <c r="K18" t="n">
-        <v>202.9890831753139</v>
+        <v>60.60490898058925</v>
       </c>
       <c r="L18" t="n">
-        <v>43.47354217554894</v>
+        <v>43.47354217554893</v>
       </c>
       <c r="M18" t="n">
         <v>183.2245519473413</v>
       </c>
       <c r="N18" t="n">
-        <v>23.94222807169548</v>
+        <v>172.3215253904086</v>
       </c>
       <c r="O18" t="n">
         <v>188.5177015396202</v>
       </c>
       <c r="P18" t="n">
-        <v>48.08139221580917</v>
+        <v>190.4655664105338</v>
       </c>
       <c r="Q18" t="n">
-        <v>221.4894721556365</v>
+        <v>73.11017483692342</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9322,19 +9322,19 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K19" t="n">
-        <v>138.7668962480483</v>
+        <v>73.8242672828444</v>
       </c>
       <c r="L19" t="n">
-        <v>211.2171120040207</v>
+        <v>127.6434162293602</v>
       </c>
       <c r="M19" t="n">
         <v>219.432095924618</v>
       </c>
       <c r="N19" t="n">
-        <v>62.91459479659463</v>
+        <v>211.2938921153077</v>
       </c>
       <c r="O19" t="n">
-        <v>211.8171388544959</v>
+        <v>211.9541662756472</v>
       </c>
       <c r="P19" t="n">
         <v>175.5085323082534</v>
@@ -9398,28 +9398,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>96.61541629286683</v>
+        <v>96.6154162928668</v>
       </c>
       <c r="K20" t="n">
         <v>103.1600033783428</v>
       </c>
       <c r="L20" t="n">
-        <v>246.0728666626769</v>
+        <v>97.69356934396383</v>
       </c>
       <c r="M20" t="n">
-        <v>82.71158819506188</v>
+        <v>82.71158819506186</v>
       </c>
       <c r="N20" t="n">
-        <v>228.6426603236786</v>
+        <v>222.6475371996901</v>
       </c>
       <c r="O20" t="n">
         <v>235.1140581987959</v>
       </c>
       <c r="P20" t="n">
-        <v>244.7255012776768</v>
+        <v>250.7206244016652</v>
       </c>
       <c r="Q20" t="n">
-        <v>116.38978827742</v>
+        <v>264.7690855961331</v>
       </c>
       <c r="R20" t="n">
         <v>85.43134583487716</v>
@@ -9477,25 +9477,25 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>72.98742011525583</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
-        <v>208.9842062993024</v>
+        <v>208.9842062993023</v>
       </c>
       <c r="L21" t="n">
         <v>191.852839494262</v>
       </c>
       <c r="M21" t="n">
-        <v>177.2294288233528</v>
+        <v>183.2245519473413</v>
       </c>
       <c r="N21" t="n">
-        <v>172.3215253904086</v>
+        <v>75.39547643914449</v>
       </c>
       <c r="O21" t="n">
-        <v>40.13840422090709</v>
+        <v>40.13840422090708</v>
       </c>
       <c r="P21" t="n">
-        <v>48.08139221580917</v>
+        <v>48.08139221580916</v>
       </c>
       <c r="Q21" t="n">
         <v>73.11017483692342</v>
@@ -9559,19 +9559,19 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K22" t="n">
-        <v>138.7668962480483</v>
+        <v>73.8242672828444</v>
       </c>
       <c r="L22" t="n">
-        <v>69.92574568706458</v>
+        <v>211.2171120040207</v>
       </c>
       <c r="M22" t="n">
-        <v>219.432095924618</v>
+        <v>135.8584001499575</v>
       </c>
       <c r="N22" t="n">
         <v>211.2938921153077</v>
       </c>
       <c r="O22" t="n">
-        <v>204.7292078527389</v>
+        <v>211.9541662756472</v>
       </c>
       <c r="P22" t="n">
         <v>175.5085323082534</v>
@@ -9635,28 +9635,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>96.61541629286683</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K23" t="n">
         <v>103.1600033783428</v>
       </c>
       <c r="L23" t="n">
-        <v>97.69356934396384</v>
+        <v>246.0728666626769</v>
       </c>
       <c r="M23" t="n">
         <v>231.090885513775</v>
       </c>
       <c r="N23" t="n">
-        <v>222.6475371996901</v>
+        <v>80.26336300496544</v>
       </c>
       <c r="O23" t="n">
-        <v>235.114058198796</v>
+        <v>86.73476088008282</v>
       </c>
       <c r="P23" t="n">
-        <v>102.3413270829522</v>
+        <v>121.5153178468477</v>
       </c>
       <c r="Q23" t="n">
-        <v>264.7690855961332</v>
+        <v>264.7690855961331</v>
       </c>
       <c r="R23" t="n">
         <v>85.43134583487716</v>
@@ -9714,28 +9714,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>163.9183459425315</v>
+        <v>72.98742011525583</v>
       </c>
       <c r="K24" t="n">
-        <v>208.9842062993024</v>
+        <v>60.60490898058925</v>
       </c>
       <c r="L24" t="n">
-        <v>43.47354217554894</v>
+        <v>43.47354217554893</v>
       </c>
       <c r="M24" t="n">
-        <v>34.8452546286282</v>
+        <v>34.84525462862818</v>
       </c>
       <c r="N24" t="n">
-        <v>172.3215253904086</v>
+        <v>166.3264022664201</v>
       </c>
       <c r="O24" t="n">
-        <v>188.5177015396202</v>
+        <v>188.5177015396201</v>
       </c>
       <c r="P24" t="n">
-        <v>48.08139221580917</v>
+        <v>196.4606895345223</v>
       </c>
       <c r="Q24" t="n">
-        <v>124.5634232043724</v>
+        <v>221.4894721556365</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9796,16 +9796,16 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K25" t="n">
-        <v>73.8242672828444</v>
+        <v>138.7668962480483</v>
       </c>
       <c r="L25" t="n">
-        <v>127.6434162293602</v>
+        <v>69.92574568706456</v>
       </c>
       <c r="M25" t="n">
         <v>219.432095924618</v>
       </c>
       <c r="N25" t="n">
-        <v>211.2938921153078</v>
+        <v>204.0689336923995</v>
       </c>
       <c r="O25" t="n">
         <v>211.9541662756472</v>
@@ -9951,7 +9951,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>163.9183459425315</v>
+        <v>72.98742011525583</v>
       </c>
       <c r="K27" t="n">
         <v>343.8048081163522</v>
@@ -9963,16 +9963,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
-        <v>104.7511851574077</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O27" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P27" t="n">
-        <v>414.0015992319183</v>
+        <v>186.5289227896627</v>
       </c>
       <c r="Q27" t="n">
-        <v>273.1004740566038</v>
+        <v>73.11017483692342</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10188,10 +10188,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>163.9183459425315</v>
+        <v>72.98742011525583</v>
       </c>
       <c r="K30" t="n">
-        <v>60.60490898058926</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L30" t="n">
         <v>482.0924488944969</v>
@@ -10203,10 +10203,10 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O30" t="n">
-        <v>512.0210150597484</v>
+        <v>84.55803939781241</v>
       </c>
       <c r="P30" t="n">
-        <v>178.8075968784695</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q30" t="n">
         <v>273.1004740566038</v>
@@ -10425,10 +10425,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>128.714642808763</v>
+        <v>72.98742011525583</v>
       </c>
       <c r="K33" t="n">
-        <v>60.60490898058926</v>
+        <v>116.3321316740964</v>
       </c>
       <c r="L33" t="n">
         <v>482.0924488944969</v>
@@ -10586,7 +10586,7 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K35" t="n">
-        <v>418.3384083918311</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L35" t="n">
         <v>542.9595789155856</v>
@@ -10604,7 +10604,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q35" t="n">
-        <v>276.0094878578761</v>
+        <v>272.9588599071925</v>
       </c>
       <c r="R35" t="n">
         <v>85.43134583487716</v>
@@ -10674,7 +10674,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
-        <v>104.751185157408</v>
+        <v>304.7414843770882</v>
       </c>
       <c r="O36" t="n">
         <v>512.0210150597484</v>
@@ -10683,7 +10683,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q36" t="n">
-        <v>273.1004740566038</v>
+        <v>73.11017483692342</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10841,7 +10841,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q38" t="n">
-        <v>272.9588599071934</v>
+        <v>272.9588599071925</v>
       </c>
       <c r="R38" t="n">
         <v>85.43134583487716</v>
@@ -10899,10 +10899,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>163.9183459425315</v>
+        <v>72.98742011525583</v>
       </c>
       <c r="K39" t="n">
-        <v>343.8048081163522</v>
+        <v>282.2620394705255</v>
       </c>
       <c r="L39" t="n">
         <v>482.0924488944969</v>
@@ -10911,13 +10911,13 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>104.751185157408</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P39" t="n">
-        <v>414.0015992319183</v>
+        <v>48.08139221580916</v>
       </c>
       <c r="Q39" t="n">
         <v>273.1004740566038</v>
@@ -11069,13 +11069,13 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N41" t="n">
-        <v>568.5510017355793</v>
+        <v>565.5003737848961</v>
       </c>
       <c r="O41" t="n">
         <v>495.0402356415689</v>
       </c>
       <c r="P41" t="n">
-        <v>415.2876926722452</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q41" t="n">
         <v>276.0094878578761</v>
@@ -11139,7 +11139,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K42" t="n">
-        <v>297.2935174659818</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L42" t="n">
         <v>482.0924488944969</v>
@@ -11148,10 +11148,10 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>623.1450866466196</v>
+        <v>576.6337959962492</v>
       </c>
       <c r="O42" t="n">
-        <v>40.13840422090709</v>
+        <v>40.13840422090708</v>
       </c>
       <c r="P42" t="n">
         <v>414.0015992319183</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>219.8255997236959</v>
+        <v>216.7749717730127</v>
       </c>
       <c r="K44" t="n">
         <v>421.3890363425141</v>
@@ -11306,7 +11306,7 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N44" t="n">
-        <v>565.5003737848965</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O44" t="n">
         <v>495.0402356415689</v>
@@ -11385,13 +11385,13 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N45" t="n">
-        <v>470.6713921735172</v>
+        <v>576.6337959962492</v>
       </c>
       <c r="O45" t="n">
-        <v>512.0210150597484</v>
+        <v>40.13840422090708</v>
       </c>
       <c r="P45" t="n">
-        <v>48.08139221580917</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q45" t="n">
         <v>273.1004740566038</v>
@@ -23258,19 +23258,19 @@
         <v>175.1936450202583</v>
       </c>
       <c r="C11" t="n">
-        <v>153.3066540389526</v>
+        <v>14.82566465922696</v>
       </c>
       <c r="D11" t="n">
         <v>154.186266022468</v>
       </c>
       <c r="E11" t="n">
-        <v>175.9284035923735</v>
+        <v>175.9284035923736</v>
       </c>
       <c r="F11" t="n">
         <v>195.1002196803507</v>
       </c>
       <c r="G11" t="n">
-        <v>48.05937288460612</v>
+        <v>48.05937288460615</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23315,16 +23315,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>118.7000222604374</v>
       </c>
       <c r="W11" t="n">
         <v>144.0001217383943</v>
       </c>
       <c r="X11" t="n">
-        <v>14.92108265242783</v>
+        <v>163.300379971141</v>
       </c>
       <c r="Y11" t="n">
-        <v>174.6969777673397</v>
+        <v>46.0986475679151</v>
       </c>
     </row>
     <row r="12">
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>175.1936450202583</v>
+        <v>26.81434770154516</v>
       </c>
       <c r="C14" t="n">
         <v>163.20496197794</v>
       </c>
       <c r="D14" t="n">
-        <v>154.186266022468</v>
+        <v>5.806968703754876</v>
       </c>
       <c r="E14" t="n">
         <v>175.9284035923735</v>
       </c>
       <c r="F14" t="n">
-        <v>46.72092236163761</v>
+        <v>195.1002196803507</v>
       </c>
       <c r="G14" t="n">
-        <v>196.4386702033192</v>
+        <v>48.05937288460609</v>
       </c>
       <c r="H14" t="n">
-        <v>92.12029072175145</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>4.602084647045862</v>
+        <v>4.602084647045833</v>
       </c>
       <c r="U14" t="n">
-        <v>37.37943843060893</v>
+        <v>37.37943843060889</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>118.7000222604374</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>121.7995657800278</v>
       </c>
       <c r="X14" t="n">
         <v>163.3003799711409</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.31768044862659</v>
+        <v>174.6969777673397</v>
       </c>
     </row>
     <row r="15">
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>-2.732152900907423e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>805552.8541394919</v>
+        <v>805552.8541394918</v>
       </c>
     </row>
     <row r="6">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1050739.790276215</v>
+        <v>1050739.790276214</v>
       </c>
     </row>
     <row r="16">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>536113.6420551131</v>
+        <v>536113.642055113</v>
       </c>
       <c r="C2" t="n">
         <v>536113.642055113</v>
@@ -26320,37 +26320,37 @@
         <v>536113.642055113</v>
       </c>
       <c r="E2" t="n">
-        <v>468500.7586838368</v>
+        <v>468500.7586838366</v>
       </c>
       <c r="F2" t="n">
-        <v>468500.7586838368</v>
+        <v>468500.7586838367</v>
       </c>
       <c r="G2" t="n">
-        <v>537336.8423459273</v>
+        <v>537336.842345927</v>
       </c>
       <c r="H2" t="n">
-        <v>537336.8423459271</v>
+        <v>537336.8423459274</v>
       </c>
       <c r="I2" t="n">
         <v>537336.8423459271</v>
       </c>
       <c r="J2" t="n">
-        <v>537336.8423459277</v>
+        <v>537336.8423459275</v>
       </c>
       <c r="K2" t="n">
-        <v>537336.8423459276</v>
+        <v>537336.8423459278</v>
       </c>
       <c r="L2" t="n">
         <v>537336.8423459278</v>
       </c>
       <c r="M2" t="n">
-        <v>537336.8423459274</v>
+        <v>537336.8423459271</v>
       </c>
       <c r="N2" t="n">
-        <v>537336.8423459275</v>
+        <v>537336.842345927</v>
       </c>
       <c r="O2" t="n">
-        <v>537336.842345927</v>
+        <v>537336.8423459269</v>
       </c>
       <c r="P2" t="n">
         <v>537336.842345927</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>86793.54329596488</v>
+        <v>86793.54329596486</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>183234.0671005398</v>
+        <v>183234.0671005397</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>86793.54329596479</v>
+        <v>86793.54329596486</v>
       </c>
       <c r="M3" t="n">
-        <v>30710.95344183802</v>
+        <v>30710.95344183796</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1021.367241920257</v>
+        <v>1021.367241920211</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26424,7 +26424,7 @@
         <v>433368.1494884496</v>
       </c>
       <c r="E4" t="n">
-        <v>327629.7304511557</v>
+        <v>327629.7304511556</v>
       </c>
       <c r="F4" t="n">
         <v>327629.7304511557</v>
@@ -26442,7 +26442,7 @@
         <v>382503.2390267601</v>
       </c>
       <c r="K4" t="n">
-        <v>382503.2390267602</v>
+        <v>382503.2390267601</v>
       </c>
       <c r="L4" t="n">
         <v>382503.2390267601</v>
@@ -26454,7 +26454,7 @@
         <v>381721.5911019811</v>
       </c>
       <c r="O4" t="n">
-        <v>381721.5911019812</v>
+        <v>381721.5911019811</v>
       </c>
       <c r="P4" t="n">
         <v>381721.5911019811</v>
@@ -26497,7 +26497,7 @@
         <v>63817.1541115959</v>
       </c>
       <c r="L5" t="n">
-        <v>63817.15411159588</v>
+        <v>63817.1541115959</v>
       </c>
       <c r="M5" t="n">
         <v>58022.99176574548</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>69117.89256666353</v>
+        <v>69113.52399419622</v>
       </c>
       <c r="C6" t="n">
-        <v>69117.89256666342</v>
+        <v>69113.52399419622</v>
       </c>
       <c r="D6" t="n">
-        <v>69117.89256666342</v>
+        <v>69113.52399419622</v>
       </c>
       <c r="E6" t="n">
-        <v>-224545.7315890608</v>
+        <v>-224791.574744997</v>
       </c>
       <c r="F6" t="n">
-        <v>110556.797721088</v>
+        <v>110310.9545651519</v>
       </c>
       <c r="G6" t="n">
-        <v>27350.85843320226</v>
+        <v>27350.85843320208</v>
       </c>
       <c r="H6" t="n">
-        <v>114144.401729167</v>
+        <v>114144.4017291673</v>
       </c>
       <c r="I6" t="n">
         <v>114144.401729167</v>
       </c>
       <c r="J6" t="n">
-        <v>-92217.61789296808</v>
+        <v>-92217.61789296825</v>
       </c>
       <c r="K6" t="n">
-        <v>91016.44920757155</v>
+        <v>91016.44920757184</v>
       </c>
       <c r="L6" t="n">
-        <v>4222.905911607086</v>
+        <v>4222.905911607013</v>
       </c>
       <c r="M6" t="n">
-        <v>66881.30603636274</v>
+        <v>66881.30603636257</v>
       </c>
       <c r="N6" t="n">
-        <v>97592.2594782009</v>
+        <v>97592.25947820043</v>
       </c>
       <c r="O6" t="n">
-        <v>96570.89223628017</v>
+        <v>96570.89223628011</v>
       </c>
       <c r="P6" t="n">
         <v>97592.25947820043</v>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>214.9094591025807</v>
+        <v>214.9094591025806</v>
       </c>
       <c r="F2" t="n">
         <v>214.9094591025807</v>
@@ -26713,19 +26713,19 @@
         <v>109.7686381723564</v>
       </c>
       <c r="L2" t="n">
-        <v>109.7686381723563</v>
+        <v>109.7686381723564</v>
       </c>
       <c r="M2" t="n">
-        <v>148.1573299746538</v>
+        <v>148.1573299746539</v>
       </c>
       <c r="N2" t="n">
-        <v>148.1573299746538</v>
+        <v>148.1573299746539</v>
       </c>
       <c r="O2" t="n">
         <v>148.1573299746538</v>
       </c>
       <c r="P2" t="n">
-        <v>148.1573299746538</v>
+        <v>148.1573299746539</v>
       </c>
     </row>
     <row r="3">
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>214.9094591025807</v>
+        <v>214.9094591025806</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,25 +26929,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.276709052400321</v>
+        <v>1.276709052400292</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>108.491929119956</v>
+        <v>108.4919291199561</v>
       </c>
       <c r="M2" t="n">
-        <v>38.38869180229753</v>
+        <v>38.38869180229744</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.276709052400321</v>
+        <v>1.276709052400264</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>214.9094591025807</v>
+        <v>214.9094591025806</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.276709052400321</v>
+        <v>1.276709052400292</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>214.9094591025807</v>
+        <v>214.9094591025806</v>
       </c>
       <c r="C11" t="n">
-        <v>214.9094591025807</v>
+        <v>214.9094591025806</v>
       </c>
       <c r="D11" t="n">
-        <v>214.9094591025807</v>
+        <v>214.9094591025806</v>
       </c>
       <c r="E11" t="n">
-        <v>214.9094591025807</v>
+        <v>214.9094591025806</v>
       </c>
       <c r="F11" t="n">
-        <v>214.9094591025807</v>
+        <v>214.9094591025806</v>
       </c>
       <c r="G11" t="n">
-        <v>214.9094591025807</v>
+        <v>214.9094591025806</v>
       </c>
       <c r="H11" t="n">
-        <v>214.9094591025807</v>
+        <v>214.9094591025806</v>
       </c>
       <c r="I11" t="n">
         <v>148.1573299746538</v>
@@ -28135,28 +28135,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>52.36770674105864</v>
+        <v>52.36770674105863</v>
       </c>
       <c r="S11" t="n">
         <v>171.8022846955789</v>
       </c>
       <c r="T11" t="n">
-        <v>214.9094591025807</v>
+        <v>214.9094591025806</v>
       </c>
       <c r="U11" t="n">
-        <v>214.9094591025807</v>
+        <v>214.9094591025806</v>
       </c>
       <c r="V11" t="n">
-        <v>214.9094591025807</v>
+        <v>214.9094591025806</v>
       </c>
       <c r="W11" t="n">
-        <v>214.9094591025807</v>
+        <v>214.9094591025806</v>
       </c>
       <c r="X11" t="n">
-        <v>214.9094591025807</v>
+        <v>214.9094591025806</v>
       </c>
       <c r="Y11" t="n">
-        <v>214.9094591025807</v>
+        <v>214.9094591025806</v>
       </c>
     </row>
     <row r="12">
@@ -28169,7 +28169,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C12" t="n">
-        <v>47.91736063390034</v>
+        <v>67.18101689188953</v>
       </c>
       <c r="D12" t="n">
         <v>137.45025063969</v>
@@ -28178,7 +28178,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G12" t="n">
         <v>127.122959624192</v>
@@ -28214,22 +28214,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>39.42667720891151</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>37.13616306826433</v>
+        <v>185.5154603869774</v>
       </c>
       <c r="U12" t="n">
-        <v>214.9094591025807</v>
+        <v>214.9094591025806</v>
       </c>
       <c r="V12" t="n">
-        <v>214.9094591025807</v>
+        <v>77.73236900743626</v>
       </c>
       <c r="W12" t="n">
-        <v>214.9094591025807</v>
+        <v>90.52341276030995</v>
       </c>
       <c r="X12" t="n">
         <v>195.9378182409833</v>
@@ -28269,7 +28269,7 @@
         <v>134.7371713495762</v>
       </c>
       <c r="J13" t="n">
-        <v>40.59287420192322</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -28290,31 +28290,31 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>15.80988382663727</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>136.0296090620145</v>
       </c>
       <c r="S13" t="n">
-        <v>59.15792914817578</v>
+        <v>58.54351690452887</v>
       </c>
       <c r="T13" t="n">
-        <v>214.9094591025807</v>
+        <v>214.9094591025806</v>
       </c>
       <c r="U13" t="n">
-        <v>135.9244862736129</v>
+        <v>214.9094591025806</v>
       </c>
       <c r="V13" t="n">
-        <v>214.9094591025807</v>
+        <v>214.9094591025806</v>
       </c>
       <c r="W13" t="n">
-        <v>214.9094591025807</v>
+        <v>214.9094591025806</v>
       </c>
       <c r="X13" t="n">
-        <v>80.56064214486489</v>
+        <v>202.0667887897528</v>
       </c>
       <c r="Y13" t="n">
-        <v>214.9094591025807</v>
+        <v>71.43550990093257</v>
       </c>
     </row>
     <row r="14">
@@ -28372,7 +28372,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>52.36770674105864</v>
+        <v>52.36770674105863</v>
       </c>
       <c r="S14" t="n">
         <v>171.8022846955789</v>
@@ -28406,22 +28406,22 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C15" t="n">
-        <v>160.0866360314548</v>
+        <v>11.70733871274174</v>
       </c>
       <c r="D15" t="n">
         <v>137.45025063969</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G15" t="n">
         <v>127.122959624192</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>95.86480218241283</v>
       </c>
       <c r="I15" t="n">
         <v>56.74098649571546</v>
@@ -28451,25 +28451,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>39.42667720891151</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>145.3600385256214</v>
       </c>
       <c r="T15" t="n">
-        <v>185.5154603869774</v>
+        <v>37.13616306826432</v>
       </c>
       <c r="U15" t="n">
-        <v>195.7834184124234</v>
+        <v>214.9094591025807</v>
       </c>
       <c r="V15" t="n">
-        <v>214.9094591025807</v>
+        <v>77.73236900743626</v>
       </c>
       <c r="W15" t="n">
         <v>214.9094591025807</v>
       </c>
       <c r="X15" t="n">
-        <v>195.9378182409833</v>
+        <v>130.0447088709521</v>
       </c>
       <c r="Y15" t="n">
         <v>190.5961130869169</v>
@@ -28482,10 +28482,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>33.34051767882292</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C16" t="n">
-        <v>19.5405125242234</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D16" t="n">
         <v>151.5411742405149</v>
@@ -28494,7 +28494,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9558484244806</v>
+        <v>2.57655110576755</v>
       </c>
       <c r="G16" t="n">
         <v>166.9637365489679</v>
@@ -28536,16 +28536,16 @@
         <v>206.922814223242</v>
       </c>
       <c r="T16" t="n">
-        <v>214.9094591025807</v>
+        <v>107.3508865836761</v>
       </c>
       <c r="U16" t="n">
         <v>214.9094591025807</v>
       </c>
       <c r="V16" t="n">
+        <v>109.7486540784485</v>
+      </c>
+      <c r="W16" t="n">
         <v>214.9094591025807</v>
-      </c>
-      <c r="W16" t="n">
-        <v>150.5693788782571</v>
       </c>
       <c r="X16" t="n">
         <v>214.9094591025807</v>
@@ -28609,7 +28609,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>52.36770674105864</v>
+        <v>52.36770674105863</v>
       </c>
       <c r="S17" t="n">
         <v>171.8022846955789</v>
@@ -28643,13 +28643,13 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C18" t="n">
-        <v>11.70733871274174</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D18" t="n">
-        <v>137.45025063969</v>
+        <v>43.36287529526356</v>
       </c>
       <c r="E18" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>133.3468600696244</v>
@@ -28688,13 +28688,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>39.42667720891151</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>145.3600385256214</v>
       </c>
       <c r="T18" t="n">
-        <v>51.80371651556325</v>
+        <v>185.5154603869774</v>
       </c>
       <c r="U18" t="n">
         <v>216.2889066255179</v>
@@ -28709,7 +28709,7 @@
         <v>47.55852092227025</v>
       </c>
       <c r="Y18" t="n">
-        <v>190.5961130869169</v>
+        <v>42.21681576820384</v>
       </c>
     </row>
     <row r="19">
@@ -28740,10 +28740,10 @@
         <v>155.4066944437036</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>4.044686271253795</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>40.59287420192322</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>15.80988382663727</v>
       </c>
       <c r="R19" t="n">
         <v>136.0296090620145</v>
@@ -28776,19 +28776,19 @@
         <v>229.7071376477099</v>
       </c>
       <c r="U19" t="n">
-        <v>135.9244862736129</v>
+        <v>284.303783592326</v>
       </c>
       <c r="V19" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W19" t="n">
-        <v>283.2948374677749</v>
+        <v>134.9155401490618</v>
       </c>
       <c r="X19" t="n">
         <v>80.56064214486489</v>
       </c>
       <c r="Y19" t="n">
-        <v>131.8829542007469</v>
+        <v>71.43550990093257</v>
       </c>
     </row>
     <row r="20">
@@ -28846,7 +28846,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>52.36770674105864</v>
+        <v>52.36770674105863</v>
       </c>
       <c r="S20" t="n">
         <v>171.8022846955789</v>
@@ -28880,19 +28880,19 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C21" t="n">
-        <v>160.0866360314548</v>
+        <v>11.70733871274174</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>127.122959624192</v>
+        <v>116.0267204614553</v>
       </c>
       <c r="H21" t="n">
         <v>95.86480218241283</v>
@@ -28925,10 +28925,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>39.42667720891151</v>
+        <v>39.4266772089115</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>145.3600385256214</v>
       </c>
       <c r="T21" t="n">
         <v>185.5154603869774</v>
@@ -28937,13 +28937,13 @@
         <v>216.2889066255179</v>
       </c>
       <c r="V21" t="n">
-        <v>81.47087577571213</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W21" t="n">
         <v>238.9027100790231</v>
       </c>
       <c r="X21" t="n">
-        <v>47.55852092227025</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y21" t="n">
         <v>190.5961130869169</v>
@@ -28968,7 +28968,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F22" t="n">
-        <v>2.57655110576755</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
         <v>166.9637365489679</v>
@@ -29007,25 +29007,25 @@
         <v>136.0296090620145</v>
       </c>
       <c r="S22" t="n">
-        <v>206.922814223242</v>
+        <v>58.54351690452887</v>
       </c>
       <c r="T22" t="n">
-        <v>229.7071376477099</v>
+        <v>81.32784032899676</v>
       </c>
       <c r="U22" t="n">
-        <v>284.303783592326</v>
+        <v>135.9244862736129</v>
       </c>
       <c r="V22" t="n">
-        <v>258.1279513971616</v>
+        <v>143.2453501454765</v>
       </c>
       <c r="W22" t="n">
-        <v>168.4122362160897</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X22" t="n">
-        <v>80.56064214486489</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y22" t="n">
-        <v>71.43550990093257</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="23">
@@ -29083,7 +29083,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>52.36770674105864</v>
+        <v>52.36770674105863</v>
       </c>
       <c r="S23" t="n">
         <v>171.8022846955789</v>
@@ -29123,16 +29123,16 @@
         <v>137.45025063969</v>
       </c>
       <c r="E24" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>127.122959624192</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>95.86480218241283</v>
+        <v>22.22963839009194</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -29174,16 +29174,16 @@
         <v>216.2889066255179</v>
       </c>
       <c r="V24" t="n">
-        <v>176.5544077033652</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W24" t="n">
         <v>238.9027100790231</v>
       </c>
       <c r="X24" t="n">
-        <v>47.55852092227025</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y24" t="n">
-        <v>42.21681576820384</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="25">
@@ -29205,10 +29205,10 @@
         <v>2.109626777581241</v>
       </c>
       <c r="F25" t="n">
-        <v>36.07324717279555</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
-        <v>18.58443923025477</v>
+        <v>166.9637365489679</v>
       </c>
       <c r="H25" t="n">
         <v>155.4066944437036</v>
@@ -29238,7 +29238,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>15.80988382663727</v>
       </c>
       <c r="R25" t="n">
         <v>136.0296090620145</v>
@@ -29247,13 +29247,13 @@
         <v>206.922814223242</v>
       </c>
       <c r="T25" t="n">
-        <v>229.7071376477099</v>
+        <v>99.01465256938744</v>
       </c>
       <c r="U25" t="n">
         <v>284.303783592326</v>
       </c>
       <c r="V25" t="n">
-        <v>258.1279513971616</v>
+        <v>109.7486540784485</v>
       </c>
       <c r="W25" t="n">
         <v>283.2948374677749</v>
@@ -29299,7 +29299,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>109.7686381723564</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>109.7686381723564</v>
@@ -29308,19 +29308,19 @@
         <v>109.7686381723564</v>
       </c>
       <c r="N26" t="n">
-        <v>35.62824733839972</v>
+        <v>109.7686381723564</v>
       </c>
       <c r="O26" t="n">
-        <v>109.7686381723564</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>109.7686381723564</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>109.7686381723564</v>
       </c>
       <c r="R26" t="n">
-        <v>52.36770674105864</v>
+        <v>87.99595407945853</v>
       </c>
       <c r="S26" t="n">
         <v>109.7686381723564</v>
@@ -29463,7 +29463,7 @@
         <v>109.7686381723564</v>
       </c>
       <c r="M28" t="n">
-        <v>109.7686381723564</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>84.22670256397981</v>
@@ -29472,7 +29472,7 @@
         <v>109.7686381723564</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>109.7686381723564</v>
       </c>
       <c r="Q28" t="n">
         <v>109.7686381723564</v>
@@ -29533,31 +29533,31 @@
         <v>109.7686381723564</v>
       </c>
       <c r="J29" t="n">
-        <v>35.6282473383994</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
+        <v>87.99595407945782</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
         <v>109.7686381723564</v>
       </c>
-      <c r="L29" t="n">
-        <v>109.7686381723564</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
       <c r="N29" t="n">
-        <v>109.7686381723564</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>109.7686381723564</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>109.7686381723564</v>
       </c>
       <c r="Q29" t="n">
         <v>109.7686381723564</v>
       </c>
       <c r="R29" t="n">
-        <v>52.36770674105864</v>
+        <v>109.7686381723564</v>
       </c>
       <c r="S29" t="n">
         <v>109.7686381723564</v>
@@ -29697,19 +29697,19 @@
         <v>109.7686381723564</v>
       </c>
       <c r="L31" t="n">
-        <v>109.0096929392656</v>
+        <v>109.7686381723564</v>
       </c>
       <c r="M31" t="n">
         <v>109.7686381723564</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>109.7686381723564</v>
       </c>
       <c r="O31" t="n">
-        <v>109.7686381723564</v>
+        <v>109.0096929392656</v>
       </c>
       <c r="P31" t="n">
-        <v>109.7686381723564</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>15.80988382663727</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>109.7686381723563</v>
+        <v>109.7686381723564</v>
       </c>
       <c r="C32" t="n">
-        <v>109.7686381723563</v>
+        <v>109.7686381723564</v>
       </c>
       <c r="D32" t="n">
-        <v>109.7686381723563</v>
+        <v>109.7686381723564</v>
       </c>
       <c r="E32" t="n">
-        <v>109.7686381723563</v>
+        <v>109.7686381723564</v>
       </c>
       <c r="F32" t="n">
-        <v>109.7686381723563</v>
+        <v>109.7686381723564</v>
       </c>
       <c r="G32" t="n">
-        <v>109.7686381723563</v>
+        <v>109.7686381723564</v>
       </c>
       <c r="H32" t="n">
-        <v>109.7686381723563</v>
+        <v>109.7686381723564</v>
       </c>
       <c r="I32" t="n">
-        <v>109.7686381723563</v>
+        <v>109.7686381723564</v>
       </c>
       <c r="J32" t="n">
-        <v>109.7686381723563</v>
+        <v>109.7686381723564</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>35.62824733840006</v>
+        <v>109.7686381723564</v>
       </c>
       <c r="M32" t="n">
-        <v>109.7686381723563</v>
+        <v>109.7686381723564</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>109.7686381723564</v>
       </c>
       <c r="O32" t="n">
-        <v>109.7686381723563</v>
+        <v>109.7686381723564</v>
       </c>
       <c r="P32" t="n">
-        <v>109.7686381723563</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>109.7686381723563</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>52.36770674105864</v>
+        <v>87.99595407945853</v>
       </c>
       <c r="S32" t="n">
-        <v>109.7686381723563</v>
+        <v>109.7686381723564</v>
       </c>
       <c r="T32" t="n">
-        <v>109.7686381723563</v>
+        <v>109.7686381723564</v>
       </c>
       <c r="U32" t="n">
-        <v>109.7686381723563</v>
+        <v>109.7686381723564</v>
       </c>
       <c r="V32" t="n">
-        <v>109.7686381723563</v>
+        <v>109.7686381723564</v>
       </c>
       <c r="W32" t="n">
-        <v>109.7686381723563</v>
+        <v>109.7686381723564</v>
       </c>
       <c r="X32" t="n">
-        <v>109.7686381723563</v>
+        <v>109.7686381723564</v>
       </c>
       <c r="Y32" t="n">
-        <v>109.7686381723563</v>
+        <v>109.7686381723564</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>109.7686381723563</v>
+        <v>109.7686381723564</v>
       </c>
       <c r="C34" t="n">
-        <v>109.7686381723563</v>
+        <v>109.7686381723564</v>
       </c>
       <c r="D34" t="n">
-        <v>109.7686381723563</v>
+        <v>109.7686381723564</v>
       </c>
       <c r="E34" t="n">
-        <v>109.7686381723563</v>
+        <v>109.7686381723564</v>
       </c>
       <c r="F34" t="n">
-        <v>109.7686381723563</v>
+        <v>109.7686381723564</v>
       </c>
       <c r="G34" t="n">
-        <v>109.7686381723563</v>
+        <v>109.7686381723564</v>
       </c>
       <c r="H34" t="n">
-        <v>109.7686381723563</v>
+        <v>109.7686381723564</v>
       </c>
       <c r="I34" t="n">
-        <v>109.7686381723563</v>
+        <v>109.7686381723564</v>
       </c>
       <c r="J34" t="n">
-        <v>109.7686381723563</v>
+        <v>40.59287420192322</v>
       </c>
       <c r="K34" t="n">
-        <v>109.7686381723563</v>
+        <v>84.22670256397973</v>
       </c>
       <c r="L34" t="n">
-        <v>15.05093859354938</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>109.7686381723563</v>
+        <v>109.7686381723564</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>109.7686381723564</v>
       </c>
       <c r="O34" t="n">
-        <v>109.7686381723563</v>
+        <v>109.7686381723564</v>
       </c>
       <c r="P34" t="n">
-        <v>109.7686381723563</v>
+        <v>109.7686381723564</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7686381723563</v>
+        <v>109.7686381723564</v>
       </c>
       <c r="R34" t="n">
-        <v>109.7686381723563</v>
+        <v>109.7686381723564</v>
       </c>
       <c r="S34" t="n">
-        <v>109.7686381723563</v>
+        <v>109.7686381723564</v>
       </c>
       <c r="T34" t="n">
-        <v>109.7686381723563</v>
+        <v>109.7686381723564</v>
       </c>
       <c r="U34" t="n">
-        <v>109.7686381723563</v>
+        <v>109.7686381723564</v>
       </c>
       <c r="V34" t="n">
-        <v>109.7686381723563</v>
+        <v>109.7686381723564</v>
       </c>
       <c r="W34" t="n">
-        <v>109.7686381723563</v>
+        <v>109.7686381723564</v>
       </c>
       <c r="X34" t="n">
-        <v>109.7686381723563</v>
+        <v>109.7686381723564</v>
       </c>
       <c r="Y34" t="n">
-        <v>109.7686381723563</v>
+        <v>109.7686381723564</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>148.1573299746538</v>
+        <v>148.1573299746539</v>
       </c>
       <c r="C35" t="n">
-        <v>148.1573299746538</v>
+        <v>148.1573299746539</v>
       </c>
       <c r="D35" t="n">
-        <v>148.1573299746538</v>
+        <v>148.1573299746539</v>
       </c>
       <c r="E35" t="n">
-        <v>148.1573299746538</v>
+        <v>148.1573299746539</v>
       </c>
       <c r="F35" t="n">
-        <v>148.1573299746538</v>
+        <v>148.1573299746539</v>
       </c>
       <c r="G35" t="n">
-        <v>148.1573299746538</v>
+        <v>148.1573299746539</v>
       </c>
       <c r="H35" t="n">
-        <v>148.1573299746538</v>
+        <v>148.1573299746539</v>
       </c>
       <c r="I35" t="n">
         <v>148.1573299746538</v>
@@ -30031,28 +30031,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>52.36770674105864</v>
+        <v>52.36770674105863</v>
       </c>
       <c r="S35" t="n">
-        <v>148.1573299746538</v>
+        <v>148.1573299746539</v>
       </c>
       <c r="T35" t="n">
-        <v>148.1573299746538</v>
+        <v>148.1573299746539</v>
       </c>
       <c r="U35" t="n">
-        <v>148.1573299746538</v>
+        <v>148.1573299746539</v>
       </c>
       <c r="V35" t="n">
-        <v>148.1573299746538</v>
+        <v>148.1573299746539</v>
       </c>
       <c r="W35" t="n">
-        <v>148.1573299746538</v>
+        <v>148.1573299746539</v>
       </c>
       <c r="X35" t="n">
-        <v>148.1573299746538</v>
+        <v>148.1573299746539</v>
       </c>
       <c r="Y35" t="n">
-        <v>148.1573299746538</v>
+        <v>148.1573299746539</v>
       </c>
     </row>
     <row r="36">
@@ -30141,37 +30141,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>148.1573299746538</v>
+        <v>148.1573299746539</v>
       </c>
       <c r="C37" t="n">
-        <v>148.1573299746538</v>
+        <v>148.1573299746539</v>
       </c>
       <c r="D37" t="n">
-        <v>148.1573299746538</v>
+        <v>148.1573299746539</v>
       </c>
       <c r="E37" t="n">
-        <v>148.1573299746538</v>
+        <v>148.1573299746539</v>
       </c>
       <c r="F37" t="n">
-        <v>148.1573299746538</v>
+        <v>148.1573299746539</v>
       </c>
       <c r="G37" t="n">
-        <v>148.1573299746538</v>
+        <v>148.1573299746539</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1573299746538</v>
+        <v>148.1573299746539</v>
       </c>
       <c r="I37" t="n">
-        <v>134.7371713495762</v>
+        <v>148.1573299746539</v>
       </c>
       <c r="J37" t="n">
-        <v>40.59287420192322</v>
+        <v>43.8091262584699</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>16.63641068162462</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -30192,25 +30192,25 @@
         <v>136.0296090620145</v>
       </c>
       <c r="S37" t="n">
-        <v>148.1573299746538</v>
+        <v>148.1573299746539</v>
       </c>
       <c r="T37" t="n">
-        <v>148.1573299746538</v>
+        <v>148.1573299746539</v>
       </c>
       <c r="U37" t="n">
-        <v>148.1573299746538</v>
+        <v>148.1573299746539</v>
       </c>
       <c r="V37" t="n">
-        <v>148.1573299746538</v>
+        <v>148.1573299746539</v>
       </c>
       <c r="W37" t="n">
-        <v>148.1573299746538</v>
+        <v>148.1573299746539</v>
       </c>
       <c r="X37" t="n">
-        <v>148.1573299746538</v>
+        <v>148.1573299746539</v>
       </c>
       <c r="Y37" t="n">
-        <v>148.1573299746538</v>
+        <v>148.1573299746539</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>148.1573299746538</v>
+        <v>148.1573299746539</v>
       </c>
       <c r="C38" t="n">
-        <v>148.1573299746538</v>
+        <v>148.1573299746539</v>
       </c>
       <c r="D38" t="n">
-        <v>148.1573299746536</v>
+        <v>148.1573299746539</v>
       </c>
       <c r="E38" t="n">
-        <v>148.1573299746538</v>
+        <v>148.1573299746539</v>
       </c>
       <c r="F38" t="n">
-        <v>148.1573299746538</v>
+        <v>148.1573299746539</v>
       </c>
       <c r="G38" t="n">
-        <v>148.1573299746538</v>
+        <v>148.1573299746539</v>
       </c>
       <c r="H38" t="n">
-        <v>148.1573299746538</v>
+        <v>148.1573299746539</v>
       </c>
       <c r="I38" t="n">
         <v>148.1573299746538</v>
@@ -30268,28 +30268,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>52.36770674105864</v>
+        <v>52.36770674105863</v>
       </c>
       <c r="S38" t="n">
-        <v>148.1573299746538</v>
+        <v>148.1573299746539</v>
       </c>
       <c r="T38" t="n">
-        <v>148.1573299746538</v>
+        <v>148.1573299746539</v>
       </c>
       <c r="U38" t="n">
-        <v>148.1573299746538</v>
+        <v>148.1573299746539</v>
       </c>
       <c r="V38" t="n">
-        <v>148.1573299746538</v>
+        <v>148.1573299746539</v>
       </c>
       <c r="W38" t="n">
-        <v>148.1573299746538</v>
+        <v>148.1573299746539</v>
       </c>
       <c r="X38" t="n">
-        <v>148.1573299746538</v>
+        <v>148.1573299746539</v>
       </c>
       <c r="Y38" t="n">
-        <v>148.1573299746538</v>
+        <v>148.1573299746539</v>
       </c>
     </row>
     <row r="39">
@@ -30378,34 +30378,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>148.1573299746538</v>
+        <v>148.1573299746539</v>
       </c>
       <c r="C40" t="n">
-        <v>148.1573299746538</v>
+        <v>148.1573299746539</v>
       </c>
       <c r="D40" t="n">
-        <v>148.1573299746538</v>
+        <v>148.1573299746539</v>
       </c>
       <c r="E40" t="n">
-        <v>148.1573299746538</v>
+        <v>148.1573299746539</v>
       </c>
       <c r="F40" t="n">
-        <v>148.1573299746538</v>
+        <v>148.1573299746539</v>
       </c>
       <c r="G40" t="n">
-        <v>148.1573299746538</v>
+        <v>148.1573299746539</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1573299746538</v>
+        <v>148.1573299746539</v>
       </c>
       <c r="I40" t="n">
-        <v>148.1573299746538</v>
+        <v>134.7371713495762</v>
       </c>
       <c r="J40" t="n">
         <v>40.59287420192322</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>4.508689768984951</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -30420,34 +30420,34 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>3.216252056547034</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>15.80988382663727</v>
       </c>
       <c r="R40" t="n">
-        <v>136.0296090620145</v>
+        <v>148.1573299746539</v>
       </c>
       <c r="S40" t="n">
-        <v>148.1573299746538</v>
+        <v>148.1573299746539</v>
       </c>
       <c r="T40" t="n">
-        <v>148.1573299746538</v>
+        <v>148.1573299746539</v>
       </c>
       <c r="U40" t="n">
-        <v>148.1573299746538</v>
+        <v>148.1573299746539</v>
       </c>
       <c r="V40" t="n">
-        <v>148.1573299746538</v>
+        <v>148.1573299746539</v>
       </c>
       <c r="W40" t="n">
-        <v>148.1573299746538</v>
+        <v>148.1573299746539</v>
       </c>
       <c r="X40" t="n">
-        <v>148.1573299746538</v>
+        <v>148.1573299746539</v>
       </c>
       <c r="Y40" t="n">
-        <v>148.1573299746538</v>
+        <v>148.1573299746539</v>
       </c>
     </row>
     <row r="41">
@@ -30505,7 +30505,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>52.36770674105864</v>
+        <v>52.36770674105863</v>
       </c>
       <c r="S41" t="n">
         <v>148.1573299746538</v>
@@ -30636,10 +30636,10 @@
         <v>148.1573299746538</v>
       </c>
       <c r="I43" t="n">
-        <v>148.1573299746538</v>
+        <v>134.7371713495762</v>
       </c>
       <c r="J43" t="n">
-        <v>40.59287420192322</v>
+        <v>57.22928488354782</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30663,7 +30663,7 @@
         <v>15.80988382663727</v>
       </c>
       <c r="R43" t="n">
-        <v>139.2458611185615</v>
+        <v>136.0296090620145</v>
       </c>
       <c r="S43" t="n">
         <v>148.1573299746538</v>
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>148.1573299746538</v>
+        <v>148.1573299746539</v>
       </c>
       <c r="C44" t="n">
-        <v>148.1573299746538</v>
+        <v>148.1573299746539</v>
       </c>
       <c r="D44" t="n">
-        <v>148.1573299746538</v>
+        <v>148.1573299746539</v>
       </c>
       <c r="E44" t="n">
-        <v>148.1573299746538</v>
+        <v>148.1573299746539</v>
       </c>
       <c r="F44" t="n">
-        <v>148.1573299746538</v>
+        <v>148.1573299746539</v>
       </c>
       <c r="G44" t="n">
-        <v>148.1573299746538</v>
+        <v>148.1573299746539</v>
       </c>
       <c r="H44" t="n">
-        <v>148.1573299746538</v>
+        <v>148.1573299746539</v>
       </c>
       <c r="I44" t="n">
         <v>148.1573299746538</v>
@@ -30742,28 +30742,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>52.36770674105864</v>
+        <v>52.36770674105863</v>
       </c>
       <c r="S44" t="n">
-        <v>148.1573299746538</v>
+        <v>148.1573299746539</v>
       </c>
       <c r="T44" t="n">
-        <v>148.1573299746538</v>
+        <v>148.1573299746539</v>
       </c>
       <c r="U44" t="n">
-        <v>148.1573299746538</v>
+        <v>148.1573299746539</v>
       </c>
       <c r="V44" t="n">
-        <v>148.1573299746538</v>
+        <v>148.1573299746539</v>
       </c>
       <c r="W44" t="n">
-        <v>148.1573299746538</v>
+        <v>148.1573299746539</v>
       </c>
       <c r="X44" t="n">
-        <v>148.1573299746538</v>
+        <v>148.1573299746539</v>
       </c>
       <c r="Y44" t="n">
-        <v>148.1573299746538</v>
+        <v>148.1573299746539</v>
       </c>
     </row>
     <row r="45">
@@ -30852,37 +30852,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>148.1573299746538</v>
+        <v>148.1573299746539</v>
       </c>
       <c r="C46" t="n">
-        <v>148.1573299746538</v>
+        <v>148.1573299746539</v>
       </c>
       <c r="D46" t="n">
-        <v>148.1573299746538</v>
+        <v>148.1573299746539</v>
       </c>
       <c r="E46" t="n">
-        <v>148.1573299746538</v>
+        <v>148.1573299746539</v>
       </c>
       <c r="F46" t="n">
-        <v>148.1573299746538</v>
+        <v>148.1573299746539</v>
       </c>
       <c r="G46" t="n">
-        <v>148.1573299746538</v>
+        <v>148.1573299746539</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1573299746538</v>
+        <v>148.1573299746539</v>
       </c>
       <c r="I46" t="n">
         <v>134.7371713495762</v>
       </c>
       <c r="J46" t="n">
-        <v>57.22928488354786</v>
+        <v>40.59287420192322</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>16.63641068162434</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -30903,25 +30903,25 @@
         <v>136.0296090620145</v>
       </c>
       <c r="S46" t="n">
-        <v>148.1573299746538</v>
+        <v>148.1573299746539</v>
       </c>
       <c r="T46" t="n">
-        <v>148.1573299746538</v>
+        <v>148.1573299746539</v>
       </c>
       <c r="U46" t="n">
-        <v>148.1573299746538</v>
+        <v>148.1573299746539</v>
       </c>
       <c r="V46" t="n">
-        <v>148.1573299746538</v>
+        <v>148.1573299746539</v>
       </c>
       <c r="W46" t="n">
-        <v>148.1573299746538</v>
+        <v>148.1573299746539</v>
       </c>
       <c r="X46" t="n">
-        <v>148.1573299746538</v>
+        <v>148.1573299746539</v>
       </c>
       <c r="Y46" t="n">
-        <v>148.1573299746538</v>
+        <v>148.1573299746539</v>
       </c>
     </row>
   </sheetData>
@@ -31750,22 +31750,22 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5948173744540068</v>
+        <v>0.594817374454007</v>
       </c>
       <c r="H11" t="n">
-        <v>6.091673436127099</v>
+        <v>6.091673436127101</v>
       </c>
       <c r="I11" t="n">
-        <v>22.93169682863812</v>
+        <v>22.93169682863813</v>
       </c>
       <c r="J11" t="n">
-        <v>50.48438113506581</v>
+        <v>50.48438113506582</v>
       </c>
       <c r="K11" t="n">
-        <v>75.66300059570393</v>
+        <v>75.66300059570395</v>
       </c>
       <c r="L11" t="n">
-        <v>93.86664281915077</v>
+        <v>93.86664281915078</v>
       </c>
       <c r="M11" t="n">
         <v>104.4447263020972</v>
@@ -31777,22 +31777,22 @@
         <v>100.2200359000376</v>
       </c>
       <c r="P11" t="n">
-        <v>85.53548196820432</v>
+        <v>85.53548196820434</v>
       </c>
       <c r="Q11" t="n">
-        <v>64.23358474557018</v>
+        <v>64.2335847455702</v>
       </c>
       <c r="R11" t="n">
-        <v>37.36419689804654</v>
+        <v>37.36419689804655</v>
       </c>
       <c r="S11" t="n">
-        <v>13.55440092037069</v>
+        <v>13.5544009203707</v>
       </c>
       <c r="T11" t="n">
-        <v>2.603813056672416</v>
+        <v>2.603813056672417</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04758538995632054</v>
+        <v>0.04758538995632055</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,31 +31829,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3182553527562172</v>
+        <v>0.3182553527562173</v>
       </c>
       <c r="H12" t="n">
-        <v>3.073676696356098</v>
+        <v>3.073676696356099</v>
       </c>
       <c r="I12" t="n">
         <v>10.95747596112415</v>
       </c>
       <c r="J12" t="n">
-        <v>30.06815155141086</v>
+        <v>30.06815155141087</v>
       </c>
       <c r="K12" t="n">
-        <v>51.39126018607741</v>
+        <v>51.39126018607742</v>
       </c>
       <c r="L12" t="n">
-        <v>69.10189139559884</v>
+        <v>69.10189139559886</v>
       </c>
       <c r="M12" t="n">
-        <v>80.6386479330117</v>
+        <v>80.63864793301171</v>
       </c>
       <c r="N12" t="n">
-        <v>82.77291299601283</v>
+        <v>82.77291299601285</v>
       </c>
       <c r="O12" t="n">
-        <v>75.72104439020401</v>
+        <v>75.72104439020403</v>
       </c>
       <c r="P12" t="n">
         <v>60.77281380833416</v>
@@ -31865,10 +31865,10 @@
         <v>19.75974900709216</v>
       </c>
       <c r="S12" t="n">
-        <v>5.911453591765698</v>
+        <v>5.911453591765699</v>
       </c>
       <c r="T12" t="n">
-        <v>1.282792408697208</v>
+        <v>1.282792408697209</v>
       </c>
       <c r="U12" t="n">
         <v>0.0209378521550143</v>
@@ -31911,10 +31911,10 @@
         <v>0.2668145968606193</v>
       </c>
       <c r="H13" t="n">
-        <v>2.372224324815325</v>
+        <v>2.372224324815326</v>
       </c>
       <c r="I13" t="n">
-        <v>8.02384260377208</v>
+        <v>8.023842603772081</v>
       </c>
       <c r="J13" t="n">
         <v>18.86379199804578</v>
@@ -31923,28 +31923,28 @@
         <v>30.99900498071558</v>
       </c>
       <c r="L13" t="n">
-        <v>39.66805379144152</v>
+        <v>39.66805379144153</v>
       </c>
       <c r="M13" t="n">
-        <v>41.82440085152415</v>
+        <v>41.82440085152416</v>
       </c>
       <c r="N13" t="n">
-        <v>40.82991008140733</v>
+        <v>40.82991008140734</v>
       </c>
       <c r="O13" t="n">
-        <v>37.71303047262645</v>
+        <v>37.71303047262646</v>
       </c>
       <c r="P13" t="n">
-        <v>32.27001269666979</v>
+        <v>32.2700126966698</v>
       </c>
       <c r="Q13" t="n">
-        <v>22.34208410621058</v>
+        <v>22.34208410621059</v>
       </c>
       <c r="R13" t="n">
         <v>11.99695450975111</v>
       </c>
       <c r="S13" t="n">
-        <v>4.649850747107336</v>
+        <v>4.649850747107337</v>
       </c>
       <c r="T13" t="n">
         <v>1.1400260047681</v>
@@ -31987,22 +31987,22 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5948173744540068</v>
+        <v>0.594817374454007</v>
       </c>
       <c r="H14" t="n">
-        <v>6.091673436127099</v>
+        <v>6.091673436127101</v>
       </c>
       <c r="I14" t="n">
-        <v>22.93169682863812</v>
+        <v>22.93169682863813</v>
       </c>
       <c r="J14" t="n">
-        <v>50.48438113506581</v>
+        <v>50.48438113506582</v>
       </c>
       <c r="K14" t="n">
-        <v>75.66300059570393</v>
+        <v>75.66300059570395</v>
       </c>
       <c r="L14" t="n">
-        <v>93.86664281915077</v>
+        <v>93.86664281915078</v>
       </c>
       <c r="M14" t="n">
         <v>104.4447263020972</v>
@@ -32014,22 +32014,22 @@
         <v>100.2200359000376</v>
       </c>
       <c r="P14" t="n">
-        <v>85.53548196820432</v>
+        <v>85.53548196820434</v>
       </c>
       <c r="Q14" t="n">
-        <v>64.23358474557018</v>
+        <v>64.2335847455702</v>
       </c>
       <c r="R14" t="n">
-        <v>37.36419689804654</v>
+        <v>37.36419689804655</v>
       </c>
       <c r="S14" t="n">
-        <v>13.55440092037069</v>
+        <v>13.5544009203707</v>
       </c>
       <c r="T14" t="n">
-        <v>2.603813056672416</v>
+        <v>2.603813056672417</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04758538995632054</v>
+        <v>0.04758538995632055</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,31 +32066,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3182553527562172</v>
+        <v>0.3182553527562173</v>
       </c>
       <c r="H15" t="n">
-        <v>3.073676696356098</v>
+        <v>3.073676696356099</v>
       </c>
       <c r="I15" t="n">
         <v>10.95747596112415</v>
       </c>
       <c r="J15" t="n">
-        <v>30.06815155141086</v>
+        <v>30.06815155141087</v>
       </c>
       <c r="K15" t="n">
-        <v>51.39126018607741</v>
+        <v>51.39126018607742</v>
       </c>
       <c r="L15" t="n">
-        <v>69.10189139559884</v>
+        <v>69.10189139559886</v>
       </c>
       <c r="M15" t="n">
-        <v>80.6386479330117</v>
+        <v>80.63864793301171</v>
       </c>
       <c r="N15" t="n">
-        <v>82.77291299601283</v>
+        <v>82.77291299601285</v>
       </c>
       <c r="O15" t="n">
-        <v>75.72104439020401</v>
+        <v>75.72104439020403</v>
       </c>
       <c r="P15" t="n">
         <v>60.77281380833416</v>
@@ -32102,10 +32102,10 @@
         <v>19.75974900709216</v>
       </c>
       <c r="S15" t="n">
-        <v>5.911453591765698</v>
+        <v>5.911453591765699</v>
       </c>
       <c r="T15" t="n">
-        <v>1.282792408697208</v>
+        <v>1.282792408697209</v>
       </c>
       <c r="U15" t="n">
         <v>0.0209378521550143</v>
@@ -32148,10 +32148,10 @@
         <v>0.2668145968606193</v>
       </c>
       <c r="H16" t="n">
-        <v>2.372224324815325</v>
+        <v>2.372224324815326</v>
       </c>
       <c r="I16" t="n">
-        <v>8.02384260377208</v>
+        <v>8.023842603772081</v>
       </c>
       <c r="J16" t="n">
         <v>18.86379199804578</v>
@@ -32160,28 +32160,28 @@
         <v>30.99900498071558</v>
       </c>
       <c r="L16" t="n">
-        <v>39.66805379144152</v>
+        <v>39.66805379144153</v>
       </c>
       <c r="M16" t="n">
-        <v>41.82440085152415</v>
+        <v>41.82440085152416</v>
       </c>
       <c r="N16" t="n">
-        <v>40.82991008140733</v>
+        <v>40.82991008140734</v>
       </c>
       <c r="O16" t="n">
-        <v>37.71303047262645</v>
+        <v>37.71303047262646</v>
       </c>
       <c r="P16" t="n">
-        <v>32.27001269666979</v>
+        <v>32.2700126966698</v>
       </c>
       <c r="Q16" t="n">
-        <v>22.34208410621058</v>
+        <v>22.34208410621059</v>
       </c>
       <c r="R16" t="n">
         <v>11.99695450975111</v>
       </c>
       <c r="S16" t="n">
-        <v>4.649850747107336</v>
+        <v>4.649850747107337</v>
       </c>
       <c r="T16" t="n">
         <v>1.1400260047681</v>
@@ -32224,22 +32224,22 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5948173744540068</v>
+        <v>0.594817374454007</v>
       </c>
       <c r="H17" t="n">
-        <v>6.091673436127099</v>
+        <v>6.091673436127101</v>
       </c>
       <c r="I17" t="n">
-        <v>22.93169682863812</v>
+        <v>22.93169682863813</v>
       </c>
       <c r="J17" t="n">
-        <v>50.48438113506581</v>
+        <v>50.48438113506582</v>
       </c>
       <c r="K17" t="n">
-        <v>75.66300059570393</v>
+        <v>75.66300059570395</v>
       </c>
       <c r="L17" t="n">
-        <v>93.86664281915077</v>
+        <v>93.86664281915078</v>
       </c>
       <c r="M17" t="n">
         <v>104.4447263020972</v>
@@ -32251,22 +32251,22 @@
         <v>100.2200359000376</v>
       </c>
       <c r="P17" t="n">
-        <v>85.53548196820432</v>
+        <v>85.53548196820434</v>
       </c>
       <c r="Q17" t="n">
-        <v>64.23358474557018</v>
+        <v>64.2335847455702</v>
       </c>
       <c r="R17" t="n">
-        <v>37.36419689804654</v>
+        <v>37.36419689804655</v>
       </c>
       <c r="S17" t="n">
-        <v>13.55440092037069</v>
+        <v>13.5544009203707</v>
       </c>
       <c r="T17" t="n">
-        <v>2.603813056672416</v>
+        <v>2.603813056672417</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04758538995632054</v>
+        <v>0.04758538995632055</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,31 +32303,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3182553527562172</v>
+        <v>0.3182553527562173</v>
       </c>
       <c r="H18" t="n">
-        <v>3.073676696356098</v>
+        <v>3.073676696356099</v>
       </c>
       <c r="I18" t="n">
         <v>10.95747596112415</v>
       </c>
       <c r="J18" t="n">
-        <v>30.06815155141086</v>
+        <v>30.06815155141087</v>
       </c>
       <c r="K18" t="n">
-        <v>51.39126018607741</v>
+        <v>51.39126018607742</v>
       </c>
       <c r="L18" t="n">
-        <v>69.10189139559884</v>
+        <v>69.10189139559886</v>
       </c>
       <c r="M18" t="n">
-        <v>80.6386479330117</v>
+        <v>80.63864793301171</v>
       </c>
       <c r="N18" t="n">
-        <v>82.77291299601283</v>
+        <v>82.77291299601285</v>
       </c>
       <c r="O18" t="n">
-        <v>75.72104439020401</v>
+        <v>75.72104439020403</v>
       </c>
       <c r="P18" t="n">
         <v>60.77281380833416</v>
@@ -32339,10 +32339,10 @@
         <v>19.75974900709216</v>
       </c>
       <c r="S18" t="n">
-        <v>5.911453591765698</v>
+        <v>5.911453591765699</v>
       </c>
       <c r="T18" t="n">
-        <v>1.282792408697208</v>
+        <v>1.282792408697209</v>
       </c>
       <c r="U18" t="n">
         <v>0.0209378521550143</v>
@@ -32385,10 +32385,10 @@
         <v>0.2668145968606193</v>
       </c>
       <c r="H19" t="n">
-        <v>2.372224324815325</v>
+        <v>2.372224324815326</v>
       </c>
       <c r="I19" t="n">
-        <v>8.02384260377208</v>
+        <v>8.023842603772081</v>
       </c>
       <c r="J19" t="n">
         <v>18.86379199804578</v>
@@ -32397,28 +32397,28 @@
         <v>30.99900498071558</v>
       </c>
       <c r="L19" t="n">
-        <v>39.66805379144152</v>
+        <v>39.66805379144153</v>
       </c>
       <c r="M19" t="n">
-        <v>41.82440085152415</v>
+        <v>41.82440085152416</v>
       </c>
       <c r="N19" t="n">
-        <v>40.82991008140733</v>
+        <v>40.82991008140734</v>
       </c>
       <c r="O19" t="n">
-        <v>37.71303047262645</v>
+        <v>37.71303047262646</v>
       </c>
       <c r="P19" t="n">
-        <v>32.27001269666979</v>
+        <v>32.2700126966698</v>
       </c>
       <c r="Q19" t="n">
-        <v>22.34208410621058</v>
+        <v>22.34208410621059</v>
       </c>
       <c r="R19" t="n">
         <v>11.99695450975111</v>
       </c>
       <c r="S19" t="n">
-        <v>4.649850747107336</v>
+        <v>4.649850747107337</v>
       </c>
       <c r="T19" t="n">
         <v>1.1400260047681</v>
@@ -32461,22 +32461,22 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5948173744540068</v>
+        <v>0.594817374454007</v>
       </c>
       <c r="H20" t="n">
-        <v>6.091673436127099</v>
+        <v>6.091673436127101</v>
       </c>
       <c r="I20" t="n">
-        <v>22.93169682863812</v>
+        <v>22.93169682863813</v>
       </c>
       <c r="J20" t="n">
-        <v>50.48438113506581</v>
+        <v>50.48438113506582</v>
       </c>
       <c r="K20" t="n">
-        <v>75.66300059570393</v>
+        <v>75.66300059570395</v>
       </c>
       <c r="L20" t="n">
-        <v>93.86664281915077</v>
+        <v>93.86664281915078</v>
       </c>
       <c r="M20" t="n">
         <v>104.4447263020972</v>
@@ -32488,22 +32488,22 @@
         <v>100.2200359000376</v>
       </c>
       <c r="P20" t="n">
-        <v>85.53548196820432</v>
+        <v>85.53548196820434</v>
       </c>
       <c r="Q20" t="n">
-        <v>64.23358474557018</v>
+        <v>64.2335847455702</v>
       </c>
       <c r="R20" t="n">
-        <v>37.36419689804654</v>
+        <v>37.36419689804655</v>
       </c>
       <c r="S20" t="n">
-        <v>13.55440092037069</v>
+        <v>13.5544009203707</v>
       </c>
       <c r="T20" t="n">
-        <v>2.603813056672416</v>
+        <v>2.603813056672417</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04758538995632054</v>
+        <v>0.04758538995632055</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,31 +32540,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3182553527562172</v>
+        <v>0.3182553527562173</v>
       </c>
       <c r="H21" t="n">
-        <v>3.073676696356098</v>
+        <v>3.073676696356099</v>
       </c>
       <c r="I21" t="n">
         <v>10.95747596112415</v>
       </c>
       <c r="J21" t="n">
-        <v>30.06815155141086</v>
+        <v>30.06815155141087</v>
       </c>
       <c r="K21" t="n">
-        <v>51.39126018607741</v>
+        <v>51.39126018607742</v>
       </c>
       <c r="L21" t="n">
-        <v>69.10189139559884</v>
+        <v>69.10189139559886</v>
       </c>
       <c r="M21" t="n">
-        <v>80.6386479330117</v>
+        <v>80.63864793301171</v>
       </c>
       <c r="N21" t="n">
-        <v>82.77291299601283</v>
+        <v>82.77291299601285</v>
       </c>
       <c r="O21" t="n">
-        <v>75.72104439020401</v>
+        <v>75.72104439020403</v>
       </c>
       <c r="P21" t="n">
         <v>60.77281380833416</v>
@@ -32576,10 +32576,10 @@
         <v>19.75974900709216</v>
       </c>
       <c r="S21" t="n">
-        <v>5.911453591765698</v>
+        <v>5.911453591765699</v>
       </c>
       <c r="T21" t="n">
-        <v>1.282792408697208</v>
+        <v>1.282792408697209</v>
       </c>
       <c r="U21" t="n">
         <v>0.0209378521550143</v>
@@ -32622,10 +32622,10 @@
         <v>0.2668145968606193</v>
       </c>
       <c r="H22" t="n">
-        <v>2.372224324815325</v>
+        <v>2.372224324815326</v>
       </c>
       <c r="I22" t="n">
-        <v>8.02384260377208</v>
+        <v>8.023842603772081</v>
       </c>
       <c r="J22" t="n">
         <v>18.86379199804578</v>
@@ -32634,28 +32634,28 @@
         <v>30.99900498071558</v>
       </c>
       <c r="L22" t="n">
-        <v>39.66805379144152</v>
+        <v>39.66805379144153</v>
       </c>
       <c r="M22" t="n">
-        <v>41.82440085152415</v>
+        <v>41.82440085152416</v>
       </c>
       <c r="N22" t="n">
-        <v>40.82991008140733</v>
+        <v>40.82991008140734</v>
       </c>
       <c r="O22" t="n">
-        <v>37.71303047262645</v>
+        <v>37.71303047262646</v>
       </c>
       <c r="P22" t="n">
-        <v>32.27001269666979</v>
+        <v>32.2700126966698</v>
       </c>
       <c r="Q22" t="n">
-        <v>22.34208410621058</v>
+        <v>22.34208410621059</v>
       </c>
       <c r="R22" t="n">
         <v>11.99695450975111</v>
       </c>
       <c r="S22" t="n">
-        <v>4.649850747107336</v>
+        <v>4.649850747107337</v>
       </c>
       <c r="T22" t="n">
         <v>1.1400260047681</v>
@@ -32698,22 +32698,22 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5948173744540068</v>
+        <v>0.594817374454007</v>
       </c>
       <c r="H23" t="n">
-        <v>6.091673436127099</v>
+        <v>6.091673436127101</v>
       </c>
       <c r="I23" t="n">
-        <v>22.93169682863812</v>
+        <v>22.93169682863813</v>
       </c>
       <c r="J23" t="n">
-        <v>50.48438113506581</v>
+        <v>50.48438113506582</v>
       </c>
       <c r="K23" t="n">
-        <v>75.66300059570393</v>
+        <v>75.66300059570395</v>
       </c>
       <c r="L23" t="n">
-        <v>93.86664281915077</v>
+        <v>93.86664281915078</v>
       </c>
       <c r="M23" t="n">
         <v>104.4447263020972</v>
@@ -32725,22 +32725,22 @@
         <v>100.2200359000376</v>
       </c>
       <c r="P23" t="n">
-        <v>85.53548196820432</v>
+        <v>85.53548196820434</v>
       </c>
       <c r="Q23" t="n">
-        <v>64.23358474557018</v>
+        <v>64.2335847455702</v>
       </c>
       <c r="R23" t="n">
-        <v>37.36419689804654</v>
+        <v>37.36419689804655</v>
       </c>
       <c r="S23" t="n">
-        <v>13.55440092037069</v>
+        <v>13.5544009203707</v>
       </c>
       <c r="T23" t="n">
-        <v>2.603813056672416</v>
+        <v>2.603813056672417</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04758538995632054</v>
+        <v>0.04758538995632055</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,31 +32777,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3182553527562172</v>
+        <v>0.3182553527562173</v>
       </c>
       <c r="H24" t="n">
-        <v>3.073676696356098</v>
+        <v>3.073676696356099</v>
       </c>
       <c r="I24" t="n">
         <v>10.95747596112415</v>
       </c>
       <c r="J24" t="n">
-        <v>30.06815155141086</v>
+        <v>30.06815155141087</v>
       </c>
       <c r="K24" t="n">
-        <v>51.39126018607741</v>
+        <v>51.39126018607742</v>
       </c>
       <c r="L24" t="n">
-        <v>69.10189139559884</v>
+        <v>69.10189139559886</v>
       </c>
       <c r="M24" t="n">
-        <v>80.6386479330117</v>
+        <v>80.63864793301171</v>
       </c>
       <c r="N24" t="n">
-        <v>82.77291299601283</v>
+        <v>82.77291299601285</v>
       </c>
       <c r="O24" t="n">
-        <v>75.72104439020401</v>
+        <v>75.72104439020403</v>
       </c>
       <c r="P24" t="n">
         <v>60.77281380833416</v>
@@ -32813,10 +32813,10 @@
         <v>19.75974900709216</v>
       </c>
       <c r="S24" t="n">
-        <v>5.911453591765698</v>
+        <v>5.911453591765699</v>
       </c>
       <c r="T24" t="n">
-        <v>1.282792408697208</v>
+        <v>1.282792408697209</v>
       </c>
       <c r="U24" t="n">
         <v>0.0209378521550143</v>
@@ -32859,10 +32859,10 @@
         <v>0.2668145968606193</v>
       </c>
       <c r="H25" t="n">
-        <v>2.372224324815325</v>
+        <v>2.372224324815326</v>
       </c>
       <c r="I25" t="n">
-        <v>8.02384260377208</v>
+        <v>8.023842603772081</v>
       </c>
       <c r="J25" t="n">
         <v>18.86379199804578</v>
@@ -32871,28 +32871,28 @@
         <v>30.99900498071558</v>
       </c>
       <c r="L25" t="n">
-        <v>39.66805379144152</v>
+        <v>39.66805379144153</v>
       </c>
       <c r="M25" t="n">
-        <v>41.82440085152415</v>
+        <v>41.82440085152416</v>
       </c>
       <c r="N25" t="n">
-        <v>40.82991008140733</v>
+        <v>40.82991008140734</v>
       </c>
       <c r="O25" t="n">
-        <v>37.71303047262645</v>
+        <v>37.71303047262646</v>
       </c>
       <c r="P25" t="n">
-        <v>32.27001269666979</v>
+        <v>32.2700126966698</v>
       </c>
       <c r="Q25" t="n">
-        <v>22.34208410621058</v>
+        <v>22.34208410621059</v>
       </c>
       <c r="R25" t="n">
         <v>11.99695450975111</v>
       </c>
       <c r="S25" t="n">
-        <v>4.649850747107336</v>
+        <v>4.649850747107337</v>
       </c>
       <c r="T25" t="n">
         <v>1.1400260047681</v>
@@ -32935,22 +32935,22 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5948173744540068</v>
+        <v>0.594817374454007</v>
       </c>
       <c r="H26" t="n">
-        <v>6.091673436127099</v>
+        <v>6.091673436127101</v>
       </c>
       <c r="I26" t="n">
-        <v>22.93169682863812</v>
+        <v>22.93169682863813</v>
       </c>
       <c r="J26" t="n">
-        <v>50.48438113506581</v>
+        <v>50.48438113506582</v>
       </c>
       <c r="K26" t="n">
-        <v>75.66300059570393</v>
+        <v>75.66300059570395</v>
       </c>
       <c r="L26" t="n">
-        <v>93.86664281915077</v>
+        <v>93.86664281915078</v>
       </c>
       <c r="M26" t="n">
         <v>104.4447263020972</v>
@@ -32962,22 +32962,22 @@
         <v>100.2200359000376</v>
       </c>
       <c r="P26" t="n">
-        <v>85.53548196820432</v>
+        <v>85.53548196820434</v>
       </c>
       <c r="Q26" t="n">
-        <v>64.23358474557018</v>
+        <v>64.2335847455702</v>
       </c>
       <c r="R26" t="n">
-        <v>37.36419689804654</v>
+        <v>37.36419689804655</v>
       </c>
       <c r="S26" t="n">
-        <v>13.55440092037069</v>
+        <v>13.5544009203707</v>
       </c>
       <c r="T26" t="n">
-        <v>2.603813056672416</v>
+        <v>2.603813056672417</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04758538995632054</v>
+        <v>0.04758538995632055</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,31 +33014,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3182553527562172</v>
+        <v>0.3182553527562173</v>
       </c>
       <c r="H27" t="n">
-        <v>3.073676696356098</v>
+        <v>3.073676696356099</v>
       </c>
       <c r="I27" t="n">
         <v>10.95747596112415</v>
       </c>
       <c r="J27" t="n">
-        <v>30.06815155141086</v>
+        <v>30.06815155141087</v>
       </c>
       <c r="K27" t="n">
-        <v>51.39126018607741</v>
+        <v>51.39126018607742</v>
       </c>
       <c r="L27" t="n">
-        <v>69.10189139559884</v>
+        <v>69.10189139559886</v>
       </c>
       <c r="M27" t="n">
-        <v>80.6386479330117</v>
+        <v>80.63864793301171</v>
       </c>
       <c r="N27" t="n">
-        <v>82.77291299601283</v>
+        <v>82.77291299601285</v>
       </c>
       <c r="O27" t="n">
-        <v>75.72104439020401</v>
+        <v>75.72104439020403</v>
       </c>
       <c r="P27" t="n">
         <v>60.77281380833416</v>
@@ -33050,10 +33050,10 @@
         <v>19.75974900709216</v>
       </c>
       <c r="S27" t="n">
-        <v>5.911453591765698</v>
+        <v>5.911453591765699</v>
       </c>
       <c r="T27" t="n">
-        <v>1.282792408697208</v>
+        <v>1.282792408697209</v>
       </c>
       <c r="U27" t="n">
         <v>0.0209378521550143</v>
@@ -33096,10 +33096,10 @@
         <v>0.2668145968606193</v>
       </c>
       <c r="H28" t="n">
-        <v>2.372224324815325</v>
+        <v>2.372224324815326</v>
       </c>
       <c r="I28" t="n">
-        <v>8.02384260377208</v>
+        <v>8.023842603772081</v>
       </c>
       <c r="J28" t="n">
         <v>18.86379199804578</v>
@@ -33108,28 +33108,28 @@
         <v>30.99900498071558</v>
       </c>
       <c r="L28" t="n">
-        <v>39.66805379144152</v>
+        <v>39.66805379144153</v>
       </c>
       <c r="M28" t="n">
-        <v>41.82440085152415</v>
+        <v>41.82440085152416</v>
       </c>
       <c r="N28" t="n">
-        <v>40.82991008140733</v>
+        <v>40.82991008140734</v>
       </c>
       <c r="O28" t="n">
-        <v>37.71303047262645</v>
+        <v>37.71303047262646</v>
       </c>
       <c r="P28" t="n">
-        <v>32.27001269666979</v>
+        <v>32.2700126966698</v>
       </c>
       <c r="Q28" t="n">
-        <v>22.34208410621058</v>
+        <v>22.34208410621059</v>
       </c>
       <c r="R28" t="n">
         <v>11.99695450975111</v>
       </c>
       <c r="S28" t="n">
-        <v>4.649850747107336</v>
+        <v>4.649850747107337</v>
       </c>
       <c r="T28" t="n">
         <v>1.1400260047681</v>
@@ -33172,22 +33172,22 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5948173744540068</v>
+        <v>0.594817374454007</v>
       </c>
       <c r="H29" t="n">
-        <v>6.091673436127099</v>
+        <v>6.091673436127101</v>
       </c>
       <c r="I29" t="n">
-        <v>22.93169682863812</v>
+        <v>22.93169682863813</v>
       </c>
       <c r="J29" t="n">
-        <v>50.48438113506581</v>
+        <v>50.48438113506582</v>
       </c>
       <c r="K29" t="n">
-        <v>75.66300059570393</v>
+        <v>75.66300059570395</v>
       </c>
       <c r="L29" t="n">
-        <v>93.86664281915077</v>
+        <v>93.86664281915078</v>
       </c>
       <c r="M29" t="n">
         <v>104.4447263020972</v>
@@ -33199,22 +33199,22 @@
         <v>100.2200359000376</v>
       </c>
       <c r="P29" t="n">
-        <v>85.53548196820432</v>
+        <v>85.53548196820434</v>
       </c>
       <c r="Q29" t="n">
-        <v>64.23358474557018</v>
+        <v>64.2335847455702</v>
       </c>
       <c r="R29" t="n">
-        <v>37.36419689804654</v>
+        <v>37.36419689804655</v>
       </c>
       <c r="S29" t="n">
-        <v>13.55440092037069</v>
+        <v>13.5544009203707</v>
       </c>
       <c r="T29" t="n">
-        <v>2.603813056672416</v>
+        <v>2.603813056672417</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04758538995632054</v>
+        <v>0.04758538995632055</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,31 +33251,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.3182553527562172</v>
+        <v>0.3182553527562173</v>
       </c>
       <c r="H30" t="n">
-        <v>3.073676696356098</v>
+        <v>3.073676696356099</v>
       </c>
       <c r="I30" t="n">
         <v>10.95747596112415</v>
       </c>
       <c r="J30" t="n">
-        <v>30.06815155141086</v>
+        <v>30.06815155141087</v>
       </c>
       <c r="K30" t="n">
-        <v>51.39126018607741</v>
+        <v>51.39126018607742</v>
       </c>
       <c r="L30" t="n">
-        <v>69.10189139559884</v>
+        <v>69.10189139559886</v>
       </c>
       <c r="M30" t="n">
-        <v>80.6386479330117</v>
+        <v>80.63864793301171</v>
       </c>
       <c r="N30" t="n">
-        <v>82.77291299601283</v>
+        <v>82.77291299601285</v>
       </c>
       <c r="O30" t="n">
-        <v>75.72104439020401</v>
+        <v>75.72104439020403</v>
       </c>
       <c r="P30" t="n">
         <v>60.77281380833416</v>
@@ -33287,10 +33287,10 @@
         <v>19.75974900709216</v>
       </c>
       <c r="S30" t="n">
-        <v>5.911453591765698</v>
+        <v>5.911453591765699</v>
       </c>
       <c r="T30" t="n">
-        <v>1.282792408697208</v>
+        <v>1.282792408697209</v>
       </c>
       <c r="U30" t="n">
         <v>0.0209378521550143</v>
@@ -33333,10 +33333,10 @@
         <v>0.2668145968606193</v>
       </c>
       <c r="H31" t="n">
-        <v>2.372224324815325</v>
+        <v>2.372224324815326</v>
       </c>
       <c r="I31" t="n">
-        <v>8.02384260377208</v>
+        <v>8.023842603772081</v>
       </c>
       <c r="J31" t="n">
         <v>18.86379199804578</v>
@@ -33345,28 +33345,28 @@
         <v>30.99900498071558</v>
       </c>
       <c r="L31" t="n">
-        <v>39.66805379144152</v>
+        <v>39.66805379144153</v>
       </c>
       <c r="M31" t="n">
-        <v>41.82440085152415</v>
+        <v>41.82440085152416</v>
       </c>
       <c r="N31" t="n">
-        <v>40.82991008140733</v>
+        <v>40.82991008140734</v>
       </c>
       <c r="O31" t="n">
-        <v>37.71303047262645</v>
+        <v>37.71303047262646</v>
       </c>
       <c r="P31" t="n">
-        <v>32.27001269666979</v>
+        <v>32.2700126966698</v>
       </c>
       <c r="Q31" t="n">
-        <v>22.34208410621058</v>
+        <v>22.34208410621059</v>
       </c>
       <c r="R31" t="n">
         <v>11.99695450975111</v>
       </c>
       <c r="S31" t="n">
-        <v>4.649850747107336</v>
+        <v>4.649850747107337</v>
       </c>
       <c r="T31" t="n">
         <v>1.1400260047681</v>
@@ -33409,22 +33409,22 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5948173744540068</v>
+        <v>0.594817374454007</v>
       </c>
       <c r="H32" t="n">
-        <v>6.091673436127099</v>
+        <v>6.091673436127101</v>
       </c>
       <c r="I32" t="n">
-        <v>22.93169682863812</v>
+        <v>22.93169682863813</v>
       </c>
       <c r="J32" t="n">
-        <v>50.48438113506581</v>
+        <v>50.48438113506582</v>
       </c>
       <c r="K32" t="n">
-        <v>75.66300059570393</v>
+        <v>75.66300059570395</v>
       </c>
       <c r="L32" t="n">
-        <v>93.86664281915077</v>
+        <v>93.86664281915078</v>
       </c>
       <c r="M32" t="n">
         <v>104.4447263020972</v>
@@ -33436,22 +33436,22 @@
         <v>100.2200359000376</v>
       </c>
       <c r="P32" t="n">
-        <v>85.53548196820432</v>
+        <v>85.53548196820434</v>
       </c>
       <c r="Q32" t="n">
-        <v>64.23358474557018</v>
+        <v>64.2335847455702</v>
       </c>
       <c r="R32" t="n">
-        <v>37.36419689804654</v>
+        <v>37.36419689804655</v>
       </c>
       <c r="S32" t="n">
-        <v>13.55440092037069</v>
+        <v>13.5544009203707</v>
       </c>
       <c r="T32" t="n">
-        <v>2.603813056672416</v>
+        <v>2.603813056672417</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04758538995632054</v>
+        <v>0.04758538995632055</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,31 +33488,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.3182553527562172</v>
+        <v>0.3182553527562173</v>
       </c>
       <c r="H33" t="n">
-        <v>3.073676696356098</v>
+        <v>3.073676696356099</v>
       </c>
       <c r="I33" t="n">
         <v>10.95747596112415</v>
       </c>
       <c r="J33" t="n">
-        <v>30.06815155141086</v>
+        <v>30.06815155141087</v>
       </c>
       <c r="K33" t="n">
-        <v>51.39126018607741</v>
+        <v>51.39126018607742</v>
       </c>
       <c r="L33" t="n">
-        <v>69.10189139559884</v>
+        <v>69.10189139559886</v>
       </c>
       <c r="M33" t="n">
-        <v>80.6386479330117</v>
+        <v>80.63864793301171</v>
       </c>
       <c r="N33" t="n">
-        <v>82.77291299601283</v>
+        <v>82.77291299601285</v>
       </c>
       <c r="O33" t="n">
-        <v>75.72104439020401</v>
+        <v>75.72104439020403</v>
       </c>
       <c r="P33" t="n">
         <v>60.77281380833416</v>
@@ -33524,10 +33524,10 @@
         <v>19.75974900709216</v>
       </c>
       <c r="S33" t="n">
-        <v>5.911453591765698</v>
+        <v>5.911453591765699</v>
       </c>
       <c r="T33" t="n">
-        <v>1.282792408697208</v>
+        <v>1.282792408697209</v>
       </c>
       <c r="U33" t="n">
         <v>0.0209378521550143</v>
@@ -33570,10 +33570,10 @@
         <v>0.2668145968606193</v>
       </c>
       <c r="H34" t="n">
-        <v>2.372224324815325</v>
+        <v>2.372224324815326</v>
       </c>
       <c r="I34" t="n">
-        <v>8.02384260377208</v>
+        <v>8.023842603772081</v>
       </c>
       <c r="J34" t="n">
         <v>18.86379199804578</v>
@@ -33582,28 +33582,28 @@
         <v>30.99900498071558</v>
       </c>
       <c r="L34" t="n">
-        <v>39.66805379144152</v>
+        <v>39.66805379144153</v>
       </c>
       <c r="M34" t="n">
-        <v>41.82440085152415</v>
+        <v>41.82440085152416</v>
       </c>
       <c r="N34" t="n">
-        <v>40.82991008140733</v>
+        <v>40.82991008140734</v>
       </c>
       <c r="O34" t="n">
-        <v>37.71303047262645</v>
+        <v>37.71303047262646</v>
       </c>
       <c r="P34" t="n">
-        <v>32.27001269666979</v>
+        <v>32.2700126966698</v>
       </c>
       <c r="Q34" t="n">
-        <v>22.34208410621058</v>
+        <v>22.34208410621059</v>
       </c>
       <c r="R34" t="n">
         <v>11.99695450975111</v>
       </c>
       <c r="S34" t="n">
-        <v>4.649850747107336</v>
+        <v>4.649850747107337</v>
       </c>
       <c r="T34" t="n">
         <v>1.1400260047681</v>
@@ -33646,22 +33646,22 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5948173744540068</v>
+        <v>0.594817374454007</v>
       </c>
       <c r="H35" t="n">
-        <v>6.091673436127099</v>
+        <v>6.091673436127101</v>
       </c>
       <c r="I35" t="n">
-        <v>22.93169682863812</v>
+        <v>22.93169682863813</v>
       </c>
       <c r="J35" t="n">
-        <v>50.48438113506581</v>
+        <v>50.48438113506582</v>
       </c>
       <c r="K35" t="n">
-        <v>75.66300059570393</v>
+        <v>75.66300059570395</v>
       </c>
       <c r="L35" t="n">
-        <v>93.86664281915077</v>
+        <v>93.86664281915078</v>
       </c>
       <c r="M35" t="n">
         <v>104.4447263020972</v>
@@ -33673,22 +33673,22 @@
         <v>100.2200359000376</v>
       </c>
       <c r="P35" t="n">
-        <v>85.53548196820432</v>
+        <v>85.53548196820434</v>
       </c>
       <c r="Q35" t="n">
-        <v>64.23358474557018</v>
+        <v>64.2335847455702</v>
       </c>
       <c r="R35" t="n">
-        <v>37.36419689804654</v>
+        <v>37.36419689804655</v>
       </c>
       <c r="S35" t="n">
-        <v>13.55440092037069</v>
+        <v>13.5544009203707</v>
       </c>
       <c r="T35" t="n">
-        <v>2.603813056672416</v>
+        <v>2.603813056672417</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04758538995632054</v>
+        <v>0.04758538995632055</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,31 +33725,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.3182553527562172</v>
+        <v>0.3182553527562173</v>
       </c>
       <c r="H36" t="n">
-        <v>3.073676696356098</v>
+        <v>3.073676696356099</v>
       </c>
       <c r="I36" t="n">
         <v>10.95747596112415</v>
       </c>
       <c r="J36" t="n">
-        <v>30.06815155141086</v>
+        <v>30.06815155141087</v>
       </c>
       <c r="K36" t="n">
-        <v>51.39126018607741</v>
+        <v>51.39126018607742</v>
       </c>
       <c r="L36" t="n">
-        <v>69.10189139559884</v>
+        <v>69.10189139559886</v>
       </c>
       <c r="M36" t="n">
-        <v>80.6386479330117</v>
+        <v>80.63864793301171</v>
       </c>
       <c r="N36" t="n">
-        <v>82.77291299601283</v>
+        <v>82.77291299601285</v>
       </c>
       <c r="O36" t="n">
-        <v>75.72104439020401</v>
+        <v>75.72104439020403</v>
       </c>
       <c r="P36" t="n">
         <v>60.77281380833416</v>
@@ -33761,10 +33761,10 @@
         <v>19.75974900709216</v>
       </c>
       <c r="S36" t="n">
-        <v>5.911453591765698</v>
+        <v>5.911453591765699</v>
       </c>
       <c r="T36" t="n">
-        <v>1.282792408697208</v>
+        <v>1.282792408697209</v>
       </c>
       <c r="U36" t="n">
         <v>0.0209378521550143</v>
@@ -33807,10 +33807,10 @@
         <v>0.2668145968606193</v>
       </c>
       <c r="H37" t="n">
-        <v>2.372224324815325</v>
+        <v>2.372224324815326</v>
       </c>
       <c r="I37" t="n">
-        <v>8.02384260377208</v>
+        <v>8.023842603772081</v>
       </c>
       <c r="J37" t="n">
         <v>18.86379199804578</v>
@@ -33819,28 +33819,28 @@
         <v>30.99900498071558</v>
       </c>
       <c r="L37" t="n">
-        <v>39.66805379144152</v>
+        <v>39.66805379144153</v>
       </c>
       <c r="M37" t="n">
-        <v>41.82440085152415</v>
+        <v>41.82440085152416</v>
       </c>
       <c r="N37" t="n">
-        <v>40.82991008140733</v>
+        <v>40.82991008140734</v>
       </c>
       <c r="O37" t="n">
-        <v>37.71303047262645</v>
+        <v>37.71303047262646</v>
       </c>
       <c r="P37" t="n">
-        <v>32.27001269666979</v>
+        <v>32.2700126966698</v>
       </c>
       <c r="Q37" t="n">
-        <v>22.34208410621058</v>
+        <v>22.34208410621059</v>
       </c>
       <c r="R37" t="n">
         <v>11.99695450975111</v>
       </c>
       <c r="S37" t="n">
-        <v>4.649850747107336</v>
+        <v>4.649850747107337</v>
       </c>
       <c r="T37" t="n">
         <v>1.1400260047681</v>
@@ -33883,22 +33883,22 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5948173744540068</v>
+        <v>0.594817374454007</v>
       </c>
       <c r="H38" t="n">
-        <v>6.091673436127099</v>
+        <v>6.091673436127101</v>
       </c>
       <c r="I38" t="n">
-        <v>22.93169682863812</v>
+        <v>22.93169682863813</v>
       </c>
       <c r="J38" t="n">
-        <v>50.48438113506581</v>
+        <v>50.48438113506582</v>
       </c>
       <c r="K38" t="n">
-        <v>75.66300059570393</v>
+        <v>75.66300059570395</v>
       </c>
       <c r="L38" t="n">
-        <v>93.86664281915077</v>
+        <v>93.86664281915078</v>
       </c>
       <c r="M38" t="n">
         <v>104.4447263020972</v>
@@ -33910,22 +33910,22 @@
         <v>100.2200359000376</v>
       </c>
       <c r="P38" t="n">
-        <v>85.53548196820432</v>
+        <v>85.53548196820434</v>
       </c>
       <c r="Q38" t="n">
-        <v>64.23358474557018</v>
+        <v>64.2335847455702</v>
       </c>
       <c r="R38" t="n">
-        <v>37.36419689804654</v>
+        <v>37.36419689804655</v>
       </c>
       <c r="S38" t="n">
-        <v>13.55440092037069</v>
+        <v>13.5544009203707</v>
       </c>
       <c r="T38" t="n">
-        <v>2.603813056672416</v>
+        <v>2.603813056672417</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04758538995632054</v>
+        <v>0.04758538995632055</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,31 +33962,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.3182553527562172</v>
+        <v>0.3182553527562173</v>
       </c>
       <c r="H39" t="n">
-        <v>3.073676696356098</v>
+        <v>3.073676696356099</v>
       </c>
       <c r="I39" t="n">
         <v>10.95747596112415</v>
       </c>
       <c r="J39" t="n">
-        <v>30.06815155141086</v>
+        <v>30.06815155141087</v>
       </c>
       <c r="K39" t="n">
-        <v>51.39126018607741</v>
+        <v>51.39126018607742</v>
       </c>
       <c r="L39" t="n">
-        <v>69.10189139559884</v>
+        <v>69.10189139559886</v>
       </c>
       <c r="M39" t="n">
-        <v>80.6386479330117</v>
+        <v>80.63864793301171</v>
       </c>
       <c r="N39" t="n">
-        <v>82.77291299601283</v>
+        <v>82.77291299601285</v>
       </c>
       <c r="O39" t="n">
-        <v>75.72104439020401</v>
+        <v>75.72104439020403</v>
       </c>
       <c r="P39" t="n">
         <v>60.77281380833416</v>
@@ -33998,10 +33998,10 @@
         <v>19.75974900709216</v>
       </c>
       <c r="S39" t="n">
-        <v>5.911453591765698</v>
+        <v>5.911453591765699</v>
       </c>
       <c r="T39" t="n">
-        <v>1.282792408697208</v>
+        <v>1.282792408697209</v>
       </c>
       <c r="U39" t="n">
         <v>0.0209378521550143</v>
@@ -34044,10 +34044,10 @@
         <v>0.2668145968606193</v>
       </c>
       <c r="H40" t="n">
-        <v>2.372224324815325</v>
+        <v>2.372224324815326</v>
       </c>
       <c r="I40" t="n">
-        <v>8.02384260377208</v>
+        <v>8.023842603772081</v>
       </c>
       <c r="J40" t="n">
         <v>18.86379199804578</v>
@@ -34056,28 +34056,28 @@
         <v>30.99900498071558</v>
       </c>
       <c r="L40" t="n">
-        <v>39.66805379144152</v>
+        <v>39.66805379144153</v>
       </c>
       <c r="M40" t="n">
-        <v>41.82440085152415</v>
+        <v>41.82440085152416</v>
       </c>
       <c r="N40" t="n">
-        <v>40.82991008140733</v>
+        <v>40.82991008140734</v>
       </c>
       <c r="O40" t="n">
-        <v>37.71303047262645</v>
+        <v>37.71303047262646</v>
       </c>
       <c r="P40" t="n">
-        <v>32.27001269666979</v>
+        <v>32.2700126966698</v>
       </c>
       <c r="Q40" t="n">
-        <v>22.34208410621058</v>
+        <v>22.34208410621059</v>
       </c>
       <c r="R40" t="n">
         <v>11.99695450975111</v>
       </c>
       <c r="S40" t="n">
-        <v>4.649850747107336</v>
+        <v>4.649850747107337</v>
       </c>
       <c r="T40" t="n">
         <v>1.1400260047681</v>
@@ -34120,22 +34120,22 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5948173744540068</v>
+        <v>0.594817374454007</v>
       </c>
       <c r="H41" t="n">
-        <v>6.091673436127099</v>
+        <v>6.091673436127101</v>
       </c>
       <c r="I41" t="n">
-        <v>22.93169682863812</v>
+        <v>22.93169682863813</v>
       </c>
       <c r="J41" t="n">
-        <v>50.48438113506581</v>
+        <v>50.48438113506582</v>
       </c>
       <c r="K41" t="n">
-        <v>75.66300059570393</v>
+        <v>75.66300059570395</v>
       </c>
       <c r="L41" t="n">
-        <v>93.86664281915077</v>
+        <v>93.86664281915078</v>
       </c>
       <c r="M41" t="n">
         <v>104.4447263020972</v>
@@ -34147,22 +34147,22 @@
         <v>100.2200359000376</v>
       </c>
       <c r="P41" t="n">
-        <v>85.53548196820432</v>
+        <v>85.53548196820434</v>
       </c>
       <c r="Q41" t="n">
-        <v>64.23358474557018</v>
+        <v>64.2335847455702</v>
       </c>
       <c r="R41" t="n">
-        <v>37.36419689804654</v>
+        <v>37.36419689804655</v>
       </c>
       <c r="S41" t="n">
-        <v>13.55440092037069</v>
+        <v>13.5544009203707</v>
       </c>
       <c r="T41" t="n">
-        <v>2.603813056672416</v>
+        <v>2.603813056672417</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04758538995632054</v>
+        <v>0.04758538995632055</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,31 +34199,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.3182553527562172</v>
+        <v>0.3182553527562173</v>
       </c>
       <c r="H42" t="n">
-        <v>3.073676696356098</v>
+        <v>3.073676696356099</v>
       </c>
       <c r="I42" t="n">
         <v>10.95747596112415</v>
       </c>
       <c r="J42" t="n">
-        <v>30.06815155141086</v>
+        <v>30.06815155141087</v>
       </c>
       <c r="K42" t="n">
-        <v>51.39126018607741</v>
+        <v>51.39126018607742</v>
       </c>
       <c r="L42" t="n">
-        <v>69.10189139559884</v>
+        <v>69.10189139559886</v>
       </c>
       <c r="M42" t="n">
-        <v>80.6386479330117</v>
+        <v>80.63864793301171</v>
       </c>
       <c r="N42" t="n">
-        <v>82.77291299601283</v>
+        <v>82.77291299601285</v>
       </c>
       <c r="O42" t="n">
-        <v>75.72104439020401</v>
+        <v>75.72104439020403</v>
       </c>
       <c r="P42" t="n">
         <v>60.77281380833416</v>
@@ -34235,10 +34235,10 @@
         <v>19.75974900709216</v>
       </c>
       <c r="S42" t="n">
-        <v>5.911453591765698</v>
+        <v>5.911453591765699</v>
       </c>
       <c r="T42" t="n">
-        <v>1.282792408697208</v>
+        <v>1.282792408697209</v>
       </c>
       <c r="U42" t="n">
         <v>0.0209378521550143</v>
@@ -34281,10 +34281,10 @@
         <v>0.2668145968606193</v>
       </c>
       <c r="H43" t="n">
-        <v>2.372224324815325</v>
+        <v>2.372224324815326</v>
       </c>
       <c r="I43" t="n">
-        <v>8.02384260377208</v>
+        <v>8.023842603772081</v>
       </c>
       <c r="J43" t="n">
         <v>18.86379199804578</v>
@@ -34293,28 +34293,28 @@
         <v>30.99900498071558</v>
       </c>
       <c r="L43" t="n">
-        <v>39.66805379144152</v>
+        <v>39.66805379144153</v>
       </c>
       <c r="M43" t="n">
-        <v>41.82440085152415</v>
+        <v>41.82440085152416</v>
       </c>
       <c r="N43" t="n">
-        <v>40.82991008140733</v>
+        <v>40.82991008140734</v>
       </c>
       <c r="O43" t="n">
-        <v>37.71303047262645</v>
+        <v>37.71303047262646</v>
       </c>
       <c r="P43" t="n">
-        <v>32.27001269666979</v>
+        <v>32.2700126966698</v>
       </c>
       <c r="Q43" t="n">
-        <v>22.34208410621058</v>
+        <v>22.34208410621059</v>
       </c>
       <c r="R43" t="n">
         <v>11.99695450975111</v>
       </c>
       <c r="S43" t="n">
-        <v>4.649850747107336</v>
+        <v>4.649850747107337</v>
       </c>
       <c r="T43" t="n">
         <v>1.1400260047681</v>
@@ -34357,22 +34357,22 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5948173744540068</v>
+        <v>0.594817374454007</v>
       </c>
       <c r="H44" t="n">
-        <v>6.091673436127099</v>
+        <v>6.091673436127101</v>
       </c>
       <c r="I44" t="n">
-        <v>22.93169682863812</v>
+        <v>22.93169682863813</v>
       </c>
       <c r="J44" t="n">
-        <v>50.48438113506581</v>
+        <v>50.48438113506582</v>
       </c>
       <c r="K44" t="n">
-        <v>75.66300059570393</v>
+        <v>75.66300059570395</v>
       </c>
       <c r="L44" t="n">
-        <v>93.86664281915077</v>
+        <v>93.86664281915078</v>
       </c>
       <c r="M44" t="n">
         <v>104.4447263020972</v>
@@ -34384,22 +34384,22 @@
         <v>100.2200359000376</v>
       </c>
       <c r="P44" t="n">
-        <v>85.53548196820432</v>
+        <v>85.53548196820434</v>
       </c>
       <c r="Q44" t="n">
-        <v>64.23358474557018</v>
+        <v>64.2335847455702</v>
       </c>
       <c r="R44" t="n">
-        <v>37.36419689804654</v>
+        <v>37.36419689804655</v>
       </c>
       <c r="S44" t="n">
-        <v>13.55440092037069</v>
+        <v>13.5544009203707</v>
       </c>
       <c r="T44" t="n">
-        <v>2.603813056672416</v>
+        <v>2.603813056672417</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04758538995632054</v>
+        <v>0.04758538995632055</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,31 +34436,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3182553527562172</v>
+        <v>0.3182553527562173</v>
       </c>
       <c r="H45" t="n">
-        <v>3.073676696356098</v>
+        <v>3.073676696356099</v>
       </c>
       <c r="I45" t="n">
         <v>10.95747596112415</v>
       </c>
       <c r="J45" t="n">
-        <v>30.06815155141086</v>
+        <v>30.06815155141087</v>
       </c>
       <c r="K45" t="n">
-        <v>51.39126018607741</v>
+        <v>51.39126018607742</v>
       </c>
       <c r="L45" t="n">
-        <v>69.10189139559884</v>
+        <v>69.10189139559886</v>
       </c>
       <c r="M45" t="n">
-        <v>80.6386479330117</v>
+        <v>80.63864793301171</v>
       </c>
       <c r="N45" t="n">
-        <v>82.77291299601283</v>
+        <v>82.77291299601285</v>
       </c>
       <c r="O45" t="n">
-        <v>75.72104439020401</v>
+        <v>75.72104439020403</v>
       </c>
       <c r="P45" t="n">
         <v>60.77281380833416</v>
@@ -34472,10 +34472,10 @@
         <v>19.75974900709216</v>
       </c>
       <c r="S45" t="n">
-        <v>5.911453591765698</v>
+        <v>5.911453591765699</v>
       </c>
       <c r="T45" t="n">
-        <v>1.282792408697208</v>
+        <v>1.282792408697209</v>
       </c>
       <c r="U45" t="n">
         <v>0.0209378521550143</v>
@@ -34518,10 +34518,10 @@
         <v>0.2668145968606193</v>
       </c>
       <c r="H46" t="n">
-        <v>2.372224324815325</v>
+        <v>2.372224324815326</v>
       </c>
       <c r="I46" t="n">
-        <v>8.02384260377208</v>
+        <v>8.023842603772081</v>
       </c>
       <c r="J46" t="n">
         <v>18.86379199804578</v>
@@ -34530,28 +34530,28 @@
         <v>30.99900498071558</v>
       </c>
       <c r="L46" t="n">
-        <v>39.66805379144152</v>
+        <v>39.66805379144153</v>
       </c>
       <c r="M46" t="n">
-        <v>41.82440085152415</v>
+        <v>41.82440085152416</v>
       </c>
       <c r="N46" t="n">
-        <v>40.82991008140733</v>
+        <v>40.82991008140734</v>
       </c>
       <c r="O46" t="n">
-        <v>37.71303047262645</v>
+        <v>37.71303047262646</v>
       </c>
       <c r="P46" t="n">
-        <v>32.27001269666979</v>
+        <v>32.2700126966698</v>
       </c>
       <c r="Q46" t="n">
-        <v>22.34208410621058</v>
+        <v>22.34208410621059</v>
       </c>
       <c r="R46" t="n">
         <v>11.99695450975111</v>
       </c>
       <c r="S46" t="n">
-        <v>4.649850747107336</v>
+        <v>4.649850747107337</v>
       </c>
       <c r="T46" t="n">
         <v>1.1400260047681</v>
@@ -35410,19 +35410,19 @@
         <v>123.2101834308291</v>
       </c>
       <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>19.17399076389555</v>
+      </c>
+      <c r="O11" t="n">
         <v>148.3792973187131</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>19.17399076389561</v>
       </c>
       <c r="P11" t="n">
         <v>148.3792973187131</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>90.93092582727566</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>148.3792973187131</v>
@@ -35495,16 +35495,16 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>148.3792973187131</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>148.3792973187131</v>
       </c>
       <c r="O12" t="n">
-        <v>51.45324836744903</v>
+        <v>148.3792973187131</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>142.3841741947246</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35574,7 +35574,7 @@
         <v>141.2913663169562</v>
       </c>
       <c r="M13" t="n">
-        <v>64.80560154405258</v>
+        <v>148.3792973187131</v>
       </c>
       <c r="N13" t="n">
         <v>148.3792973187131</v>
@@ -35583,7 +35583,7 @@
         <v>137.1712592561514</v>
       </c>
       <c r="P13" t="n">
-        <v>95.87454171499078</v>
+        <v>12.30084594033018</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>123.2101834308291</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -35653,10 +35653,10 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>19.17399076389558</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>148.3792973187131</v>
+        <v>142.3841741947247</v>
       </c>
       <c r="O14" t="n">
         <v>148.3792973187131</v>
@@ -35665,7 +35665,7 @@
         <v>148.3792973187131</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>148.3792973187131</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>90.93092582727566</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>148.3792973187131</v>
       </c>
       <c r="L15" t="n">
         <v>148.3792973187131</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>148.3792973187131</v>
       </c>
       <c r="N15" t="n">
-        <v>148.3792973187131</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>148.3792973187131</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>51.45324836744903</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>142.3841741947246</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,22 +35805,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>64.94262896520388</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>141.2913663169562</v>
+        <v>57.71767054229561</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>148.3792973187131</v>
       </c>
       <c r="N16" t="n">
         <v>148.3792973187131</v>
       </c>
       <c r="O16" t="n">
-        <v>137.0342318350001</v>
+        <v>137.1712592561514</v>
       </c>
       <c r="P16" t="n">
-        <v>95.87454171499078</v>
+        <v>95.8745417149908</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>123.2101834308291</v>
       </c>
       <c r="K17" t="n">
         <v>148.3792973187131</v>
@@ -35890,10 +35890,10 @@
         <v>148.3792973187131</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>19.17399076389555</v>
       </c>
       <c r="N17" t="n">
-        <v>142.3841741947246</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>142.3841741947247</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35972,16 +35972,16 @@
         <v>148.3792973187131</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>148.3792973187131</v>
       </c>
       <c r="O18" t="n">
         <v>148.3792973187131</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>142.3841741947246</v>
       </c>
       <c r="Q18" t="n">
-        <v>148.3792973187131</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,22 +36042,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>64.94262896520388</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>141.2913663169562</v>
+        <v>57.71767054229561</v>
       </c>
       <c r="M19" t="n">
         <v>148.3792973187131</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>148.3792973187131</v>
       </c>
       <c r="O19" t="n">
-        <v>137.0342318350001</v>
+        <v>137.1712592561514</v>
       </c>
       <c r="P19" t="n">
-        <v>95.87454171499078</v>
+        <v>95.8745417149908</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36124,22 +36124,22 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>148.3792973187131</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>148.3792973187131</v>
+        <v>142.3841741947247</v>
       </c>
       <c r="O20" t="n">
         <v>148.3792973187131</v>
       </c>
       <c r="P20" t="n">
-        <v>142.3841741947246</v>
+        <v>148.3792973187131</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>148.3792973187131</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>90.93092582727566</v>
       </c>
       <c r="K21" t="n">
         <v>148.3792973187131</v>
@@ -36206,10 +36206,10 @@
         <v>148.3792973187131</v>
       </c>
       <c r="M21" t="n">
-        <v>142.3841741947246</v>
+        <v>148.3792973187131</v>
       </c>
       <c r="N21" t="n">
-        <v>148.3792973187131</v>
+        <v>51.45324836744903</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36279,22 +36279,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>64.94262896520388</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>141.2913663169562</v>
       </c>
       <c r="M22" t="n">
-        <v>148.3792973187131</v>
+        <v>64.80560154405255</v>
       </c>
       <c r="N22" t="n">
         <v>148.3792973187131</v>
       </c>
       <c r="O22" t="n">
-        <v>129.9463008332431</v>
+        <v>137.1712592561514</v>
       </c>
       <c r="P22" t="n">
-        <v>95.87454171499078</v>
+        <v>95.8745417149908</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,25 +36355,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>123.2101834308291</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>148.3792973187131</v>
       </c>
       <c r="M23" t="n">
         <v>148.3792973187131</v>
       </c>
       <c r="N23" t="n">
-        <v>142.3841741947247</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>148.3792973187131</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>19.17399076389555</v>
       </c>
       <c r="Q23" t="n">
         <v>148.3792973187131</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>90.93092582727566</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>148.3792973187131</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36446,16 +36446,16 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>148.3792973187131</v>
+        <v>142.3841741947247</v>
       </c>
       <c r="O24" t="n">
         <v>148.3792973187131</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>148.3792973187131</v>
       </c>
       <c r="Q24" t="n">
-        <v>51.45324836744903</v>
+        <v>148.3792973187131</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,22 +36516,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>64.94262896520388</v>
       </c>
       <c r="L25" t="n">
-        <v>57.71767054229561</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>148.3792973187131</v>
       </c>
       <c r="N25" t="n">
-        <v>148.3792973187131</v>
+        <v>141.1543388958048</v>
       </c>
       <c r="O25" t="n">
         <v>137.1712592561514</v>
       </c>
       <c r="P25" t="n">
-        <v>95.87454171499078</v>
+        <v>95.8745417149908</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36595,7 +36595,7 @@
         <v>123.2101834308291</v>
       </c>
       <c r="K26" t="n">
-        <v>427.9976711365277</v>
+        <v>318.2290329641714</v>
       </c>
       <c r="L26" t="n">
         <v>555.0346477439781</v>
@@ -36604,19 +36604,19 @@
         <v>611.4246435179768</v>
       </c>
       <c r="N26" t="n">
-        <v>523.9158860690136</v>
+        <v>598.0562769029704</v>
       </c>
       <c r="O26" t="n">
-        <v>518.0741129338425</v>
+        <v>408.3054747614861</v>
       </c>
       <c r="P26" t="n">
         <v>425.7656317123317</v>
       </c>
       <c r="Q26" t="n">
-        <v>159.619699580456</v>
+        <v>269.3883377528125</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>35.62824733839989</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>90.93092582727566</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>283.199899135763</v>
@@ -36683,16 +36683,16 @@
         <v>570.5713282463718</v>
       </c>
       <c r="N27" t="n">
-        <v>80.80895708571227</v>
+        <v>599.202858574924</v>
       </c>
       <c r="O27" t="n">
         <v>471.8826108388413</v>
       </c>
       <c r="P27" t="n">
-        <v>365.9202070161091</v>
+        <v>138.4475305738536</v>
       </c>
       <c r="Q27" t="n">
-        <v>199.9902992196804</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36759,7 +36759,7 @@
         <v>251.0600044893126</v>
       </c>
       <c r="M28" t="n">
-        <v>270.7783987487308</v>
+        <v>161.0097605763744</v>
       </c>
       <c r="N28" t="n">
         <v>244.6751396651855</v>
@@ -36768,7 +36768,7 @@
         <v>246.9398974285078</v>
       </c>
       <c r="P28" t="n">
-        <v>95.87454171499078</v>
+        <v>205.6431798873472</v>
       </c>
       <c r="Q28" t="n">
         <v>93.95875434571914</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>158.8384307692285</v>
+        <v>123.2101834308291</v>
       </c>
       <c r="K29" t="n">
-        <v>427.9976711365277</v>
+        <v>406.2249870436292</v>
       </c>
       <c r="L29" t="n">
-        <v>555.0346477439781</v>
+        <v>445.2660095716217</v>
       </c>
       <c r="M29" t="n">
-        <v>501.6560053456204</v>
+        <v>611.4246435179768</v>
       </c>
       <c r="N29" t="n">
-        <v>598.0562769029704</v>
+        <v>488.2876387306139</v>
       </c>
       <c r="O29" t="n">
         <v>518.0741129338425</v>
       </c>
       <c r="P29" t="n">
-        <v>315.9969935399753</v>
+        <v>425.7656317123317</v>
       </c>
       <c r="Q29" t="n">
-        <v>269.3883377528124</v>
+        <v>269.3883377528125</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>57.40093143129778</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>90.93092582727566</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>283.199899135763</v>
       </c>
       <c r="L30" t="n">
         <v>438.618906718948</v>
@@ -36923,10 +36923,10 @@
         <v>599.202858574924</v>
       </c>
       <c r="O30" t="n">
-        <v>471.8826108388413</v>
+        <v>44.41963517690533</v>
       </c>
       <c r="P30" t="n">
-        <v>130.7262046626604</v>
+        <v>365.9202070161091</v>
       </c>
       <c r="Q30" t="n">
         <v>199.9902992196804</v>
@@ -36993,19 +36993,19 @@
         <v>174.7112671375603</v>
       </c>
       <c r="L31" t="n">
-        <v>250.3010592562218</v>
+        <v>251.0600044893126</v>
       </c>
       <c r="M31" t="n">
         <v>270.7783987487308</v>
       </c>
       <c r="N31" t="n">
-        <v>160.4484371012057</v>
+        <v>270.2170752735621</v>
       </c>
       <c r="O31" t="n">
-        <v>246.9398974285078</v>
+        <v>246.1809521954169</v>
       </c>
       <c r="P31" t="n">
-        <v>205.6431798873472</v>
+        <v>95.8745417149908</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>232.9788216031854</v>
+        <v>232.9788216031855</v>
       </c>
       <c r="K32" t="n">
         <v>318.2290329641714</v>
       </c>
       <c r="L32" t="n">
-        <v>480.8942569100217</v>
+        <v>555.0346477439781</v>
       </c>
       <c r="M32" t="n">
-        <v>611.4246435179767</v>
+        <v>611.4246435179768</v>
       </c>
       <c r="N32" t="n">
-        <v>488.2876387306139</v>
+        <v>598.0562769029704</v>
       </c>
       <c r="O32" t="n">
-        <v>518.0741129338423</v>
+        <v>518.0741129338425</v>
       </c>
       <c r="P32" t="n">
-        <v>425.7656317123316</v>
+        <v>315.9969935399753</v>
       </c>
       <c r="Q32" t="n">
-        <v>269.3883377528123</v>
+        <v>159.6196995804561</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>35.62824733839989</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
         <v>55.7272226935072</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>438.618906718948</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>69.17576397043308</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>174.7112671375602</v>
+        <v>149.1693315291836</v>
       </c>
       <c r="L34" t="n">
-        <v>156.3423049105055</v>
+        <v>141.2913663169562</v>
       </c>
       <c r="M34" t="n">
-        <v>270.7783987487307</v>
+        <v>270.7783987487308</v>
       </c>
       <c r="N34" t="n">
-        <v>160.4484371012057</v>
+        <v>270.2170752735621</v>
       </c>
       <c r="O34" t="n">
-        <v>246.9398974285077</v>
+        <v>246.9398974285078</v>
       </c>
       <c r="P34" t="n">
-        <v>205.6431798873471</v>
+        <v>205.6431798873472</v>
       </c>
       <c r="Q34" t="n">
-        <v>93.95875434571903</v>
+        <v>93.95875434571914</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,7 +37306,7 @@
         <v>123.2101834308291</v>
       </c>
       <c r="K35" t="n">
-        <v>315.1784050134884</v>
+        <v>318.2290329641714</v>
       </c>
       <c r="L35" t="n">
         <v>445.2660095716217</v>
@@ -37318,13 +37318,13 @@
         <v>488.2876387306139</v>
       </c>
       <c r="O35" t="n">
-        <v>408.305474761486</v>
+        <v>408.3054747614861</v>
       </c>
       <c r="P35" t="n">
         <v>315.9969935399753</v>
       </c>
       <c r="Q35" t="n">
-        <v>159.619699580456</v>
+        <v>156.5690716297725</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37394,7 +37394,7 @@
         <v>570.5713282463718</v>
       </c>
       <c r="N36" t="n">
-        <v>80.80895708571249</v>
+        <v>280.7992563053927</v>
       </c>
       <c r="O36" t="n">
         <v>471.8826108388413</v>
@@ -37403,7 +37403,7 @@
         <v>365.9202070161091</v>
       </c>
       <c r="Q36" t="n">
-        <v>199.9902992196804</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37458,16 +37458,16 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>13.42015862507769</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>3.216252056546682</v>
       </c>
       <c r="K37" t="n">
         <v>64.94262896520388</v>
       </c>
       <c r="L37" t="n">
-        <v>157.9277769985808</v>
+        <v>141.2913663169562</v>
       </c>
       <c r="M37" t="n">
         <v>161.0097605763744</v>
@@ -37479,7 +37479,7 @@
         <v>137.1712592561514</v>
       </c>
       <c r="P37" t="n">
-        <v>95.87454171499078</v>
+        <v>95.8745417149908</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37555,13 +37555,13 @@
         <v>488.2876387306139</v>
       </c>
       <c r="O38" t="n">
-        <v>408.305474761486</v>
+        <v>408.3054747614861</v>
       </c>
       <c r="P38" t="n">
         <v>315.9969935399753</v>
       </c>
       <c r="Q38" t="n">
-        <v>156.5690716297734</v>
+        <v>156.5690716297725</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>90.93092582727566</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>283.199899135763</v>
+        <v>221.6571304899363</v>
       </c>
       <c r="L39" t="n">
         <v>438.618906718948</v>
@@ -37631,13 +37631,13 @@
         <v>570.5713282463718</v>
       </c>
       <c r="N39" t="n">
-        <v>80.80895708571249</v>
+        <v>599.202858574924</v>
       </c>
       <c r="O39" t="n">
         <v>471.8826108388413</v>
       </c>
       <c r="P39" t="n">
-        <v>365.9202070161091</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>199.9902992196804</v>
@@ -37695,13 +37695,13 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>13.42015862507766</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>64.94262896520388</v>
+        <v>69.45131873418883</v>
       </c>
       <c r="L40" t="n">
         <v>141.2913663169562</v>
@@ -37716,13 +37716,13 @@
         <v>137.1712592561514</v>
       </c>
       <c r="P40" t="n">
-        <v>99.09079377153782</v>
+        <v>95.8745417149908</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>12.12772091263941</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37789,16 +37789,16 @@
         <v>501.6560053456204</v>
       </c>
       <c r="N41" t="n">
-        <v>488.2876387306139</v>
+        <v>485.2370107799306</v>
       </c>
       <c r="O41" t="n">
-        <v>408.305474761486</v>
+        <v>408.3054747614861</v>
       </c>
       <c r="P41" t="n">
-        <v>312.946365589293</v>
+        <v>315.9969935399753</v>
       </c>
       <c r="Q41" t="n">
-        <v>159.619699580456</v>
+        <v>159.6196995804561</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>90.93092582727566</v>
       </c>
       <c r="K42" t="n">
-        <v>236.6886084853926</v>
+        <v>283.199899135763</v>
       </c>
       <c r="L42" t="n">
         <v>438.618906718948</v>
@@ -37868,7 +37868,7 @@
         <v>570.5713282463718</v>
       </c>
       <c r="N42" t="n">
-        <v>599.202858574924</v>
+        <v>552.6915679245537</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37932,10 +37932,10 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>13.42015862507766</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>16.6364106816246</v>
       </c>
       <c r="K43" t="n">
         <v>64.94262896520388</v>
@@ -37953,13 +37953,13 @@
         <v>137.1712592561514</v>
       </c>
       <c r="P43" t="n">
-        <v>95.87454171499078</v>
+        <v>95.8745417149908</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>3.216252056547041</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>123.2101834308291</v>
+        <v>120.1595554801459</v>
       </c>
       <c r="K44" t="n">
         <v>318.2290329641714</v>
@@ -38026,16 +38026,16 @@
         <v>501.6560053456204</v>
       </c>
       <c r="N44" t="n">
-        <v>485.2370107799311</v>
+        <v>488.2876387306139</v>
       </c>
       <c r="O44" t="n">
-        <v>408.305474761486</v>
+        <v>408.3054747614861</v>
       </c>
       <c r="P44" t="n">
         <v>315.9969935399753</v>
       </c>
       <c r="Q44" t="n">
-        <v>159.619699580456</v>
+        <v>159.6196995804561</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38105,13 +38105,13 @@
         <v>570.5713282463718</v>
       </c>
       <c r="N45" t="n">
-        <v>446.7291641018217</v>
+        <v>552.6915679245537</v>
       </c>
       <c r="O45" t="n">
-        <v>471.8826108388413</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>365.9202070161091</v>
       </c>
       <c r="Q45" t="n">
         <v>199.9902992196804</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>16.63641068162463</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>64.94262896520388</v>
       </c>
       <c r="L46" t="n">
-        <v>141.2913663169562</v>
+        <v>157.9277769985805</v>
       </c>
       <c r="M46" t="n">
         <v>161.0097605763744</v>
@@ -38190,7 +38190,7 @@
         <v>137.1712592561514</v>
       </c>
       <c r="P46" t="n">
-        <v>95.87454171499078</v>
+        <v>95.8745417149908</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
